--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="427">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['22', '49', '82', '90+3']</t>
+  </si>
+  <si>
     <t>['20', '28']</t>
   </si>
   <si>
@@ -1290,6 +1293,9 @@
   <si>
     <t>['45']</t>
   </si>
+  <si>
+    <t>['27', '38']</t>
+  </si>
 </sst>
 </file>
 
@@ -1650,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP330"/>
+  <dimension ref="A1:BP331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,7 +1915,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2115,7 +2121,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2196,7 +2202,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2733,7 +2739,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2939,7 +2945,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3145,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3763,7 +3769,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -3969,7 +3975,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4587,7 +4593,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4793,7 +4799,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5283,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ18">
         <v>0.38</v>
@@ -5617,7 +5623,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5823,7 +5829,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6647,7 +6653,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6853,7 +6859,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7059,7 +7065,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7265,7 +7271,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7471,7 +7477,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7883,7 +7889,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8089,7 +8095,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8295,7 +8301,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8501,7 +8507,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -8994,7 +9000,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR36">
         <v>1.78</v>
@@ -9737,7 +9743,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -10845,7 +10851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ45">
         <v>1.13</v>
@@ -10973,7 +10979,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11797,7 +11803,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12003,7 +12009,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12209,7 +12215,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12621,7 +12627,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12699,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ54">
         <v>0.82</v>
@@ -12827,7 +12833,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12908,7 +12914,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -13033,7 +13039,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -14269,7 +14275,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14681,7 +14687,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14887,7 +14893,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15093,7 +15099,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15917,7 +15923,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16201,7 +16207,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ71">
         <v>1.06</v>
@@ -16535,7 +16541,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16741,7 +16747,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17153,7 +17159,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17359,7 +17365,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17646,7 +17652,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
         <v>1.58</v>
@@ -17771,7 +17777,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -18801,7 +18807,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18882,7 +18888,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -19007,7 +19013,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19213,7 +19219,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19625,7 +19631,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19831,7 +19837,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -20037,7 +20043,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20655,7 +20661,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21067,7 +21073,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21479,7 +21485,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21685,7 +21691,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21969,7 +21975,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ99">
         <v>1.25</v>
@@ -22509,7 +22515,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22715,7 +22721,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22793,7 +22799,7 @@
         <v>2.17</v>
       </c>
       <c r="AP103">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ103">
         <v>2.35</v>
@@ -23127,7 +23133,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23539,7 +23545,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23745,7 +23751,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23826,7 +23832,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>1.73</v>
@@ -24157,7 +24163,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24363,7 +24369,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24569,7 +24575,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -25805,7 +25811,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -26423,7 +26429,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26629,7 +26635,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26835,7 +26841,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27534,7 +27540,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ126">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27659,7 +27665,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27737,7 +27743,7 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ127">
         <v>0.6899999999999999</v>
@@ -27865,7 +27871,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28483,7 +28489,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -29719,7 +29725,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -30830,7 +30836,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>1.58</v>
@@ -31985,7 +31991,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32269,7 +32275,7 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ149">
         <v>1.13</v>
@@ -32684,7 +32690,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR151">
         <v>1.5</v>
@@ -32809,7 +32815,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33221,7 +33227,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33633,7 +33639,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -34045,7 +34051,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34123,7 +34129,7 @@
         <v>2.71</v>
       </c>
       <c r="AP158">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ158">
         <v>1.76</v>
@@ -35281,7 +35287,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -36105,7 +36111,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36804,7 +36810,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36929,7 +36935,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37135,7 +37141,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37341,7 +37347,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37419,7 +37425,7 @@
         <v>0.13</v>
       </c>
       <c r="AP174">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ174">
         <v>0.38</v>
@@ -37547,7 +37553,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -38989,7 +38995,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -40225,7 +40231,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40637,7 +40643,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40843,7 +40849,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41049,7 +41055,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41461,7 +41467,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -42285,7 +42291,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42366,7 +42372,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ198">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR198">
         <v>1.24</v>
@@ -42697,7 +42703,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -43521,7 +43527,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43727,7 +43733,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43933,7 +43939,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44139,7 +44145,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44551,7 +44557,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44963,7 +44969,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45169,7 +45175,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45247,7 +45253,7 @@
         <v>0.9</v>
       </c>
       <c r="AP212">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -46280,7 +46286,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -46689,7 +46695,7 @@
         <v>1.1</v>
       </c>
       <c r="AP219">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46817,7 +46823,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47023,7 +47029,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47641,7 +47647,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47847,7 +47853,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48465,7 +48471,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48671,7 +48677,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48877,7 +48883,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49083,7 +49089,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49289,7 +49295,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49495,7 +49501,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -50194,7 +50200,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ236">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR236">
         <v>1.11</v>
@@ -50319,7 +50325,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50937,7 +50943,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -51015,7 +51021,7 @@
         <v>0.09</v>
       </c>
       <c r="AP240">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ240">
         <v>0.19</v>
@@ -51967,7 +51973,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52585,7 +52591,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52791,7 +52797,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53203,7 +53209,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53409,7 +53415,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -53693,7 +53699,7 @@
         <v>0.77</v>
       </c>
       <c r="AP253">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ253">
         <v>0.82</v>
@@ -54027,7 +54033,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54233,7 +54239,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -55469,7 +55475,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55881,7 +55887,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56087,7 +56093,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56499,7 +56505,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -57401,7 +57407,7 @@
         <v>0.62</v>
       </c>
       <c r="AP271">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ271">
         <v>0.59</v>
@@ -57941,7 +57947,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58559,7 +58565,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58971,7 +58977,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59177,7 +59183,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59795,7 +59801,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60413,7 +60419,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60619,7 +60625,7 @@
         <v>90</v>
       </c>
       <c r="P287" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60906,7 +60912,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ288">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR288">
         <v>1.51</v>
@@ -61237,7 +61243,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61855,7 +61861,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62345,7 +62351,7 @@
         <v>1.07</v>
       </c>
       <c r="AP295">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ295">
         <v>0.9399999999999999</v>
@@ -62679,7 +62685,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63297,7 +63303,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63503,7 +63509,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63584,7 +63590,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ301">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR301">
         <v>1.42</v>
@@ -64327,7 +64333,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64533,7 +64539,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64739,7 +64745,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -65357,7 +65363,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -65644,7 +65650,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ311">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR311">
         <v>1.44</v>
@@ -66387,7 +66393,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66799,7 +66805,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67005,7 +67011,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67417,7 +67423,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -68241,7 +68247,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68653,7 +68659,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -69634,6 +69640,212 @@
       </c>
       <c r="BP330">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>6703372</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45411.66666666666</v>
+      </c>
+      <c r="F331">
+        <v>33</v>
+      </c>
+      <c r="G331" t="s">
+        <v>84</v>
+      </c>
+      <c r="H331" t="s">
+        <v>81</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331">
+        <v>3</v>
+      </c>
+      <c r="L331">
+        <v>4</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>6</v>
+      </c>
+      <c r="O331" t="s">
+        <v>301</v>
+      </c>
+      <c r="P331" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q331">
+        <v>1.83</v>
+      </c>
+      <c r="R331">
+        <v>2.5</v>
+      </c>
+      <c r="S331">
+        <v>7</v>
+      </c>
+      <c r="T331">
+        <v>1.3</v>
+      </c>
+      <c r="U331">
+        <v>3.4</v>
+      </c>
+      <c r="V331">
+        <v>2.38</v>
+      </c>
+      <c r="W331">
+        <v>1.53</v>
+      </c>
+      <c r="X331">
+        <v>6</v>
+      </c>
+      <c r="Y331">
+        <v>1.13</v>
+      </c>
+      <c r="Z331">
+        <v>1.16</v>
+      </c>
+      <c r="AA331">
+        <v>6.25</v>
+      </c>
+      <c r="AB331">
+        <v>11.54</v>
+      </c>
+      <c r="AC331">
+        <v>1.03</v>
+      </c>
+      <c r="AD331">
+        <v>18</v>
+      </c>
+      <c r="AE331">
+        <v>1.2</v>
+      </c>
+      <c r="AF331">
+        <v>4.6</v>
+      </c>
+      <c r="AG331">
+        <v>1.61</v>
+      </c>
+      <c r="AH331">
+        <v>2.26</v>
+      </c>
+      <c r="AI331">
+        <v>1.95</v>
+      </c>
+      <c r="AJ331">
+        <v>1.8</v>
+      </c>
+      <c r="AK331">
+        <v>1.1</v>
+      </c>
+      <c r="AL331">
+        <v>1.17</v>
+      </c>
+      <c r="AM331">
+        <v>3.05</v>
+      </c>
+      <c r="AN331">
+        <v>2.31</v>
+      </c>
+      <c r="AO331">
+        <v>1.13</v>
+      </c>
+      <c r="AP331">
+        <v>2.35</v>
+      </c>
+      <c r="AQ331">
+        <v>1.06</v>
+      </c>
+      <c r="AR331">
+        <v>1.9</v>
+      </c>
+      <c r="AS331">
+        <v>1.03</v>
+      </c>
+      <c r="AT331">
+        <v>2.93</v>
+      </c>
+      <c r="AU331">
+        <v>14</v>
+      </c>
+      <c r="AV331">
+        <v>4</v>
+      </c>
+      <c r="AW331">
+        <v>4</v>
+      </c>
+      <c r="AX331">
+        <v>1</v>
+      </c>
+      <c r="AY331">
+        <v>18</v>
+      </c>
+      <c r="AZ331">
+        <v>5</v>
+      </c>
+      <c r="BA331">
+        <v>15</v>
+      </c>
+      <c r="BB331">
+        <v>1</v>
+      </c>
+      <c r="BC331">
+        <v>16</v>
+      </c>
+      <c r="BD331">
+        <v>1.21</v>
+      </c>
+      <c r="BE331">
+        <v>12</v>
+      </c>
+      <c r="BF331">
+        <v>5.65</v>
+      </c>
+      <c r="BG331">
+        <v>1.27</v>
+      </c>
+      <c r="BH331">
+        <v>3.28</v>
+      </c>
+      <c r="BI331">
+        <v>1.52</v>
+      </c>
+      <c r="BJ331">
+        <v>2.39</v>
+      </c>
+      <c r="BK331">
+        <v>1.91</v>
+      </c>
+      <c r="BL331">
+        <v>1.85</v>
+      </c>
+      <c r="BM331">
+        <v>2.47</v>
+      </c>
+      <c r="BN331">
+        <v>1.49</v>
+      </c>
+      <c r="BO331">
+        <v>3.28</v>
+      </c>
+      <c r="BP331">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -69782,22 +69782,22 @@
         <v>2.93</v>
       </c>
       <c r="AU331">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AV331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX331">
         <v>1</v>
       </c>
       <c r="AY331">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ331">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA331">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -69782,22 +69782,22 @@
         <v>2.93</v>
       </c>
       <c r="AU331">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AV331">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW331">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX331">
         <v>1</v>
       </c>
       <c r="AY331">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ331">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA331">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="433">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1311,6 +1311,9 @@
   <si>
     <t>['3', '45+1']</t>
   </si>
+  <si>
+    <t>['41', '45+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1671,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP336"/>
+  <dimension ref="A1:BP337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3247,7 +3250,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4892,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ16">
         <v>1.35</v>
@@ -7573,7 +7576,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -9836,7 +9839,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ40">
         <v>1.94</v>
@@ -10869,7 +10872,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR45">
         <v>2.46</v>
@@ -12514,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
         <v>1.06</v>
@@ -15607,7 +15610,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -16016,7 +16019,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70">
         <v>1.24</v>
@@ -19933,7 +19936,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
         <v>1.36</v>
@@ -20342,7 +20345,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ91">
         <v>0.19</v>
@@ -20757,7 +20760,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -24668,7 +24671,7 @@
         <v>2.6</v>
       </c>
       <c r="AP112">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ112">
         <v>1.76</v>
@@ -27346,7 +27349,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27967,7 +27970,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR128">
         <v>1.98</v>
@@ -31466,7 +31469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ145">
         <v>1.59</v>
@@ -31881,7 +31884,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ147">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -34762,7 +34765,7 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -36001,7 +36004,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -39915,7 +39918,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ186">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -40530,7 +40533,7 @@
         <v>0.11</v>
       </c>
       <c r="AP189">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ189">
         <v>0.38</v>
@@ -43620,7 +43623,7 @@
         <v>0.8</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>0.82</v>
@@ -45477,7 +45480,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ213">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
         <v>1.28</v>
@@ -48564,7 +48567,7 @@
         <v>0.7</v>
       </c>
       <c r="AP228">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ228">
         <v>0.82</v>
@@ -49391,7 +49394,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ232">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR232">
         <v>1.21</v>
@@ -51860,7 +51863,7 @@
         <v>0.42</v>
       </c>
       <c r="AP244">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ244">
         <v>0.35</v>
@@ -56601,7 +56604,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ267">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR267">
         <v>1.6</v>
@@ -57216,7 +57219,7 @@
         <v>0.85</v>
       </c>
       <c r="AP270">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ270">
         <v>0.6899999999999999</v>
@@ -59894,7 +59897,7 @@
         <v>2.21</v>
       </c>
       <c r="AP283">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ283">
         <v>2.35</v>
@@ -61133,7 +61136,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ289">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR289">
         <v>1.57</v>
@@ -62781,7 +62784,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ297">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR297">
         <v>1.56</v>
@@ -65662,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="AP311">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ311">
         <v>1.06</v>
@@ -66489,7 +66492,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ315">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR315">
         <v>1.24</v>
@@ -70003,22 +70006,22 @@
         <v>2.53</v>
       </c>
       <c r="AU332">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV332">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW332">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX332">
         <v>3</v>
       </c>
       <c r="AY332">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ332">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA332">
         <v>10</v>
@@ -70415,31 +70418,31 @@
         <v>2.98</v>
       </c>
       <c r="AU334">
+        <v>11</v>
+      </c>
+      <c r="AV334">
+        <v>3</v>
+      </c>
+      <c r="AW334">
         <v>5</v>
       </c>
-      <c r="AV334">
-        <v>2</v>
-      </c>
-      <c r="AW334">
-        <v>2</v>
-      </c>
       <c r="AX334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY334">
+        <v>16</v>
+      </c>
+      <c r="AZ334">
         <v>7</v>
       </c>
-      <c r="AZ334">
+      <c r="BA334">
+        <v>7</v>
+      </c>
+      <c r="BB334">
         <v>4</v>
       </c>
-      <c r="BA334">
-        <v>4</v>
-      </c>
-      <c r="BB334">
-        <v>2</v>
-      </c>
       <c r="BC334">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD334">
         <v>1.26</v>
@@ -70621,31 +70624,31 @@
         <v>3.03</v>
       </c>
       <c r="AU335">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV335">
+        <v>8</v>
+      </c>
+      <c r="AW335">
+        <v>1</v>
+      </c>
+      <c r="AX335">
+        <v>5</v>
+      </c>
+      <c r="AY335">
+        <v>9</v>
+      </c>
+      <c r="AZ335">
+        <v>13</v>
+      </c>
+      <c r="BA335">
+        <v>5</v>
+      </c>
+      <c r="BB335">
         <v>4</v>
       </c>
-      <c r="AW335">
-        <v>2</v>
-      </c>
-      <c r="AX335">
-        <v>3</v>
-      </c>
-      <c r="AY335">
-        <v>2</v>
-      </c>
-      <c r="AZ335">
-        <v>7</v>
-      </c>
-      <c r="BA335">
-        <v>1</v>
-      </c>
-      <c r="BB335">
-        <v>2</v>
-      </c>
       <c r="BC335">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD335">
         <v>2.15</v>
@@ -70827,31 +70830,31 @@
         <v>2.68</v>
       </c>
       <c r="AU336">
+        <v>5</v>
+      </c>
+      <c r="AV336">
+        <v>5</v>
+      </c>
+      <c r="AW336">
         <v>3</v>
       </c>
-      <c r="AV336">
-        <v>3</v>
-      </c>
-      <c r="AW336">
-        <v>1</v>
-      </c>
       <c r="AX336">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY336">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ336">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA336">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC336">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD336">
         <v>1.85</v>
@@ -70891,6 +70894,212 @@
       </c>
       <c r="BP336">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>6703386</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F337">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
+        <v>82</v>
+      </c>
+      <c r="H337" t="s">
+        <v>85</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>2</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337" t="s">
+        <v>90</v>
+      </c>
+      <c r="P337" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q337">
+        <v>3.75</v>
+      </c>
+      <c r="R337">
+        <v>2.05</v>
+      </c>
+      <c r="S337">
+        <v>3</v>
+      </c>
+      <c r="T337">
+        <v>1.44</v>
+      </c>
+      <c r="U337">
+        <v>2.63</v>
+      </c>
+      <c r="V337">
+        <v>3.25</v>
+      </c>
+      <c r="W337">
+        <v>1.33</v>
+      </c>
+      <c r="X337">
+        <v>10</v>
+      </c>
+      <c r="Y337">
+        <v>1.06</v>
+      </c>
+      <c r="Z337">
+        <v>3.06</v>
+      </c>
+      <c r="AA337">
+        <v>3.3</v>
+      </c>
+      <c r="AB337">
+        <v>2.35</v>
+      </c>
+      <c r="AC337">
+        <v>1.09</v>
+      </c>
+      <c r="AD337">
+        <v>10.5</v>
+      </c>
+      <c r="AE337">
+        <v>1.38</v>
+      </c>
+      <c r="AF337">
+        <v>3</v>
+      </c>
+      <c r="AG337">
+        <v>2.11</v>
+      </c>
+      <c r="AH337">
+        <v>1.68</v>
+      </c>
+      <c r="AI337">
+        <v>1.91</v>
+      </c>
+      <c r="AJ337">
+        <v>1.91</v>
+      </c>
+      <c r="AK337">
+        <v>1.55</v>
+      </c>
+      <c r="AL337">
+        <v>1.28</v>
+      </c>
+      <c r="AM337">
+        <v>1.38</v>
+      </c>
+      <c r="AN337">
+        <v>1.31</v>
+      </c>
+      <c r="AO337">
+        <v>1.13</v>
+      </c>
+      <c r="AP337">
+        <v>1.24</v>
+      </c>
+      <c r="AQ337">
+        <v>1.24</v>
+      </c>
+      <c r="AR337">
+        <v>1.45</v>
+      </c>
+      <c r="AS337">
+        <v>1.18</v>
+      </c>
+      <c r="AT337">
+        <v>2.63</v>
+      </c>
+      <c r="AU337">
+        <v>3</v>
+      </c>
+      <c r="AV337">
+        <v>5</v>
+      </c>
+      <c r="AW337">
+        <v>7</v>
+      </c>
+      <c r="AX337">
+        <v>4</v>
+      </c>
+      <c r="AY337">
+        <v>10</v>
+      </c>
+      <c r="AZ337">
+        <v>9</v>
+      </c>
+      <c r="BA337">
+        <v>8</v>
+      </c>
+      <c r="BB337">
+        <v>5</v>
+      </c>
+      <c r="BC337">
+        <v>13</v>
+      </c>
+      <c r="BD337">
+        <v>1.92</v>
+      </c>
+      <c r="BE337">
+        <v>7.5</v>
+      </c>
+      <c r="BF337">
+        <v>2.16</v>
+      </c>
+      <c r="BG337">
+        <v>1.22</v>
+      </c>
+      <c r="BH337">
+        <v>3.5</v>
+      </c>
+      <c r="BI337">
+        <v>1.42</v>
+      </c>
+      <c r="BJ337">
+        <v>2.5</v>
+      </c>
+      <c r="BK337">
+        <v>1.73</v>
+      </c>
+      <c r="BL337">
+        <v>1.96</v>
+      </c>
+      <c r="BM337">
+        <v>2.17</v>
+      </c>
+      <c r="BN337">
+        <v>1.58</v>
+      </c>
+      <c r="BO337">
+        <v>2.75</v>
+      </c>
+      <c r="BP337">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,7 +928,13 @@
     <t>['51', '68', '90+3']</t>
   </si>
   <si>
-    <t>['4', '65', '67', '74']</t>
+    <t>['4', '65', '67', '75']</t>
+  </si>
+  <si>
+    <t>['22', '39', '82']</t>
+  </si>
+  <si>
+    <t>['11', '51', '80']</t>
   </si>
   <si>
     <t>['20', '28']</t>
@@ -1314,6 +1320,9 @@
   <si>
     <t>['41', '45+3']</t>
   </si>
+  <si>
+    <t>['12', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1674,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP337"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1942,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2139,7 +2148,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2217,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ3">
         <v>1.06</v>
@@ -2345,7 +2354,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2757,7 +2766,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2963,7 +2972,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3041,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -3169,7 +3178,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3662,7 +3671,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3787,7 +3796,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -3868,7 +3877,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ11">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3993,7 +4002,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4074,7 +4083,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4277,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -4611,7 +4620,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4817,7 +4826,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5641,7 +5650,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5847,7 +5856,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6337,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
         <v>2.35</v>
@@ -6546,7 +6555,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ24">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR24">
         <v>1.17</v>
@@ -6671,7 +6680,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6877,7 +6886,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6955,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
         <v>1.76</v>
@@ -7083,7 +7092,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7289,7 +7298,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7367,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7495,7 +7504,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7782,7 +7791,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR30">
         <v>0.85</v>
@@ -7907,7 +7916,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -7985,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.24</v>
@@ -8113,7 +8122,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8194,7 +8203,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR32">
         <v>1.16</v>
@@ -8319,7 +8328,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8525,7 +8534,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -8606,7 +8615,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ34">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -9761,7 +9770,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -10045,10 +10054,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -10457,7 +10466,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
         <v>1.24</v>
@@ -10663,7 +10672,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>0.59</v>
@@ -10997,7 +11006,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11284,7 +11293,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -11487,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11821,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12027,7 +12036,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12233,7 +12242,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12645,7 +12654,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12851,7 +12860,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13057,7 +13066,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -13341,10 +13350,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR57">
         <v>1.9</v>
@@ -13756,7 +13765,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -14165,10 +14174,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ61">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -14293,7 +14302,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14705,7 +14714,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14911,7 +14920,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15117,7 +15126,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15195,7 +15204,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>1.59</v>
@@ -15813,10 +15822,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15941,7 +15950,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16434,7 +16443,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR72">
         <v>1.28</v>
@@ -16559,7 +16568,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16637,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>0.59</v>
@@ -16765,7 +16774,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17177,7 +17186,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17258,7 +17267,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ76">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR76">
         <v>1.93</v>
@@ -17383,7 +17392,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17795,7 +17804,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -18288,7 +18297,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18825,7 +18834,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19031,7 +19040,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19109,7 +19118,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19237,7 +19246,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19649,7 +19658,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19727,7 +19736,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ88">
         <v>0.82</v>
@@ -19855,7 +19864,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -20061,7 +20070,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20348,7 +20357,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ91">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR91">
         <v>1.48</v>
@@ -20679,7 +20688,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20963,7 +20972,7 @@
         <v>2.4</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ94">
         <v>2.35</v>
@@ -21091,7 +21100,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21169,7 +21178,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
         <v>1.24</v>
@@ -21503,7 +21512,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21584,7 +21593,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21709,7 +21718,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21790,7 +21799,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -22199,7 +22208,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
         <v>0.35</v>
@@ -22533,7 +22542,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22739,7 +22748,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23151,7 +23160,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23563,7 +23572,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23641,7 +23650,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.59</v>
@@ -23769,7 +23778,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -24056,7 +24065,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ109">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -24181,7 +24190,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24262,7 +24271,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ110">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -24387,7 +24396,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24593,7 +24602,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -25083,7 +25092,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25498,7 +25507,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ116">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25701,10 +25710,10 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25829,7 +25838,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -26447,7 +26456,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26653,7 +26662,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26731,7 +26740,7 @@
         <v>2.67</v>
       </c>
       <c r="AP122">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1.76</v>
@@ -26859,7 +26868,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27683,7 +27692,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27764,7 +27773,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ127">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
         <v>1.81</v>
@@ -27889,7 +27898,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27967,7 +27976,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ128">
         <v>1.24</v>
@@ -28176,7 +28185,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR129">
         <v>1.65</v>
@@ -28382,7 +28391,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR130">
         <v>1.51</v>
@@ -28507,7 +28516,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28585,7 +28594,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1.94</v>
@@ -28791,7 +28800,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ132">
         <v>0.82</v>
@@ -29000,7 +29009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -29743,7 +29752,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -31266,7 +31275,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ144">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -31678,7 +31687,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>1.17</v>
@@ -32009,7 +32018,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32087,10 +32096,10 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR148">
         <v>1.93</v>
@@ -32499,7 +32508,7 @@
         <v>0.29</v>
       </c>
       <c r="AP150">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ150">
         <v>0.35</v>
@@ -32833,7 +32842,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33245,7 +33254,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33657,7 +33666,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -33738,7 +33747,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ156">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR156">
         <v>1.82</v>
@@ -34069,7 +34078,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34559,7 +34568,7 @@
         <v>0.71</v>
       </c>
       <c r="AP160">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>0.82</v>
@@ -34971,10 +34980,10 @@
         <v>0.13</v>
       </c>
       <c r="AP162">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ162">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR162">
         <v>1.57</v>
@@ -35305,7 +35314,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35383,7 +35392,7 @@
         <v>0.5</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ164">
         <v>0.82</v>
@@ -35589,7 +35598,7 @@
         <v>1.86</v>
       </c>
       <c r="AP165">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ165">
         <v>1.94</v>
@@ -36129,7 +36138,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36416,7 +36425,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ169">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR169">
         <v>2.06</v>
@@ -36622,7 +36631,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ170">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -36825,7 +36834,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -36953,7 +36962,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37159,7 +37168,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37365,7 +37374,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37446,7 +37455,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ174">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR174">
         <v>1.89</v>
@@ -37571,7 +37580,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -39013,7 +39022,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -39300,7 +39309,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR183">
         <v>1.45</v>
@@ -39503,10 +39512,10 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ184">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR184">
         <v>1.22</v>
@@ -39915,7 +39924,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ186">
         <v>1.24</v>
@@ -40249,7 +40258,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40536,7 +40545,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ189">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40661,7 +40670,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40739,7 +40748,7 @@
         <v>1.5</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
         <v>1.35</v>
@@ -40867,7 +40876,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41073,7 +41082,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41151,10 +41160,10 @@
         <v>0.4</v>
       </c>
       <c r="AP192">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ192">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR192">
         <v>1.78</v>
@@ -41360,7 +41369,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR193">
         <v>1.17</v>
@@ -41485,7 +41494,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -41978,7 +41987,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ196">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR196">
         <v>1.61</v>
@@ -42309,7 +42318,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42721,7 +42730,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -42799,7 +42808,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
         <v>0.88</v>
@@ -43211,7 +43220,7 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ202">
         <v>1.35</v>
@@ -43417,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP203">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ203">
         <v>1.59</v>
@@ -43545,7 +43554,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43751,7 +43760,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43832,7 +43841,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ205">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR205">
         <v>2.04</v>
@@ -43957,7 +43966,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44163,7 +44172,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44575,7 +44584,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44656,7 +44665,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ209">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR209">
         <v>1.59</v>
@@ -44987,7 +44996,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45193,7 +45202,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45274,7 +45283,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ212">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR212">
         <v>1.99</v>
@@ -45683,7 +45692,7 @@
         <v>2.4</v>
       </c>
       <c r="AP214">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ214">
         <v>1.76</v>
@@ -46095,7 +46104,7 @@
         <v>1.11</v>
       </c>
       <c r="AP216">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ216">
         <v>1.06</v>
@@ -46510,7 +46519,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ218">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -46841,7 +46850,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47047,7 +47056,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47537,10 +47546,10 @@
         <v>0.09</v>
       </c>
       <c r="AP223">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ223">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR223">
         <v>1.23</v>
@@ -47665,7 +47674,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47871,7 +47880,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48489,7 +48498,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48695,7 +48704,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48901,7 +48910,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49107,7 +49116,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49185,7 +49194,7 @@
         <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ231">
         <v>1.06</v>
@@ -49313,7 +49322,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49519,7 +49528,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -49600,7 +49609,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ233">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR233">
         <v>1.42</v>
@@ -50343,7 +50352,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50833,7 +50842,7 @@
         <v>1.27</v>
       </c>
       <c r="AP239">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ239">
         <v>1.24</v>
@@ -50961,7 +50970,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -51042,7 +51051,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ240">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR240">
         <v>1.99</v>
@@ -51991,7 +52000,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52069,7 +52078,7 @@
         <v>2.09</v>
       </c>
       <c r="AP245">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ245">
         <v>1.94</v>
@@ -52275,7 +52284,7 @@
         <v>0.82</v>
       </c>
       <c r="AP246">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ246">
         <v>1.06</v>
@@ -52481,7 +52490,7 @@
         <v>2.42</v>
       </c>
       <c r="AP247">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ247">
         <v>2.35</v>
@@ -52609,7 +52618,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52690,7 +52699,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ248">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52815,7 +52824,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53102,7 +53111,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ250">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR250">
         <v>1.58</v>
@@ -53227,7 +53236,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53433,7 +53442,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -53514,7 +53523,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ252">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR252">
         <v>1.46</v>
@@ -54051,7 +54060,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54257,7 +54266,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -55365,10 +55374,10 @@
         <v>0.15</v>
       </c>
       <c r="AP261">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ261">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR261">
         <v>1.48</v>
@@ -55493,7 +55502,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55571,7 +55580,7 @@
         <v>1.54</v>
       </c>
       <c r="AP262">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ262">
         <v>1.59</v>
@@ -55777,7 +55786,7 @@
         <v>0.38</v>
       </c>
       <c r="AP263">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ263">
         <v>0.35</v>
@@ -55905,7 +55914,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56111,7 +56120,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56189,7 +56198,7 @@
         <v>2.31</v>
       </c>
       <c r="AP265">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ265">
         <v>2.35</v>
@@ -56398,7 +56407,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ266">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR266">
         <v>1.48</v>
@@ -56523,7 +56532,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -57222,7 +57231,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ270">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR270">
         <v>1.46</v>
@@ -57631,7 +57640,7 @@
         <v>0.71</v>
       </c>
       <c r="AP272">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ272">
         <v>0.82</v>
@@ -57965,7 +57974,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58583,7 +58592,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58995,7 +59004,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59076,7 +59085,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ279">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR279">
         <v>1.54</v>
@@ -59201,7 +59210,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59694,7 +59703,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ282">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR282">
         <v>1.21</v>
@@ -59819,7 +59828,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60312,7 +60321,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ285">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR285">
         <v>1.68</v>
@@ -60437,7 +60446,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60515,7 +60524,7 @@
         <v>0.79</v>
       </c>
       <c r="AP286">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ286">
         <v>0.82</v>
@@ -60643,7 +60652,7 @@
         <v>90</v>
       </c>
       <c r="P287" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60724,7 +60733,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ287">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR287">
         <v>1.11</v>
@@ -61133,7 +61142,7 @@
         <v>1.15</v>
       </c>
       <c r="AP289">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ289">
         <v>1.24</v>
@@ -61261,7 +61270,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61548,7 +61557,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ291">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR291">
         <v>1.27</v>
@@ -61879,7 +61888,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62163,7 +62172,7 @@
         <v>0.57</v>
       </c>
       <c r="AP294">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ294">
         <v>0.59</v>
@@ -62575,7 +62584,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ296">
         <v>1</v>
@@ -62703,7 +62712,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63321,7 +63330,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63527,7 +63536,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64223,7 +64232,7 @@
         <v>0.67</v>
       </c>
       <c r="AP304">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ304">
         <v>0.82</v>
@@ -64351,7 +64360,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64557,7 +64566,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64763,7 +64772,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -65050,7 +65059,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ308">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR308">
         <v>1.42</v>
@@ -65256,7 +65265,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ309">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR309">
         <v>1.66</v>
@@ -65381,7 +65390,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -65462,7 +65471,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ310">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR310">
         <v>1.54</v>
@@ -65874,7 +65883,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ312">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR312">
         <v>1.67</v>
@@ -66077,7 +66086,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ313">
         <v>0.88</v>
@@ -66283,7 +66292,7 @@
         <v>1.2</v>
       </c>
       <c r="AP314">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ314">
         <v>1.06</v>
@@ -66411,7 +66420,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66489,7 +66498,7 @@
         <v>1</v>
       </c>
       <c r="AP315">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ315">
         <v>1.24</v>
@@ -66823,7 +66832,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67029,7 +67038,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67110,7 +67119,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ318">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR318">
         <v>1.54</v>
@@ -67441,7 +67450,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -67725,7 +67734,7 @@
         <v>0.6</v>
       </c>
       <c r="AP321">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ321">
         <v>0.59</v>
@@ -68265,7 +68274,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68677,7 +68686,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -69707,7 +69716,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -69913,7 +69922,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70531,7 +70540,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70943,7 +70952,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71100,6 +71109,830 @@
       </c>
       <c r="BP337">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>6703381</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45417.46875</v>
+      </c>
+      <c r="F338">
+        <v>34</v>
+      </c>
+      <c r="G338" t="s">
+        <v>75</v>
+      </c>
+      <c r="H338" t="s">
+        <v>76</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338">
+        <v>3</v>
+      </c>
+      <c r="L338">
+        <v>3</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>5</v>
+      </c>
+      <c r="O338" t="s">
+        <v>305</v>
+      </c>
+      <c r="P338" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q338">
+        <v>2.88</v>
+      </c>
+      <c r="R338">
+        <v>2.3</v>
+      </c>
+      <c r="S338">
+        <v>3.4</v>
+      </c>
+      <c r="T338">
+        <v>1.3</v>
+      </c>
+      <c r="U338">
+        <v>3.4</v>
+      </c>
+      <c r="V338">
+        <v>2.5</v>
+      </c>
+      <c r="W338">
+        <v>1.5</v>
+      </c>
+      <c r="X338">
+        <v>6</v>
+      </c>
+      <c r="Y338">
+        <v>1.13</v>
+      </c>
+      <c r="Z338">
+        <v>2.3</v>
+      </c>
+      <c r="AA338">
+        <v>3.6</v>
+      </c>
+      <c r="AB338">
+        <v>2.92</v>
+      </c>
+      <c r="AC338">
+        <v>1.03</v>
+      </c>
+      <c r="AD338">
+        <v>15</v>
+      </c>
+      <c r="AE338">
+        <v>1.22</v>
+      </c>
+      <c r="AF338">
+        <v>4.33</v>
+      </c>
+      <c r="AG338">
+        <v>1.63</v>
+      </c>
+      <c r="AH338">
+        <v>2.19</v>
+      </c>
+      <c r="AI338">
+        <v>1.53</v>
+      </c>
+      <c r="AJ338">
+        <v>2.38</v>
+      </c>
+      <c r="AK338">
+        <v>1.44</v>
+      </c>
+      <c r="AL338">
+        <v>1.25</v>
+      </c>
+      <c r="AM338">
+        <v>1.63</v>
+      </c>
+      <c r="AN338">
+        <v>1.06</v>
+      </c>
+      <c r="AO338">
+        <v>1.44</v>
+      </c>
+      <c r="AP338">
+        <v>1.18</v>
+      </c>
+      <c r="AQ338">
+        <v>1.35</v>
+      </c>
+      <c r="AR338">
+        <v>1.53</v>
+      </c>
+      <c r="AS338">
+        <v>1.09</v>
+      </c>
+      <c r="AT338">
+        <v>2.62</v>
+      </c>
+      <c r="AU338">
+        <v>8</v>
+      </c>
+      <c r="AV338">
+        <v>4</v>
+      </c>
+      <c r="AW338">
+        <v>12</v>
+      </c>
+      <c r="AX338">
+        <v>4</v>
+      </c>
+      <c r="AY338">
+        <v>20</v>
+      </c>
+      <c r="AZ338">
+        <v>8</v>
+      </c>
+      <c r="BA338">
+        <v>2</v>
+      </c>
+      <c r="BB338">
+        <v>1</v>
+      </c>
+      <c r="BC338">
+        <v>3</v>
+      </c>
+      <c r="BD338">
+        <v>1.55</v>
+      </c>
+      <c r="BE338">
+        <v>8.5</v>
+      </c>
+      <c r="BF338">
+        <v>2.88</v>
+      </c>
+      <c r="BG338">
+        <v>1.25</v>
+      </c>
+      <c r="BH338">
+        <v>3.6</v>
+      </c>
+      <c r="BI338">
+        <v>1.42</v>
+      </c>
+      <c r="BJ338">
+        <v>2.62</v>
+      </c>
+      <c r="BK338">
+        <v>1.67</v>
+      </c>
+      <c r="BL338">
+        <v>2.1</v>
+      </c>
+      <c r="BM338">
+        <v>2.1</v>
+      </c>
+      <c r="BN338">
+        <v>1.67</v>
+      </c>
+      <c r="BO338">
+        <v>2.6</v>
+      </c>
+      <c r="BP338">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>6703390</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45417.5625</v>
+      </c>
+      <c r="F339">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>81</v>
+      </c>
+      <c r="H339" t="s">
+        <v>86</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>1</v>
+      </c>
+      <c r="O339" t="s">
+        <v>90</v>
+      </c>
+      <c r="P339" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q339">
+        <v>2.88</v>
+      </c>
+      <c r="R339">
+        <v>1.91</v>
+      </c>
+      <c r="S339">
+        <v>4.75</v>
+      </c>
+      <c r="T339">
+        <v>1.57</v>
+      </c>
+      <c r="U339">
+        <v>2.25</v>
+      </c>
+      <c r="V339">
+        <v>3.75</v>
+      </c>
+      <c r="W339">
+        <v>1.25</v>
+      </c>
+      <c r="X339">
+        <v>13</v>
+      </c>
+      <c r="Y339">
+        <v>1.04</v>
+      </c>
+      <c r="Z339">
+        <v>2.06</v>
+      </c>
+      <c r="AA339">
+        <v>3</v>
+      </c>
+      <c r="AB339">
+        <v>3.85</v>
+      </c>
+      <c r="AC339">
+        <v>1.12</v>
+      </c>
+      <c r="AD339">
+        <v>7</v>
+      </c>
+      <c r="AE339">
+        <v>1.53</v>
+      </c>
+      <c r="AF339">
+        <v>2.6</v>
+      </c>
+      <c r="AG339">
+        <v>2.65</v>
+      </c>
+      <c r="AH339">
+        <v>1.41</v>
+      </c>
+      <c r="AI339">
+        <v>2.2</v>
+      </c>
+      <c r="AJ339">
+        <v>1.62</v>
+      </c>
+      <c r="AK339">
+        <v>1.24</v>
+      </c>
+      <c r="AL339">
+        <v>1.35</v>
+      </c>
+      <c r="AM339">
+        <v>1.78</v>
+      </c>
+      <c r="AN339">
+        <v>1.81</v>
+      </c>
+      <c r="AO339">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP339">
+        <v>1.71</v>
+      </c>
+      <c r="AQ339">
+        <v>0.82</v>
+      </c>
+      <c r="AR339">
+        <v>1.25</v>
+      </c>
+      <c r="AS339">
+        <v>1.2</v>
+      </c>
+      <c r="AT339">
+        <v>2.45</v>
+      </c>
+      <c r="AU339">
+        <v>2</v>
+      </c>
+      <c r="AV339">
+        <v>4</v>
+      </c>
+      <c r="AW339">
+        <v>5</v>
+      </c>
+      <c r="AX339">
+        <v>2</v>
+      </c>
+      <c r="AY339">
+        <v>7</v>
+      </c>
+      <c r="AZ339">
+        <v>6</v>
+      </c>
+      <c r="BA339">
+        <v>5</v>
+      </c>
+      <c r="BB339">
+        <v>7</v>
+      </c>
+      <c r="BC339">
+        <v>12</v>
+      </c>
+      <c r="BD339">
+        <v>1.89</v>
+      </c>
+      <c r="BE339">
+        <v>7</v>
+      </c>
+      <c r="BF339">
+        <v>2.2</v>
+      </c>
+      <c r="BG339">
+        <v>1.36</v>
+      </c>
+      <c r="BH339">
+        <v>2.7</v>
+      </c>
+      <c r="BI339">
+        <v>1.66</v>
+      </c>
+      <c r="BJ339">
+        <v>2.06</v>
+      </c>
+      <c r="BK339">
+        <v>2.08</v>
+      </c>
+      <c r="BL339">
+        <v>1.64</v>
+      </c>
+      <c r="BM339">
+        <v>2.7</v>
+      </c>
+      <c r="BN339">
+        <v>1.37</v>
+      </c>
+      <c r="BO339">
+        <v>3.65</v>
+      </c>
+      <c r="BP339">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>6703382</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F340">
+        <v>34</v>
+      </c>
+      <c r="G340" t="s">
+        <v>88</v>
+      </c>
+      <c r="H340" t="s">
+        <v>70</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>90</v>
+      </c>
+      <c r="P340" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q340">
+        <v>2.1</v>
+      </c>
+      <c r="R340">
+        <v>2.3</v>
+      </c>
+      <c r="S340">
+        <v>5.5</v>
+      </c>
+      <c r="T340">
+        <v>1.36</v>
+      </c>
+      <c r="U340">
+        <v>3</v>
+      </c>
+      <c r="V340">
+        <v>2.63</v>
+      </c>
+      <c r="W340">
+        <v>1.44</v>
+      </c>
+      <c r="X340">
+        <v>7</v>
+      </c>
+      <c r="Y340">
+        <v>1.1</v>
+      </c>
+      <c r="Z340">
+        <v>1.58</v>
+      </c>
+      <c r="AA340">
+        <v>3.9</v>
+      </c>
+      <c r="AB340">
+        <v>5.2</v>
+      </c>
+      <c r="AC340">
+        <v>1.06</v>
+      </c>
+      <c r="AD340">
+        <v>13.5</v>
+      </c>
+      <c r="AE340">
+        <v>1.28</v>
+      </c>
+      <c r="AF340">
+        <v>3.75</v>
+      </c>
+      <c r="AG340">
+        <v>1.88</v>
+      </c>
+      <c r="AH340">
+        <v>1.98</v>
+      </c>
+      <c r="AI340">
+        <v>1.91</v>
+      </c>
+      <c r="AJ340">
+        <v>1.91</v>
+      </c>
+      <c r="AK340">
+        <v>1.14</v>
+      </c>
+      <c r="AL340">
+        <v>1.24</v>
+      </c>
+      <c r="AM340">
+        <v>2.35</v>
+      </c>
+      <c r="AN340">
+        <v>1.06</v>
+      </c>
+      <c r="AO340">
+        <v>0.38</v>
+      </c>
+      <c r="AP340">
+        <v>1</v>
+      </c>
+      <c r="AQ340">
+        <v>0.53</v>
+      </c>
+      <c r="AR340">
+        <v>1.52</v>
+      </c>
+      <c r="AS340">
+        <v>1.03</v>
+      </c>
+      <c r="AT340">
+        <v>2.55</v>
+      </c>
+      <c r="AU340">
+        <v>11</v>
+      </c>
+      <c r="AV340">
+        <v>3</v>
+      </c>
+      <c r="AW340">
+        <v>12</v>
+      </c>
+      <c r="AX340">
+        <v>4</v>
+      </c>
+      <c r="AY340">
+        <v>23</v>
+      </c>
+      <c r="AZ340">
+        <v>7</v>
+      </c>
+      <c r="BA340">
+        <v>9</v>
+      </c>
+      <c r="BB340">
+        <v>2</v>
+      </c>
+      <c r="BC340">
+        <v>11</v>
+      </c>
+      <c r="BD340">
+        <v>1.47</v>
+      </c>
+      <c r="BE340">
+        <v>8.5</v>
+      </c>
+      <c r="BF340">
+        <v>3.2</v>
+      </c>
+      <c r="BG340">
+        <v>1.22</v>
+      </c>
+      <c r="BH340">
+        <v>3.55</v>
+      </c>
+      <c r="BI340">
+        <v>1.42</v>
+      </c>
+      <c r="BJ340">
+        <v>2.55</v>
+      </c>
+      <c r="BK340">
+        <v>1.72</v>
+      </c>
+      <c r="BL340">
+        <v>1.97</v>
+      </c>
+      <c r="BM340">
+        <v>2.14</v>
+      </c>
+      <c r="BN340">
+        <v>1.6</v>
+      </c>
+      <c r="BO340">
+        <v>2.75</v>
+      </c>
+      <c r="BP340">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>6703388</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>71</v>
+      </c>
+      <c r="H341" t="s">
+        <v>87</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>3</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>3</v>
+      </c>
+      <c r="O341" t="s">
+        <v>306</v>
+      </c>
+      <c r="P341" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q341">
+        <v>2.2</v>
+      </c>
+      <c r="R341">
+        <v>2.25</v>
+      </c>
+      <c r="S341">
+        <v>5.5</v>
+      </c>
+      <c r="T341">
+        <v>1.36</v>
+      </c>
+      <c r="U341">
+        <v>3</v>
+      </c>
+      <c r="V341">
+        <v>2.75</v>
+      </c>
+      <c r="W341">
+        <v>1.4</v>
+      </c>
+      <c r="X341">
+        <v>7</v>
+      </c>
+      <c r="Y341">
+        <v>1.1</v>
+      </c>
+      <c r="Z341">
+        <v>1.52</v>
+      </c>
+      <c r="AA341">
+        <v>4.1</v>
+      </c>
+      <c r="AB341">
+        <v>5.6</v>
+      </c>
+      <c r="AC341">
+        <v>1.06</v>
+      </c>
+      <c r="AD341">
+        <v>13.5</v>
+      </c>
+      <c r="AE341">
+        <v>1.29</v>
+      </c>
+      <c r="AF341">
+        <v>3.68</v>
+      </c>
+      <c r="AG341">
+        <v>1.75</v>
+      </c>
+      <c r="AH341">
+        <v>1.97</v>
+      </c>
+      <c r="AI341">
+        <v>1.91</v>
+      </c>
+      <c r="AJ341">
+        <v>1.91</v>
+      </c>
+      <c r="AK341">
+        <v>1.16</v>
+      </c>
+      <c r="AL341">
+        <v>1.23</v>
+      </c>
+      <c r="AM341">
+        <v>2.28</v>
+      </c>
+      <c r="AN341">
+        <v>1.25</v>
+      </c>
+      <c r="AO341">
+        <v>0.19</v>
+      </c>
+      <c r="AP341">
+        <v>1.35</v>
+      </c>
+      <c r="AQ341">
+        <v>0.18</v>
+      </c>
+      <c r="AR341">
+        <v>1.67</v>
+      </c>
+      <c r="AS341">
+        <v>0.97</v>
+      </c>
+      <c r="AT341">
+        <v>2.64</v>
+      </c>
+      <c r="AU341">
+        <v>6</v>
+      </c>
+      <c r="AV341">
+        <v>4</v>
+      </c>
+      <c r="AW341">
+        <v>4</v>
+      </c>
+      <c r="AX341">
+        <v>3</v>
+      </c>
+      <c r="AY341">
+        <v>10</v>
+      </c>
+      <c r="AZ341">
+        <v>7</v>
+      </c>
+      <c r="BA341">
+        <v>5</v>
+      </c>
+      <c r="BB341">
+        <v>4</v>
+      </c>
+      <c r="BC341">
+        <v>9</v>
+      </c>
+      <c r="BD341">
+        <v>1.44</v>
+      </c>
+      <c r="BE341">
+        <v>8.5</v>
+      </c>
+      <c r="BF341">
+        <v>3.4</v>
+      </c>
+      <c r="BG341">
+        <v>1.29</v>
+      </c>
+      <c r="BH341">
+        <v>3.05</v>
+      </c>
+      <c r="BI341">
+        <v>1.54</v>
+      </c>
+      <c r="BJ341">
+        <v>2.25</v>
+      </c>
+      <c r="BK341">
+        <v>1.9</v>
+      </c>
+      <c r="BL341">
+        <v>1.79</v>
+      </c>
+      <c r="BM341">
+        <v>2.4</v>
+      </c>
+      <c r="BN341">
+        <v>1.46</v>
+      </c>
+      <c r="BO341">
+        <v>3.15</v>
+      </c>
+      <c r="BP341">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -71460,19 +71460,19 @@
         <v>2</v>
       </c>
       <c r="AV339">
+        <v>5</v>
+      </c>
+      <c r="AW339">
+        <v>7</v>
+      </c>
+      <c r="AX339">
         <v>4</v>
       </c>
-      <c r="AW339">
-        <v>5</v>
-      </c>
-      <c r="AX339">
-        <v>2</v>
-      </c>
       <c r="AY339">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ339">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA339">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -937,6 +937,9 @@
     <t>['11', '51', '80']</t>
   </si>
   <si>
+    <t>['12', '90+9']</t>
+  </si>
+  <si>
     <t>['20', '28']</t>
   </si>
   <si>
@@ -1323,6 +1326,9 @@
   <si>
     <t>['12', '65']</t>
   </si>
+  <si>
+    <t>['4', '44']</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1948,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2148,7 +2154,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2354,7 +2360,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2435,7 +2441,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2766,7 +2772,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2972,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3178,7 +3184,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3796,7 +3802,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -4002,7 +4008,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4620,7 +4626,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4826,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5650,7 +5656,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5728,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>1.06</v>
@@ -5856,7 +5862,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6680,7 +6686,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6886,7 +6892,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6967,7 +6973,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -7092,7 +7098,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7298,7 +7304,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7504,7 +7510,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7916,7 +7922,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8122,7 +8128,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8328,7 +8334,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8534,7 +8540,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -9024,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
         <v>1.06</v>
@@ -9770,7 +9776,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -11006,7 +11012,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11830,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -11911,7 +11917,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR50">
         <v>1.42</v>
@@ -12036,7 +12042,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12114,7 +12120,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>1.35</v>
@@ -12242,7 +12248,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12654,7 +12660,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12860,7 +12866,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13066,7 +13072,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -14302,7 +14308,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14714,7 +14720,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14920,7 +14926,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15001,7 +15007,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -15126,7 +15132,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15950,7 +15956,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16568,7 +16574,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16774,7 +16780,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17186,7 +17192,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17392,7 +17398,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17470,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>1.06</v>
@@ -17804,7 +17810,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -18503,7 +18509,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18834,7 +18840,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19040,7 +19046,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19246,7 +19252,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19658,7 +19664,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19864,7 +19870,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19942,7 +19948,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>1.24</v>
@@ -20070,7 +20076,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20688,7 +20694,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21100,7 +21106,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21512,7 +21518,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21718,7 +21724,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -22542,7 +22548,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22748,7 +22754,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23160,7 +23166,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23572,7 +23578,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23778,7 +23784,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -24190,7 +24196,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24396,7 +24402,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24602,7 +24608,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24683,7 +24689,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ112">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR112">
         <v>1.49</v>
@@ -25504,7 +25510,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
         <v>0.53</v>
@@ -25838,7 +25844,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -26456,7 +26462,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26662,7 +26668,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26743,7 +26749,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR122">
         <v>1.74</v>
@@ -26868,7 +26874,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27692,7 +27698,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27898,7 +27904,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28388,7 +28394,7 @@
         <v>0.17</v>
       </c>
       <c r="AP130">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ130">
         <v>0.18</v>
@@ -28516,7 +28522,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -29752,7 +29758,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -32018,7 +32024,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32842,7 +32848,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32920,7 +32926,7 @@
         <v>0.88</v>
       </c>
       <c r="AP152">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -33254,7 +33260,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33666,7 +33672,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -34078,7 +34084,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34159,7 +34165,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ158">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR158">
         <v>1.77</v>
@@ -35314,7 +35320,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -36138,7 +36144,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36962,7 +36968,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37168,7 +37174,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37374,7 +37380,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37580,7 +37586,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -38073,7 +38079,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ177">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR177">
         <v>1.62</v>
@@ -38482,7 +38488,7 @@
         <v>2.22</v>
       </c>
       <c r="AP179">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179">
         <v>2.35</v>
@@ -39022,7 +39028,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -40258,7 +40264,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40670,7 +40676,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40876,7 +40882,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41082,7 +41088,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41494,7 +41500,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -42193,7 +42199,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ197">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR197">
         <v>1.6</v>
@@ -42318,7 +42324,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42602,7 +42608,7 @@
         <v>0.4</v>
       </c>
       <c r="AP199">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ199">
         <v>0.35</v>
@@ -42730,7 +42736,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -43554,7 +43560,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43760,7 +43766,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43966,7 +43972,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44172,7 +44178,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44584,7 +44590,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44996,7 +45002,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45202,7 +45208,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45695,7 +45701,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ214">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR214">
         <v>1.51</v>
@@ -46850,7 +46856,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47056,7 +47062,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47674,7 +47680,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47880,7 +47886,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47958,7 +47964,7 @@
         <v>2</v>
       </c>
       <c r="AP225">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ225">
         <v>1.94</v>
@@ -48498,7 +48504,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48704,7 +48710,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48910,7 +48916,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49116,7 +49122,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49322,7 +49328,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49528,7 +49534,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -49606,7 +49612,7 @@
         <v>1.09</v>
       </c>
       <c r="AP233">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ233">
         <v>1.35</v>
@@ -50021,7 +50027,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ235">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR235">
         <v>2.02</v>
@@ -50352,7 +50358,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50970,7 +50976,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -52000,7 +52006,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52618,7 +52624,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52824,7 +52830,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53236,7 +53242,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53317,7 +53323,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ251">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR251">
         <v>1.73</v>
@@ -53442,7 +53448,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -53932,7 +53938,7 @@
         <v>0.58</v>
       </c>
       <c r="AP254">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ254">
         <v>0.59</v>
@@ -54060,7 +54066,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54266,7 +54272,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -55502,7 +55508,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55914,7 +55920,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56120,7 +56126,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56532,7 +56538,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -56819,7 +56825,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ268">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR268">
         <v>1.23</v>
@@ -57974,7 +57980,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58464,7 +58470,7 @@
         <v>1.14</v>
       </c>
       <c r="AP276">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ276">
         <v>1</v>
@@ -58592,7 +58598,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -59004,7 +59010,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59210,7 +59216,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59828,7 +59834,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60115,7 +60121,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ284">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR284">
         <v>1.32</v>
@@ -60446,7 +60452,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60652,7 +60658,7 @@
         <v>90</v>
       </c>
       <c r="P287" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -61270,7 +61276,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61888,7 +61894,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62712,7 +62718,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62996,7 +63002,7 @@
         <v>1.53</v>
       </c>
       <c r="AP298">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ298">
         <v>1.59</v>
@@ -63330,7 +63336,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63536,7 +63542,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64029,7 +64035,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ303">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR303">
         <v>1.62</v>
@@ -64360,7 +64366,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64566,7 +64572,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64772,7 +64778,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -65390,7 +65396,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -66420,7 +66426,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66832,7 +66838,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67038,7 +67044,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67322,7 +67328,7 @@
         <v>1.2</v>
       </c>
       <c r="AP319">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ319">
         <v>1.24</v>
@@ -67450,7 +67456,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -68149,7 +68155,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ323">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR323">
         <v>1.14</v>
@@ -68274,7 +68280,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68558,7 +68564,7 @@
         <v>0.88</v>
       </c>
       <c r="AP325">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ325">
         <v>0.82</v>
@@ -68686,7 +68692,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -69716,7 +69722,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -69922,7 +69928,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70540,7 +70546,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70952,7 +70958,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71158,7 +71164,7 @@
         <v>305</v>
       </c>
       <c r="P338" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q338">
         <v>2.88</v>
@@ -71364,7 +71370,7 @@
         <v>90</v>
       </c>
       <c r="P339" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q339">
         <v>2.88</v>
@@ -71933,6 +71939,212 @@
       </c>
       <c r="BP341">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6703396</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>86</v>
+      </c>
+      <c r="H342" t="s">
+        <v>83</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>2</v>
+      </c>
+      <c r="K342">
+        <v>3</v>
+      </c>
+      <c r="L342">
+        <v>2</v>
+      </c>
+      <c r="M342">
+        <v>2</v>
+      </c>
+      <c r="N342">
+        <v>4</v>
+      </c>
+      <c r="O342" t="s">
+        <v>307</v>
+      </c>
+      <c r="P342" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q342">
+        <v>4</v>
+      </c>
+      <c r="R342">
+        <v>2.25</v>
+      </c>
+      <c r="S342">
+        <v>2.5</v>
+      </c>
+      <c r="T342">
+        <v>1.36</v>
+      </c>
+      <c r="U342">
+        <v>3</v>
+      </c>
+      <c r="V342">
+        <v>2.63</v>
+      </c>
+      <c r="W342">
+        <v>1.44</v>
+      </c>
+      <c r="X342">
+        <v>7</v>
+      </c>
+      <c r="Y342">
+        <v>1.1</v>
+      </c>
+      <c r="Z342">
+        <v>3.3</v>
+      </c>
+      <c r="AA342">
+        <v>3.5</v>
+      </c>
+      <c r="AB342">
+        <v>2.1</v>
+      </c>
+      <c r="AC342">
+        <v>1.04</v>
+      </c>
+      <c r="AD342">
+        <v>13</v>
+      </c>
+      <c r="AE342">
+        <v>1.28</v>
+      </c>
+      <c r="AF342">
+        <v>3.75</v>
+      </c>
+      <c r="AG342">
+        <v>1.88</v>
+      </c>
+      <c r="AH342">
+        <v>2.02</v>
+      </c>
+      <c r="AI342">
+        <v>1.7</v>
+      </c>
+      <c r="AJ342">
+        <v>2.05</v>
+      </c>
+      <c r="AK342">
+        <v>1.9</v>
+      </c>
+      <c r="AL342">
+        <v>1.24</v>
+      </c>
+      <c r="AM342">
+        <v>1.28</v>
+      </c>
+      <c r="AN342">
+        <v>1.59</v>
+      </c>
+      <c r="AO342">
+        <v>1.76</v>
+      </c>
+      <c r="AP342">
+        <v>1.56</v>
+      </c>
+      <c r="AQ342">
+        <v>1.72</v>
+      </c>
+      <c r="AR342">
+        <v>1.36</v>
+      </c>
+      <c r="AS342">
+        <v>1.35</v>
+      </c>
+      <c r="AT342">
+        <v>2.71</v>
+      </c>
+      <c r="AU342">
+        <v>9</v>
+      </c>
+      <c r="AV342">
+        <v>6</v>
+      </c>
+      <c r="AW342">
+        <v>6</v>
+      </c>
+      <c r="AX342">
+        <v>5</v>
+      </c>
+      <c r="AY342">
+        <v>15</v>
+      </c>
+      <c r="AZ342">
+        <v>11</v>
+      </c>
+      <c r="BA342">
+        <v>5</v>
+      </c>
+      <c r="BB342">
+        <v>3</v>
+      </c>
+      <c r="BC342">
+        <v>8</v>
+      </c>
+      <c r="BD342">
+        <v>2.48</v>
+      </c>
+      <c r="BE342">
+        <v>7.5</v>
+      </c>
+      <c r="BF342">
+        <v>1.73</v>
+      </c>
+      <c r="BG342">
+        <v>1.3</v>
+      </c>
+      <c r="BH342">
+        <v>2.95</v>
+      </c>
+      <c r="BI342">
+        <v>1.56</v>
+      </c>
+      <c r="BJ342">
+        <v>2.2</v>
+      </c>
+      <c r="BK342">
+        <v>1.94</v>
+      </c>
+      <c r="BL342">
+        <v>1.75</v>
+      </c>
+      <c r="BM342">
+        <v>2.48</v>
+      </c>
+      <c r="BN342">
+        <v>1.44</v>
+      </c>
+      <c r="BO342">
+        <v>3.3</v>
+      </c>
+      <c r="BP342">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="443">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -940,6 +940,12 @@
     <t>['12', '90+9']</t>
   </si>
   <si>
+    <t>['30', '84', '90+7']</t>
+  </si>
+  <si>
+    <t>['58', '90+6']</t>
+  </si>
+  <si>
     <t>['20', '28']</t>
   </si>
   <si>
@@ -1329,6 +1335,15 @@
   <si>
     <t>['4', '44']</t>
   </si>
+  <si>
+    <t>['26', '44']</t>
+  </si>
+  <si>
+    <t>['38', '45+2', '49', '58']</t>
+  </si>
+  <si>
+    <t>['40', '47']</t>
+  </si>
 </sst>
 </file>
 
@@ -1689,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP342"/>
+  <dimension ref="A1:BP346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1948,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2154,7 +2169,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2360,7 +2375,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2772,7 +2787,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2850,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2978,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3184,7 +3199,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3262,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ8">
         <v>1.24</v>
@@ -3802,7 +3817,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -4008,7 +4023,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4086,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>1.35</v>
@@ -4295,7 +4310,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4626,7 +4641,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4707,7 +4722,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ15">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR15">
         <v>1.92</v>
@@ -4832,7 +4847,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5656,7 +5671,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5737,7 +5752,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5862,7 +5877,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5940,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -6355,7 +6370,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ23">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR23">
         <v>1.03</v>
@@ -6686,7 +6701,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6764,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.59</v>
@@ -6892,7 +6907,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7098,7 +7113,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7176,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ27">
         <v>1.94</v>
@@ -7304,7 +7319,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7510,7 +7525,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7588,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>1.24</v>
@@ -7922,7 +7937,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8128,7 +8143,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8334,7 +8349,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8540,7 +8555,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -9445,7 +9460,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR38">
         <v>1.14</v>
@@ -9648,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ39">
         <v>1.35</v>
@@ -9776,7 +9791,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -10266,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
         <v>0.35</v>
@@ -11012,7 +11027,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11296,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ47">
         <v>0.53</v>
@@ -11505,7 +11520,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -11836,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -11914,7 +11929,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>1.72</v>
@@ -12042,7 +12057,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12248,7 +12263,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12535,7 +12550,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ53">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12660,7 +12675,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12866,7 +12881,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13072,7 +13087,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -13977,7 +13992,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ60">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR60">
         <v>1.79</v>
@@ -14308,7 +14323,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14386,7 +14401,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ62">
         <v>1.94</v>
@@ -14595,7 +14610,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>2.43</v>
@@ -14720,7 +14735,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14798,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
         <v>0.82</v>
@@ -14926,7 +14941,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15004,7 +15019,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ65">
         <v>1.72</v>
@@ -15132,7 +15147,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15622,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1.24</v>
@@ -15956,7 +15971,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16243,7 +16258,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ71">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>2.16</v>
@@ -16574,7 +16589,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16780,7 +16795,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -16861,7 +16876,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ74">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR74">
         <v>1.7</v>
@@ -17192,7 +17207,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17398,7 +17413,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17810,7 +17825,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -18300,7 +18315,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
         <v>0.53</v>
@@ -18840,7 +18855,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18918,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ84">
         <v>1.06</v>
@@ -19046,7 +19061,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19252,7 +19267,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19330,10 +19345,10 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19664,7 +19679,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19870,7 +19885,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -20076,7 +20091,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20154,7 +20169,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.94</v>
@@ -20694,7 +20709,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20981,7 +20996,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR94">
         <v>1.98</v>
@@ -21106,7 +21121,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21518,7 +21533,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21724,7 +21739,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21802,7 +21817,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ98">
         <v>0.82</v>
@@ -22548,7 +22563,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22629,7 +22644,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22754,7 +22769,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22835,7 +22850,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ103">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR103">
         <v>1.93</v>
@@ -23038,7 +23053,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
         <v>0.82</v>
@@ -23166,7 +23181,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23247,7 +23262,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.22</v>
@@ -23578,7 +23593,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23784,7 +23799,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23862,7 +23877,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
         <v>1.06</v>
@@ -24196,7 +24211,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24274,7 +24289,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
         <v>1.35</v>
@@ -24402,7 +24417,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24608,7 +24623,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -25101,7 +25116,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.45</v>
@@ -25844,7 +25859,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25922,7 +25937,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ118">
         <v>1.35</v>
@@ -26462,7 +26477,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26540,7 +26555,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ121">
         <v>0.82</v>
@@ -26668,7 +26683,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26874,7 +26889,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27158,7 +27173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>0.82</v>
@@ -27367,7 +27382,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR125">
         <v>1.47</v>
@@ -27698,7 +27713,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27904,7 +27919,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28522,7 +28537,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -29424,7 +29439,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ135">
         <v>1.06</v>
@@ -29633,7 +29648,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ136">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.43</v>
@@ -29758,7 +29773,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -29839,7 +29854,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR137">
         <v>1.22</v>
@@ -30045,7 +30060,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ138">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -30454,7 +30469,7 @@
         <v>0.17</v>
       </c>
       <c r="AP140">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ140">
         <v>0.35</v>
@@ -31072,7 +31087,7 @@
         <v>1.71</v>
       </c>
       <c r="AP143">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31690,7 +31705,7 @@
         <v>0.29</v>
       </c>
       <c r="AP146">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ146">
         <v>0.82</v>
@@ -32024,7 +32039,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32848,7 +32863,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32929,7 +32944,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -33135,7 +33150,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ153">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR153">
         <v>1.63</v>
@@ -33260,7 +33275,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33338,7 +33353,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ154">
         <v>1.59</v>
@@ -33544,10 +33559,10 @@
         <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ155">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.17</v>
@@ -33672,7 +33687,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -34084,7 +34099,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34368,7 +34383,7 @@
         <v>1.57</v>
       </c>
       <c r="AP159">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
         <v>1.35</v>
@@ -35192,7 +35207,7 @@
         <v>1.43</v>
       </c>
       <c r="AP163">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ163">
         <v>1.24</v>
@@ -35320,7 +35335,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -36144,7 +36159,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36968,7 +36983,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37174,7 +37189,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37252,10 +37267,10 @@
         <v>0.43</v>
       </c>
       <c r="AP173">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37380,7 +37395,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37586,7 +37601,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37664,7 +37679,7 @@
         <v>0.75</v>
       </c>
       <c r="AP175">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ175">
         <v>0.82</v>
@@ -37870,10 +37885,10 @@
         <v>1.11</v>
       </c>
       <c r="AP176">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR176">
         <v>1.76</v>
@@ -38491,7 +38506,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ179">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR179">
         <v>1.51</v>
@@ -38694,7 +38709,7 @@
         <v>1.25</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
         <v>1.06</v>
@@ -38903,7 +38918,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ181">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.68</v>
@@ -39028,7 +39043,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -39724,7 +39739,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ185">
         <v>0.35</v>
@@ -40264,7 +40279,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40676,7 +40691,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40882,7 +40897,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41088,7 +41103,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41500,7 +41515,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -41578,7 +41593,7 @@
         <v>0.67</v>
       </c>
       <c r="AP194">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ194">
         <v>0.82</v>
@@ -41784,7 +41799,7 @@
         <v>1.44</v>
       </c>
       <c r="AP195">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ195">
         <v>1.59</v>
@@ -42324,7 +42339,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42736,7 +42751,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -42817,7 +42832,7 @@
         <v>1</v>
       </c>
       <c r="AQ200">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR200">
         <v>1.62</v>
@@ -43020,7 +43035,7 @@
         <v>0.6</v>
       </c>
       <c r="AP201">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ201">
         <v>0.59</v>
@@ -43560,7 +43575,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43766,7 +43781,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43972,7 +43987,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44178,7 +44193,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44259,7 +44274,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ207">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>1.6</v>
@@ -44462,7 +44477,7 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ208">
         <v>1.24</v>
@@ -44590,7 +44605,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -45002,7 +45017,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45083,7 +45098,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ211">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR211">
         <v>1.14</v>
@@ -45208,7 +45223,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45492,7 +45507,7 @@
         <v>0.9</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ213">
         <v>1.24</v>
@@ -46856,7 +46871,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47062,7 +47077,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47143,7 +47158,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ221">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR221">
         <v>1.34</v>
@@ -47346,7 +47361,7 @@
         <v>0.64</v>
       </c>
       <c r="AP222">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ222">
         <v>0.59</v>
@@ -47680,7 +47695,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47758,10 +47773,10 @@
         <v>1.18</v>
       </c>
       <c r="AP224">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ224">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR224">
         <v>1.47</v>
@@ -47886,7 +47901,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48376,7 +48391,7 @@
         <v>0.36</v>
       </c>
       <c r="AP227">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ227">
         <v>0.35</v>
@@ -48504,7 +48519,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48710,7 +48725,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48916,7 +48931,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49122,7 +49137,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49203,7 +49218,7 @@
         <v>1</v>
       </c>
       <c r="AQ231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>1.63</v>
@@ -49328,7 +49343,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49534,7 +49549,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -50358,7 +50373,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50642,7 +50657,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ238">
         <v>1</v>
@@ -50976,7 +50991,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -51466,7 +51481,7 @@
         <v>0.75</v>
       </c>
       <c r="AP242">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ242">
         <v>0.82</v>
@@ -51675,7 +51690,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ243">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR243">
         <v>1.59</v>
@@ -52006,7 +52021,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52293,7 +52308,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ246">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR246">
         <v>1.2</v>
@@ -52499,7 +52514,7 @@
         <v>1</v>
       </c>
       <c r="AQ247">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR247">
         <v>1.65</v>
@@ -52624,7 +52639,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52702,7 +52717,7 @@
         <v>0.08</v>
       </c>
       <c r="AP248">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ248">
         <v>0.53</v>
@@ -52830,7 +52845,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -52908,7 +52923,7 @@
         <v>1.42</v>
       </c>
       <c r="AP249">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ249">
         <v>1.59</v>
@@ -53242,7 +53257,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53320,7 +53335,7 @@
         <v>2.25</v>
       </c>
       <c r="AP251">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
         <v>1.72</v>
@@ -53448,7 +53463,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -54066,7 +54081,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54272,7 +54287,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54971,7 +54986,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ259">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR259">
         <v>2.01</v>
@@ -55508,7 +55523,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55920,7 +55935,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56001,7 +56016,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ264">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR264">
         <v>1.32</v>
@@ -56126,7 +56141,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56207,7 +56222,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ265">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR265">
         <v>1.22</v>
@@ -56410,7 +56425,7 @@
         <v>0.17</v>
       </c>
       <c r="AP266">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ266">
         <v>0.18</v>
@@ -56538,7 +56553,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -56822,7 +56837,7 @@
         <v>2.08</v>
       </c>
       <c r="AP268">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ268">
         <v>1.72</v>
@@ -57028,7 +57043,7 @@
         <v>2.17</v>
       </c>
       <c r="AP269">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ269">
         <v>1.94</v>
@@ -57980,7 +57995,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58058,7 +58073,7 @@
         <v>1.43</v>
       </c>
       <c r="AP274">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ274">
         <v>1.59</v>
@@ -58598,7 +58613,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -59010,7 +59025,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59216,7 +59231,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59297,7 +59312,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ280">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR280">
         <v>1.56</v>
@@ -59706,7 +59721,7 @@
         <v>0.15</v>
       </c>
       <c r="AP282">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ282">
         <v>0.18</v>
@@ -59834,7 +59849,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -59915,7 +59930,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ283">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR283">
         <v>1.46</v>
@@ -60324,7 +60339,7 @@
         <v>0.79</v>
       </c>
       <c r="AP285">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ285">
         <v>0.82</v>
@@ -60452,7 +60467,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60658,7 +60673,7 @@
         <v>90</v>
       </c>
       <c r="P287" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60942,7 +60957,7 @@
         <v>0.92</v>
       </c>
       <c r="AP288">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ288">
         <v>1.06</v>
@@ -61276,7 +61291,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61769,7 +61784,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR292">
         <v>1.3</v>
@@ -61894,7 +61909,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62387,7 +62402,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ295">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR295">
         <v>1.93</v>
@@ -62718,7 +62733,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63336,7 +63351,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63414,7 +63429,7 @@
         <v>1.07</v>
       </c>
       <c r="AP300">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ300">
         <v>1.24</v>
@@ -63542,7 +63557,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63620,7 +63635,7 @@
         <v>0.86</v>
       </c>
       <c r="AP301">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ301">
         <v>1.06</v>
@@ -64366,7 +64381,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64444,10 +64459,10 @@
         <v>2.27</v>
       </c>
       <c r="AP305">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ305">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR305">
         <v>1.27</v>
@@ -64572,7 +64587,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64778,7 +64793,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -64859,7 +64874,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ307">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR307">
         <v>1.17</v>
@@ -65062,7 +65077,7 @@
         <v>0.73</v>
       </c>
       <c r="AP308">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ308">
         <v>0.82</v>
@@ -65268,7 +65283,7 @@
         <v>1.36</v>
       </c>
       <c r="AP309">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ309">
         <v>1.35</v>
@@ -65396,7 +65411,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -65886,7 +65901,7 @@
         <v>0.13</v>
       </c>
       <c r="AP312">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ312">
         <v>0.18</v>
@@ -66095,7 +66110,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ313">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR313">
         <v>1.48</v>
@@ -66426,7 +66441,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66838,7 +66853,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67044,7 +67059,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67456,7 +67471,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -67949,7 +67964,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ322">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR322">
         <v>1.55</v>
@@ -68280,7 +68295,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68692,7 +68707,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -69182,7 +69197,7 @@
         <v>1.13</v>
       </c>
       <c r="AP328">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ328">
         <v>1.06</v>
@@ -69388,7 +69403,7 @@
         <v>1.06</v>
       </c>
       <c r="AP329">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ329">
         <v>1</v>
@@ -69597,7 +69612,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ330">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR330">
         <v>1.52</v>
@@ -69722,7 +69737,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -69928,7 +69943,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70215,7 +70230,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ333">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR333">
         <v>1.54</v>
@@ -70546,7 +70561,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70830,7 +70845,7 @@
         <v>1.13</v>
       </c>
       <c r="AP336">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ336">
         <v>1.24</v>
@@ -70958,7 +70973,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71164,7 +71179,7 @@
         <v>305</v>
       </c>
       <c r="P338" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q338">
         <v>2.88</v>
@@ -71370,7 +71385,7 @@
         <v>90</v>
       </c>
       <c r="P339" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q339">
         <v>2.88</v>
@@ -71988,7 +72003,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q342">
         <v>4</v>
@@ -72145,6 +72160,830 @@
       </c>
       <c r="BP342">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>6703400</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45423.375</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>80</v>
+      </c>
+      <c r="H343" t="s">
+        <v>73</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>93</v>
+      </c>
+      <c r="P343" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q343">
+        <v>2.38</v>
+      </c>
+      <c r="R343">
+        <v>2</v>
+      </c>
+      <c r="S343">
+        <v>6.5</v>
+      </c>
+      <c r="T343">
+        <v>1.53</v>
+      </c>
+      <c r="U343">
+        <v>2.38</v>
+      </c>
+      <c r="V343">
+        <v>3.75</v>
+      </c>
+      <c r="W343">
+        <v>1.25</v>
+      </c>
+      <c r="X343">
+        <v>11</v>
+      </c>
+      <c r="Y343">
+        <v>1.05</v>
+      </c>
+      <c r="Z343">
+        <v>1.62</v>
+      </c>
+      <c r="AA343">
+        <v>3.6</v>
+      </c>
+      <c r="AB343">
+        <v>6.5</v>
+      </c>
+      <c r="AC343">
+        <v>1.11</v>
+      </c>
+      <c r="AD343">
+        <v>7.4</v>
+      </c>
+      <c r="AE343">
+        <v>1.5</v>
+      </c>
+      <c r="AF343">
+        <v>2.4</v>
+      </c>
+      <c r="AG343">
+        <v>2.63</v>
+      </c>
+      <c r="AH343">
+        <v>1.53</v>
+      </c>
+      <c r="AI343">
+        <v>2.38</v>
+      </c>
+      <c r="AJ343">
+        <v>1.53</v>
+      </c>
+      <c r="AK343">
+        <v>1.17</v>
+      </c>
+      <c r="AL343">
+        <v>1.32</v>
+      </c>
+      <c r="AM343">
+        <v>2.1</v>
+      </c>
+      <c r="AN343">
+        <v>1.29</v>
+      </c>
+      <c r="AO343">
+        <v>0.88</v>
+      </c>
+      <c r="AP343">
+        <v>1.39</v>
+      </c>
+      <c r="AQ343">
+        <v>0.83</v>
+      </c>
+      <c r="AR343">
+        <v>1.24</v>
+      </c>
+      <c r="AS343">
+        <v>1.12</v>
+      </c>
+      <c r="AT343">
+        <v>2.36</v>
+      </c>
+      <c r="AU343">
+        <v>3</v>
+      </c>
+      <c r="AV343">
+        <v>2</v>
+      </c>
+      <c r="AW343">
+        <v>2</v>
+      </c>
+      <c r="AX343">
+        <v>5</v>
+      </c>
+      <c r="AY343">
+        <v>5</v>
+      </c>
+      <c r="AZ343">
+        <v>7</v>
+      </c>
+      <c r="BA343">
+        <v>2</v>
+      </c>
+      <c r="BB343">
+        <v>2</v>
+      </c>
+      <c r="BC343">
+        <v>4</v>
+      </c>
+      <c r="BD343">
+        <v>1.47</v>
+      </c>
+      <c r="BE343">
+        <v>8</v>
+      </c>
+      <c r="BF343">
+        <v>3.3</v>
+      </c>
+      <c r="BG343">
+        <v>1.41</v>
+      </c>
+      <c r="BH343">
+        <v>2.55</v>
+      </c>
+      <c r="BI343">
+        <v>1.74</v>
+      </c>
+      <c r="BJ343">
+        <v>1.96</v>
+      </c>
+      <c r="BK343">
+        <v>2.2</v>
+      </c>
+      <c r="BL343">
+        <v>1.57</v>
+      </c>
+      <c r="BM343">
+        <v>2.9</v>
+      </c>
+      <c r="BN343">
+        <v>1.32</v>
+      </c>
+      <c r="BO343">
+        <v>3.95</v>
+      </c>
+      <c r="BP343">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>6703399</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45423.46875</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>76</v>
+      </c>
+      <c r="H344" t="s">
+        <v>71</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>2</v>
+      </c>
+      <c r="K344">
+        <v>3</v>
+      </c>
+      <c r="L344">
+        <v>3</v>
+      </c>
+      <c r="M344">
+        <v>2</v>
+      </c>
+      <c r="N344">
+        <v>5</v>
+      </c>
+      <c r="O344" t="s">
+        <v>308</v>
+      </c>
+      <c r="P344" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q344">
+        <v>2.4</v>
+      </c>
+      <c r="R344">
+        <v>2.4</v>
+      </c>
+      <c r="S344">
+        <v>4</v>
+      </c>
+      <c r="T344">
+        <v>1.29</v>
+      </c>
+      <c r="U344">
+        <v>3.5</v>
+      </c>
+      <c r="V344">
+        <v>2.38</v>
+      </c>
+      <c r="W344">
+        <v>1.53</v>
+      </c>
+      <c r="X344">
+        <v>5.5</v>
+      </c>
+      <c r="Y344">
+        <v>1.14</v>
+      </c>
+      <c r="Z344">
+        <v>1.87</v>
+      </c>
+      <c r="AA344">
+        <v>3.9</v>
+      </c>
+      <c r="AB344">
+        <v>3.9</v>
+      </c>
+      <c r="AC344">
+        <v>1.02</v>
+      </c>
+      <c r="AD344">
+        <v>17</v>
+      </c>
+      <c r="AE344">
+        <v>1.19</v>
+      </c>
+      <c r="AF344">
+        <v>4.75</v>
+      </c>
+      <c r="AG344">
+        <v>1.57</v>
+      </c>
+      <c r="AH344">
+        <v>2.5</v>
+      </c>
+      <c r="AI344">
+        <v>1.53</v>
+      </c>
+      <c r="AJ344">
+        <v>2.38</v>
+      </c>
+      <c r="AK344">
+        <v>1.26</v>
+      </c>
+      <c r="AL344">
+        <v>1.22</v>
+      </c>
+      <c r="AM344">
+        <v>1.98</v>
+      </c>
+      <c r="AN344">
+        <v>1.29</v>
+      </c>
+      <c r="AO344">
+        <v>1.06</v>
+      </c>
+      <c r="AP344">
+        <v>1.39</v>
+      </c>
+      <c r="AQ344">
+        <v>1</v>
+      </c>
+      <c r="AR344">
+        <v>1.52</v>
+      </c>
+      <c r="AS344">
+        <v>1.3</v>
+      </c>
+      <c r="AT344">
+        <v>2.82</v>
+      </c>
+      <c r="AU344">
+        <v>8</v>
+      </c>
+      <c r="AV344">
+        <v>5</v>
+      </c>
+      <c r="AW344">
+        <v>11</v>
+      </c>
+      <c r="AX344">
+        <v>2</v>
+      </c>
+      <c r="AY344">
+        <v>19</v>
+      </c>
+      <c r="AZ344">
+        <v>7</v>
+      </c>
+      <c r="BA344">
+        <v>10</v>
+      </c>
+      <c r="BB344">
+        <v>1</v>
+      </c>
+      <c r="BC344">
+        <v>11</v>
+      </c>
+      <c r="BD344">
+        <v>1.67</v>
+      </c>
+      <c r="BE344">
+        <v>7.5</v>
+      </c>
+      <c r="BF344">
+        <v>2.6</v>
+      </c>
+      <c r="BG344">
+        <v>1.26</v>
+      </c>
+      <c r="BH344">
+        <v>3.2</v>
+      </c>
+      <c r="BI344">
+        <v>1.49</v>
+      </c>
+      <c r="BJ344">
+        <v>2.35</v>
+      </c>
+      <c r="BK344">
+        <v>1.84</v>
+      </c>
+      <c r="BL344">
+        <v>1.85</v>
+      </c>
+      <c r="BM344">
+        <v>2.32</v>
+      </c>
+      <c r="BN344">
+        <v>1.5</v>
+      </c>
+      <c r="BO344">
+        <v>3</v>
+      </c>
+      <c r="BP344">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>6703395</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45423.5625</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>87</v>
+      </c>
+      <c r="H345" t="s">
+        <v>89</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>2</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>4</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>90</v>
+      </c>
+      <c r="P345" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q345">
+        <v>5.5</v>
+      </c>
+      <c r="R345">
+        <v>2.4</v>
+      </c>
+      <c r="S345">
+        <v>2.05</v>
+      </c>
+      <c r="T345">
+        <v>1.3</v>
+      </c>
+      <c r="U345">
+        <v>3.4</v>
+      </c>
+      <c r="V345">
+        <v>2.38</v>
+      </c>
+      <c r="W345">
+        <v>1.53</v>
+      </c>
+      <c r="X345">
+        <v>6</v>
+      </c>
+      <c r="Y345">
+        <v>1.13</v>
+      </c>
+      <c r="Z345">
+        <v>5.85</v>
+      </c>
+      <c r="AA345">
+        <v>4.6</v>
+      </c>
+      <c r="AB345">
+        <v>1.41</v>
+      </c>
+      <c r="AC345">
+        <v>1.03</v>
+      </c>
+      <c r="AD345">
+        <v>17</v>
+      </c>
+      <c r="AE345">
+        <v>1.2</v>
+      </c>
+      <c r="AF345">
+        <v>4.5</v>
+      </c>
+      <c r="AG345">
+        <v>1.5</v>
+      </c>
+      <c r="AH345">
+        <v>2.31</v>
+      </c>
+      <c r="AI345">
+        <v>1.75</v>
+      </c>
+      <c r="AJ345">
+        <v>2</v>
+      </c>
+      <c r="AK345">
+        <v>2.65</v>
+      </c>
+      <c r="AL345">
+        <v>1.17</v>
+      </c>
+      <c r="AM345">
+        <v>1.12</v>
+      </c>
+      <c r="AN345">
+        <v>1.06</v>
+      </c>
+      <c r="AO345">
+        <v>2.35</v>
+      </c>
+      <c r="AP345">
+        <v>1</v>
+      </c>
+      <c r="AQ345">
+        <v>2.39</v>
+      </c>
+      <c r="AR345">
+        <v>1.39</v>
+      </c>
+      <c r="AS345">
+        <v>1.57</v>
+      </c>
+      <c r="AT345">
+        <v>2.96</v>
+      </c>
+      <c r="AU345">
+        <v>2</v>
+      </c>
+      <c r="AV345">
+        <v>8</v>
+      </c>
+      <c r="AW345">
+        <v>5</v>
+      </c>
+      <c r="AX345">
+        <v>1</v>
+      </c>
+      <c r="AY345">
+        <v>7</v>
+      </c>
+      <c r="AZ345">
+        <v>9</v>
+      </c>
+      <c r="BA345">
+        <v>8</v>
+      </c>
+      <c r="BB345">
+        <v>5</v>
+      </c>
+      <c r="BC345">
+        <v>13</v>
+      </c>
+      <c r="BD345">
+        <v>3.2</v>
+      </c>
+      <c r="BE345">
+        <v>8</v>
+      </c>
+      <c r="BF345">
+        <v>1.48</v>
+      </c>
+      <c r="BG345">
+        <v>1.26</v>
+      </c>
+      <c r="BH345">
+        <v>3.2</v>
+      </c>
+      <c r="BI345">
+        <v>1.5</v>
+      </c>
+      <c r="BJ345">
+        <v>2.33</v>
+      </c>
+      <c r="BK345">
+        <v>1.85</v>
+      </c>
+      <c r="BL345">
+        <v>1.84</v>
+      </c>
+      <c r="BM345">
+        <v>2.33</v>
+      </c>
+      <c r="BN345">
+        <v>1.5</v>
+      </c>
+      <c r="BO345">
+        <v>3</v>
+      </c>
+      <c r="BP345">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>6703391</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45423.66666666666</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>74</v>
+      </c>
+      <c r="H346" t="s">
+        <v>82</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>2</v>
+      </c>
+      <c r="M346">
+        <v>2</v>
+      </c>
+      <c r="N346">
+        <v>4</v>
+      </c>
+      <c r="O346" t="s">
+        <v>309</v>
+      </c>
+      <c r="P346" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q346">
+        <v>2.05</v>
+      </c>
+      <c r="R346">
+        <v>2.3</v>
+      </c>
+      <c r="S346">
+        <v>6.5</v>
+      </c>
+      <c r="T346">
+        <v>1.36</v>
+      </c>
+      <c r="U346">
+        <v>3</v>
+      </c>
+      <c r="V346">
+        <v>2.75</v>
+      </c>
+      <c r="W346">
+        <v>1.4</v>
+      </c>
+      <c r="X346">
+        <v>8</v>
+      </c>
+      <c r="Y346">
+        <v>1.08</v>
+      </c>
+      <c r="Z346">
+        <v>1.33</v>
+      </c>
+      <c r="AA346">
+        <v>4.45</v>
+      </c>
+      <c r="AB346">
+        <v>8</v>
+      </c>
+      <c r="AC346">
+        <v>1.05</v>
+      </c>
+      <c r="AD346">
+        <v>12</v>
+      </c>
+      <c r="AE346">
+        <v>1.3</v>
+      </c>
+      <c r="AF346">
+        <v>3.6</v>
+      </c>
+      <c r="AG346">
+        <v>1.87</v>
+      </c>
+      <c r="AH346">
+        <v>1.77</v>
+      </c>
+      <c r="AI346">
+        <v>2.05</v>
+      </c>
+      <c r="AJ346">
+        <v>1.7</v>
+      </c>
+      <c r="AK346">
+        <v>1.11</v>
+      </c>
+      <c r="AL346">
+        <v>1.18</v>
+      </c>
+      <c r="AM346">
+        <v>2.55</v>
+      </c>
+      <c r="AN346">
+        <v>2.24</v>
+      </c>
+      <c r="AO346">
+        <v>1.06</v>
+      </c>
+      <c r="AP346">
+        <v>2.17</v>
+      </c>
+      <c r="AQ346">
+        <v>1.06</v>
+      </c>
+      <c r="AR346">
+        <v>1.68</v>
+      </c>
+      <c r="AS346">
+        <v>1.12</v>
+      </c>
+      <c r="AT346">
+        <v>2.8</v>
+      </c>
+      <c r="AU346">
+        <v>7</v>
+      </c>
+      <c r="AV346">
+        <v>4</v>
+      </c>
+      <c r="AW346">
+        <v>3</v>
+      </c>
+      <c r="AX346">
+        <v>5</v>
+      </c>
+      <c r="AY346">
+        <v>10</v>
+      </c>
+      <c r="AZ346">
+        <v>9</v>
+      </c>
+      <c r="BA346">
+        <v>8</v>
+      </c>
+      <c r="BB346">
+        <v>6</v>
+      </c>
+      <c r="BC346">
+        <v>14</v>
+      </c>
+      <c r="BD346">
+        <v>1.33</v>
+      </c>
+      <c r="BE346">
+        <v>9</v>
+      </c>
+      <c r="BF346">
+        <v>4.3</v>
+      </c>
+      <c r="BG346">
+        <v>1.33</v>
+      </c>
+      <c r="BH346">
+        <v>2.85</v>
+      </c>
+      <c r="BI346">
+        <v>1.61</v>
+      </c>
+      <c r="BJ346">
+        <v>2.12</v>
+      </c>
+      <c r="BK346">
+        <v>2.02</v>
+      </c>
+      <c r="BL346">
+        <v>1.68</v>
+      </c>
+      <c r="BM346">
+        <v>2.55</v>
+      </c>
+      <c r="BN346">
+        <v>1.41</v>
+      </c>
+      <c r="BO346">
+        <v>3.4</v>
+      </c>
+      <c r="BP346">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -72302,19 +72302,19 @@
         <v>2.36</v>
       </c>
       <c r="AU343">
+        <v>2</v>
+      </c>
+      <c r="AV343">
         <v>3</v>
       </c>
-      <c r="AV343">
-        <v>2</v>
-      </c>
       <c r="AW343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX343">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY343">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ343">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="445">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -946,6 +946,9 @@
     <t>['58', '90+6']</t>
   </si>
   <si>
+    <t>['8', '28', '64']</t>
+  </si>
+  <si>
     <t>['20', '28']</t>
   </si>
   <si>
@@ -1344,6 +1347,9 @@
   <si>
     <t>['40', '47']</t>
   </si>
+  <si>
+    <t>['45+1', '66']</t>
+  </si>
 </sst>
 </file>
 
@@ -1704,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1963,7 +1969,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2169,7 +2175,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2375,7 +2381,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2787,7 +2793,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2993,7 +2999,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3199,7 +3205,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ10">
         <v>0.82</v>
@@ -3817,7 +3823,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -3895,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ11">
         <v>0.18</v>
@@ -4023,7 +4029,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4307,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>0.83</v>
@@ -4516,7 +4522,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>1.38</v>
@@ -4641,7 +4647,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4847,7 +4853,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5134,7 +5140,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ17">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5543,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>1.24</v>
@@ -5671,7 +5677,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5877,7 +5883,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6573,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ24">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.17</v>
@@ -6701,7 +6707,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6907,7 +6913,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7113,7 +7119,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7319,7 +7325,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7397,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7525,7 +7531,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7937,7 +7943,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8143,7 +8149,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8221,7 +8227,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32">
         <v>1.35</v>
@@ -8349,7 +8355,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8430,7 +8436,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ33">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -8555,7 +8561,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -8842,7 +8848,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ35">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -9251,7 +9257,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9791,7 +9797,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -10487,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>1.24</v>
@@ -11027,7 +11033,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11314,7 +11320,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ47">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -11851,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12057,7 +12063,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12263,7 +12269,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12675,7 +12681,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12756,7 +12762,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ54">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>2.35</v>
@@ -12881,7 +12887,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13087,7 +13093,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -13168,7 +13174,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ56">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -13577,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
         <v>0.35</v>
@@ -13989,7 +13995,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ60">
         <v>2.39</v>
@@ -14198,7 +14204,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ61">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -14323,7 +14329,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14735,7 +14741,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14816,7 +14822,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.66</v>
@@ -14941,7 +14947,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15147,7 +15153,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15225,7 +15231,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.59</v>
@@ -15431,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15971,7 +15977,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16589,7 +16595,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16795,7 +16801,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17207,7 +17213,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17413,7 +17419,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17697,7 +17703,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
         <v>1.06</v>
@@ -17825,7 +17831,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -17903,7 +17909,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ79">
         <v>0.35</v>
@@ -18112,7 +18118,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.03</v>
@@ -18318,7 +18324,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18521,7 +18527,7 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ82">
         <v>1.72</v>
@@ -18855,7 +18861,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19061,7 +19067,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19267,7 +19273,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19551,7 +19557,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ87">
         <v>1.59</v>
@@ -19679,7 +19685,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19760,7 +19766,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ88">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19885,7 +19891,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -20091,7 +20097,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20709,7 +20715,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21121,7 +21127,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21533,7 +21539,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21614,7 +21620,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ97">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21739,7 +21745,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -22229,7 +22235,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>0.35</v>
@@ -22438,7 +22444,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR101">
         <v>1.73</v>
@@ -22563,7 +22569,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22769,7 +22775,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23056,7 +23062,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR104">
         <v>0.98</v>
@@ -23181,7 +23187,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23259,7 +23265,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23465,7 +23471,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ106">
         <v>1.06</v>
@@ -23593,7 +23599,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23799,7 +23805,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -24083,7 +24089,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ109">
         <v>0.82</v>
@@ -24211,7 +24217,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24417,7 +24423,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24623,7 +24629,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24907,7 +24913,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ113">
         <v>0.59</v>
@@ -25528,7 +25534,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25731,7 +25737,7 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>0.18</v>
@@ -25859,7 +25865,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -26477,7 +26483,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26558,7 +26564,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ121">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.73</v>
@@ -26683,7 +26689,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26889,7 +26895,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27176,7 +27182,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27713,7 +27719,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27919,7 +27925,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28203,7 +28209,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ129">
         <v>1.35</v>
@@ -28537,7 +28543,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28821,10 +28827,10 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR132">
         <v>1.3</v>
@@ -29030,7 +29036,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -29233,7 +29239,7 @@
         <v>0.71</v>
       </c>
       <c r="AP134">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ134">
         <v>0.59</v>
@@ -29773,7 +29779,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -29851,7 +29857,7 @@
         <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ137">
         <v>2.39</v>
@@ -30057,7 +30063,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ138">
         <v>0.83</v>
@@ -30678,7 +30684,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR141">
         <v>1.23</v>
@@ -32039,7 +32045,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32863,7 +32869,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33147,7 +33153,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
         <v>2.39</v>
@@ -33275,7 +33281,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33687,7 +33693,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -33765,10 +33771,10 @@
         <v>0.14</v>
       </c>
       <c r="AP156">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ156">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR156">
         <v>1.82</v>
@@ -33971,7 +33977,7 @@
         <v>1.29</v>
       </c>
       <c r="AP157">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -34099,7 +34105,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34592,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR160">
         <v>1.74</v>
@@ -35335,7 +35341,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35416,7 +35422,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ164">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR164">
         <v>1.9</v>
@@ -35619,7 +35625,7 @@
         <v>1.86</v>
       </c>
       <c r="AP165">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ165">
         <v>1.94</v>
@@ -36159,7 +36165,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36983,7 +36989,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37061,10 +37067,10 @@
         <v>0.78</v>
       </c>
       <c r="AP172">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ172">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR172">
         <v>1.77</v>
@@ -37189,7 +37195,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37395,7 +37401,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37476,7 +37482,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ174">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR174">
         <v>1.89</v>
@@ -37601,7 +37607,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37682,7 +37688,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ175">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR175">
         <v>1.37</v>
@@ -38091,7 +38097,7 @@
         <v>2.75</v>
       </c>
       <c r="AP177">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ177">
         <v>1.72</v>
@@ -38297,7 +38303,7 @@
         <v>1.5</v>
       </c>
       <c r="AP178">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ178">
         <v>1.59</v>
@@ -38915,7 +38921,7 @@
         <v>0.75</v>
       </c>
       <c r="AP181">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -39043,7 +39049,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -39533,7 +39539,7 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ184">
         <v>1.35</v>
@@ -40279,7 +40285,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40566,7 +40572,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ189">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40691,7 +40697,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40897,7 +40903,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41103,7 +41109,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41515,7 +41521,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -41596,7 +41602,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ194">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR194">
         <v>1.21</v>
@@ -42005,7 +42011,7 @@
         <v>0.11</v>
       </c>
       <c r="AP196">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ196">
         <v>0.18</v>
@@ -42339,7 +42345,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42417,7 +42423,7 @@
         <v>0.9</v>
       </c>
       <c r="AP198">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ198">
         <v>1.06</v>
@@ -42751,7 +42757,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -43241,7 +43247,7 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
         <v>1.35</v>
@@ -43575,7 +43581,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43656,7 +43662,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR204">
         <v>1.4</v>
@@ -43781,7 +43787,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43862,7 +43868,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ205">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR205">
         <v>2.04</v>
@@ -43987,7 +43993,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44065,7 +44071,7 @@
         <v>1.89</v>
       </c>
       <c r="AP206">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ206">
         <v>1.94</v>
@@ -44193,7 +44199,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44605,7 +44611,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -45017,7 +45023,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45223,7 +45229,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45919,7 +45925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP215">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ215">
         <v>1.35</v>
@@ -46331,7 +46337,7 @@
         <v>1.09</v>
       </c>
       <c r="AP217">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46871,7 +46877,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -46949,7 +46955,7 @@
         <v>1.45</v>
       </c>
       <c r="AP220">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ220">
         <v>1</v>
@@ -47077,7 +47083,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47567,10 +47573,10 @@
         <v>0.09</v>
       </c>
       <c r="AP223">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR223">
         <v>1.23</v>
@@ -47695,7 +47701,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47901,7 +47907,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48519,7 +48525,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48600,7 +48606,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ228">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
         <v>1.42</v>
@@ -48725,7 +48731,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48803,10 +48809,10 @@
         <v>0.73</v>
       </c>
       <c r="AP229">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ229">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR229">
         <v>1.62</v>
@@ -48931,7 +48937,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49137,7 +49143,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49343,7 +49349,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49421,7 +49427,7 @@
         <v>1.09</v>
       </c>
       <c r="AP232">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ232">
         <v>1.24</v>
@@ -49549,7 +49555,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -50373,7 +50379,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50454,7 +50460,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ237">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR237">
         <v>1.32</v>
@@ -50991,7 +50997,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -51484,7 +51490,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ242">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR242">
         <v>1.47</v>
@@ -51687,7 +51693,7 @@
         <v>1.17</v>
       </c>
       <c r="AP243">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ243">
         <v>0.83</v>
@@ -52021,7 +52027,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52305,7 +52311,7 @@
         <v>0.82</v>
       </c>
       <c r="AP246">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ246">
         <v>1</v>
@@ -52639,7 +52645,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52720,7 +52726,7 @@
         <v>1</v>
       </c>
       <c r="AQ248">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52845,7 +52851,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53129,7 +53135,7 @@
         <v>0.83</v>
       </c>
       <c r="AP250">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ250">
         <v>0.82</v>
@@ -53257,7 +53263,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53463,7 +53469,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -53750,7 +53756,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ253">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR253">
         <v>1.96</v>
@@ -54081,7 +54087,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54287,7 +54293,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54365,10 +54371,10 @@
         <v>0.83</v>
       </c>
       <c r="AP256">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ256">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR256">
         <v>1.23</v>
@@ -54571,7 +54577,7 @@
         <v>1.42</v>
       </c>
       <c r="AP257">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ257">
         <v>1.35</v>
@@ -55398,7 +55404,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ261">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR261">
         <v>1.48</v>
@@ -55523,7 +55529,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55935,7 +55941,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56141,7 +56147,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56219,7 +56225,7 @@
         <v>2.31</v>
       </c>
       <c r="AP265">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ265">
         <v>2.39</v>
@@ -56553,7 +56559,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -56631,7 +56637,7 @@
         <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ267">
         <v>1.24</v>
@@ -57661,10 +57667,10 @@
         <v>0.71</v>
       </c>
       <c r="AP272">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ272">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR272">
         <v>1.22</v>
@@ -57867,7 +57873,7 @@
         <v>1.15</v>
       </c>
       <c r="AP273">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ273">
         <v>1.24</v>
@@ -57995,7 +58001,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58613,7 +58619,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58900,7 +58906,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ278">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR278">
         <v>2</v>
@@ -59025,7 +59031,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59103,7 +59109,7 @@
         <v>1.23</v>
       </c>
       <c r="AP279">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ279">
         <v>1.35</v>
@@ -59231,7 +59237,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59849,7 +59855,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60467,7 +60473,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60548,7 +60554,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ286">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR286">
         <v>1.72</v>
@@ -60673,7 +60679,7 @@
         <v>90</v>
       </c>
       <c r="P287" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q287">
         <v>2.6</v>
@@ -60754,7 +60760,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ287">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR287">
         <v>1.11</v>
@@ -61291,7 +61297,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61369,7 +61375,7 @@
         <v>2.08</v>
       </c>
       <c r="AP290">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ290">
         <v>1.94</v>
@@ -61575,7 +61581,7 @@
         <v>0.14</v>
       </c>
       <c r="AP291">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ291">
         <v>0.18</v>
@@ -61909,7 +61915,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62193,7 +62199,7 @@
         <v>0.57</v>
       </c>
       <c r="AP294">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ294">
         <v>0.59</v>
@@ -62733,7 +62739,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63351,7 +63357,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63557,7 +63563,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63841,10 +63847,10 @@
         <v>0.93</v>
       </c>
       <c r="AP302">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ302">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR302">
         <v>1.53</v>
@@ -64047,7 +64053,7 @@
         <v>1.8</v>
       </c>
       <c r="AP303">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ303">
         <v>1.72</v>
@@ -64256,7 +64262,7 @@
         <v>1</v>
       </c>
       <c r="AQ304">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR304">
         <v>1.52</v>
@@ -64381,7 +64387,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64587,7 +64593,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64665,7 +64671,7 @@
         <v>2.14</v>
       </c>
       <c r="AP306">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ306">
         <v>1.94</v>
@@ -64793,7 +64799,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -65411,7 +65417,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -65492,7 +65498,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ310">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR310">
         <v>1.54</v>
@@ -66441,7 +66447,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66519,7 +66525,7 @@
         <v>1</v>
       </c>
       <c r="AP315">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ315">
         <v>1.24</v>
@@ -66853,7 +66859,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67059,7 +67065,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67471,7 +67477,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -68295,7 +68301,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68376,7 +68382,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ324">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR324">
         <v>1.57</v>
@@ -68582,7 +68588,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ325">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR325">
         <v>1.31</v>
@@ -68707,7 +68713,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -68785,7 +68791,7 @@
         <v>1.33</v>
       </c>
       <c r="AP326">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AQ326">
         <v>1.35</v>
@@ -68991,7 +68997,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP327">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ327">
         <v>0.59</v>
@@ -69609,7 +69615,7 @@
         <v>1.06</v>
       </c>
       <c r="AP330">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ330">
         <v>1</v>
@@ -69737,7 +69743,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -69943,7 +69949,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70561,7 +70567,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70973,7 +70979,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71179,7 +71185,7 @@
         <v>305</v>
       </c>
       <c r="P338" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q338">
         <v>2.88</v>
@@ -71385,7 +71391,7 @@
         <v>90</v>
       </c>
       <c r="P339" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q339">
         <v>2.88</v>
@@ -71463,7 +71469,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP339">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ339">
         <v>0.82</v>
@@ -71672,7 +71678,7 @@
         <v>1</v>
       </c>
       <c r="AQ340">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR340">
         <v>1.52</v>
@@ -72003,7 +72009,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q342">
         <v>4</v>
@@ -72302,19 +72308,19 @@
         <v>2.36</v>
       </c>
       <c r="AU343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX343">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY343">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ343">
         <v>7</v>
@@ -72415,7 +72421,7 @@
         <v>308</v>
       </c>
       <c r="P344" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72621,7 +72627,7 @@
         <v>90</v>
       </c>
       <c r="P345" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q345">
         <v>5.5</v>
@@ -72827,7 +72833,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q346">
         <v>2.05</v>
@@ -72984,6 +72990,830 @@
       </c>
       <c r="BP346">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>6703394</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>78</v>
+      </c>
+      <c r="H347" t="s">
+        <v>77</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>141</v>
+      </c>
+      <c r="P347" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q347">
+        <v>2.88</v>
+      </c>
+      <c r="R347">
+        <v>1.95</v>
+      </c>
+      <c r="S347">
+        <v>4.75</v>
+      </c>
+      <c r="T347">
+        <v>1.53</v>
+      </c>
+      <c r="U347">
+        <v>2.38</v>
+      </c>
+      <c r="V347">
+        <v>3.75</v>
+      </c>
+      <c r="W347">
+        <v>1.25</v>
+      </c>
+      <c r="X347">
+        <v>11</v>
+      </c>
+      <c r="Y347">
+        <v>1.05</v>
+      </c>
+      <c r="Z347">
+        <v>1.95</v>
+      </c>
+      <c r="AA347">
+        <v>3.25</v>
+      </c>
+      <c r="AB347">
+        <v>4</v>
+      </c>
+      <c r="AC347">
+        <v>1.1</v>
+      </c>
+      <c r="AD347">
+        <v>7.5</v>
+      </c>
+      <c r="AE347">
+        <v>1.5</v>
+      </c>
+      <c r="AF347">
+        <v>2.45</v>
+      </c>
+      <c r="AG347">
+        <v>2.45</v>
+      </c>
+      <c r="AH347">
+        <v>1.53</v>
+      </c>
+      <c r="AI347">
+        <v>2.1</v>
+      </c>
+      <c r="AJ347">
+        <v>1.67</v>
+      </c>
+      <c r="AK347">
+        <v>1.28</v>
+      </c>
+      <c r="AL347">
+        <v>1.35</v>
+      </c>
+      <c r="AM347">
+        <v>1.76</v>
+      </c>
+      <c r="AN347">
+        <v>1.18</v>
+      </c>
+      <c r="AO347">
+        <v>0.82</v>
+      </c>
+      <c r="AP347">
+        <v>1.28</v>
+      </c>
+      <c r="AQ347">
+        <v>0.78</v>
+      </c>
+      <c r="AR347">
+        <v>1.29</v>
+      </c>
+      <c r="AS347">
+        <v>1.23</v>
+      </c>
+      <c r="AT347">
+        <v>2.52</v>
+      </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
+      <c r="AV347">
+        <v>5</v>
+      </c>
+      <c r="AW347">
+        <v>6</v>
+      </c>
+      <c r="AX347">
+        <v>5</v>
+      </c>
+      <c r="AY347">
+        <v>13</v>
+      </c>
+      <c r="AZ347">
+        <v>10</v>
+      </c>
+      <c r="BA347">
+        <v>6</v>
+      </c>
+      <c r="BB347">
+        <v>2</v>
+      </c>
+      <c r="BC347">
+        <v>8</v>
+      </c>
+      <c r="BD347">
+        <v>1.59</v>
+      </c>
+      <c r="BE347">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF347">
+        <v>2.91</v>
+      </c>
+      <c r="BG347">
+        <v>1.54</v>
+      </c>
+      <c r="BH347">
+        <v>2.42</v>
+      </c>
+      <c r="BI347">
+        <v>1.93</v>
+      </c>
+      <c r="BJ347">
+        <v>1.86</v>
+      </c>
+      <c r="BK347">
+        <v>2.48</v>
+      </c>
+      <c r="BL347">
+        <v>1.51</v>
+      </c>
+      <c r="BM347">
+        <v>3.42</v>
+      </c>
+      <c r="BN347">
+        <v>1.25</v>
+      </c>
+      <c r="BO347">
+        <v>5</v>
+      </c>
+      <c r="BP347">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>6703392</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45424.46875</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>79</v>
+      </c>
+      <c r="H348" t="s">
+        <v>75</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
+        <v>109</v>
+      </c>
+      <c r="P348" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q348">
+        <v>1.95</v>
+      </c>
+      <c r="R348">
+        <v>2.5</v>
+      </c>
+      <c r="S348">
+        <v>6</v>
+      </c>
+      <c r="T348">
+        <v>1.29</v>
+      </c>
+      <c r="U348">
+        <v>3.5</v>
+      </c>
+      <c r="V348">
+        <v>2.38</v>
+      </c>
+      <c r="W348">
+        <v>1.53</v>
+      </c>
+      <c r="X348">
+        <v>5.5</v>
+      </c>
+      <c r="Y348">
+        <v>1.14</v>
+      </c>
+      <c r="Z348">
+        <v>1.4</v>
+      </c>
+      <c r="AA348">
+        <v>5</v>
+      </c>
+      <c r="AB348">
+        <v>7</v>
+      </c>
+      <c r="AC348">
+        <v>1.04</v>
+      </c>
+      <c r="AD348">
+        <v>18</v>
+      </c>
+      <c r="AE348">
+        <v>1.18</v>
+      </c>
+      <c r="AF348">
+        <v>5</v>
+      </c>
+      <c r="AG348">
+        <v>1.55</v>
+      </c>
+      <c r="AH348">
+        <v>2.3</v>
+      </c>
+      <c r="AI348">
+        <v>1.8</v>
+      </c>
+      <c r="AJ348">
+        <v>1.95</v>
+      </c>
+      <c r="AK348">
+        <v>1.1</v>
+      </c>
+      <c r="AL348">
+        <v>1.15</v>
+      </c>
+      <c r="AM348">
+        <v>2.8</v>
+      </c>
+      <c r="AN348">
+        <v>2.71</v>
+      </c>
+      <c r="AO348">
+        <v>0.82</v>
+      </c>
+      <c r="AP348">
+        <v>2.72</v>
+      </c>
+      <c r="AQ348">
+        <v>0.78</v>
+      </c>
+      <c r="AR348">
+        <v>1.57</v>
+      </c>
+      <c r="AS348">
+        <v>1.15</v>
+      </c>
+      <c r="AT348">
+        <v>2.72</v>
+      </c>
+      <c r="AU348">
+        <v>9</v>
+      </c>
+      <c r="AV348">
+        <v>3</v>
+      </c>
+      <c r="AW348">
+        <v>6</v>
+      </c>
+      <c r="AX348">
+        <v>3</v>
+      </c>
+      <c r="AY348">
+        <v>15</v>
+      </c>
+      <c r="AZ348">
+        <v>6</v>
+      </c>
+      <c r="BA348">
+        <v>4</v>
+      </c>
+      <c r="BB348">
+        <v>7</v>
+      </c>
+      <c r="BC348">
+        <v>11</v>
+      </c>
+      <c r="BD348">
+        <v>1.41</v>
+      </c>
+      <c r="BE348">
+        <v>10.25</v>
+      </c>
+      <c r="BF348">
+        <v>3.58</v>
+      </c>
+      <c r="BG348">
+        <v>1.22</v>
+      </c>
+      <c r="BH348">
+        <v>3.65</v>
+      </c>
+      <c r="BI348">
+        <v>1.46</v>
+      </c>
+      <c r="BJ348">
+        <v>2.58</v>
+      </c>
+      <c r="BK348">
+        <v>1.79</v>
+      </c>
+      <c r="BL348">
+        <v>2</v>
+      </c>
+      <c r="BM348">
+        <v>2.25</v>
+      </c>
+      <c r="BN348">
+        <v>1.6</v>
+      </c>
+      <c r="BO348">
+        <v>2.93</v>
+      </c>
+      <c r="BP348">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>6703398</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s">
+        <v>88</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349" t="s">
+        <v>90</v>
+      </c>
+      <c r="P349" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q349">
+        <v>3.1</v>
+      </c>
+      <c r="R349">
+        <v>1.95</v>
+      </c>
+      <c r="S349">
+        <v>4</v>
+      </c>
+      <c r="T349">
+        <v>1.53</v>
+      </c>
+      <c r="U349">
+        <v>2.38</v>
+      </c>
+      <c r="V349">
+        <v>3.75</v>
+      </c>
+      <c r="W349">
+        <v>1.25</v>
+      </c>
+      <c r="X349">
+        <v>11</v>
+      </c>
+      <c r="Y349">
+        <v>1.05</v>
+      </c>
+      <c r="Z349">
+        <v>2.04</v>
+      </c>
+      <c r="AA349">
+        <v>3.19</v>
+      </c>
+      <c r="AB349">
+        <v>4</v>
+      </c>
+      <c r="AC349">
+        <v>1.1</v>
+      </c>
+      <c r="AD349">
+        <v>7</v>
+      </c>
+      <c r="AE349">
+        <v>1.5</v>
+      </c>
+      <c r="AF349">
+        <v>2.63</v>
+      </c>
+      <c r="AG349">
+        <v>2.45</v>
+      </c>
+      <c r="AH349">
+        <v>1.55</v>
+      </c>
+      <c r="AI349">
+        <v>2.05</v>
+      </c>
+      <c r="AJ349">
+        <v>1.7</v>
+      </c>
+      <c r="AK349">
+        <v>1.32</v>
+      </c>
+      <c r="AL349">
+        <v>1.33</v>
+      </c>
+      <c r="AM349">
+        <v>1.65</v>
+      </c>
+      <c r="AN349">
+        <v>1.71</v>
+      </c>
+      <c r="AO349">
+        <v>1</v>
+      </c>
+      <c r="AP349">
+        <v>1.67</v>
+      </c>
+      <c r="AQ349">
+        <v>1</v>
+      </c>
+      <c r="AR349">
+        <v>1.25</v>
+      </c>
+      <c r="AS349">
+        <v>1.15</v>
+      </c>
+      <c r="AT349">
+        <v>2.4</v>
+      </c>
+      <c r="AU349">
+        <v>6</v>
+      </c>
+      <c r="AV349">
+        <v>3</v>
+      </c>
+      <c r="AW349">
+        <v>4</v>
+      </c>
+      <c r="AX349">
+        <v>5</v>
+      </c>
+      <c r="AY349">
+        <v>10</v>
+      </c>
+      <c r="AZ349">
+        <v>8</v>
+      </c>
+      <c r="BA349">
+        <v>6</v>
+      </c>
+      <c r="BB349">
+        <v>3</v>
+      </c>
+      <c r="BC349">
+        <v>9</v>
+      </c>
+      <c r="BD349">
+        <v>1.83</v>
+      </c>
+      <c r="BE349">
+        <v>8.5</v>
+      </c>
+      <c r="BF349">
+        <v>2.36</v>
+      </c>
+      <c r="BG349">
+        <v>1.44</v>
+      </c>
+      <c r="BH349">
+        <v>2.6</v>
+      </c>
+      <c r="BI349">
+        <v>1.75</v>
+      </c>
+      <c r="BJ349">
+        <v>2.03</v>
+      </c>
+      <c r="BK349">
+        <v>2.2</v>
+      </c>
+      <c r="BL349">
+        <v>1.64</v>
+      </c>
+      <c r="BM349">
+        <v>2.8</v>
+      </c>
+      <c r="BN349">
+        <v>1.38</v>
+      </c>
+      <c r="BO349">
+        <v>3.8</v>
+      </c>
+      <c r="BP349">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>6703397</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>85</v>
+      </c>
+      <c r="H350" t="s">
+        <v>70</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>3</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>2</v>
+      </c>
+      <c r="N350">
+        <v>5</v>
+      </c>
+      <c r="O350" t="s">
+        <v>310</v>
+      </c>
+      <c r="P350" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q350">
+        <v>1.8</v>
+      </c>
+      <c r="R350">
+        <v>2.63</v>
+      </c>
+      <c r="S350">
+        <v>7</v>
+      </c>
+      <c r="T350">
+        <v>1.25</v>
+      </c>
+      <c r="U350">
+        <v>3.75</v>
+      </c>
+      <c r="V350">
+        <v>2.2</v>
+      </c>
+      <c r="W350">
+        <v>1.62</v>
+      </c>
+      <c r="X350">
+        <v>5</v>
+      </c>
+      <c r="Y350">
+        <v>1.17</v>
+      </c>
+      <c r="Z350">
+        <v>1.45</v>
+      </c>
+      <c r="AA350">
+        <v>4.8</v>
+      </c>
+      <c r="AB350">
+        <v>6.45</v>
+      </c>
+      <c r="AC350">
+        <v>1.02</v>
+      </c>
+      <c r="AD350">
+        <v>13</v>
+      </c>
+      <c r="AE350">
+        <v>1.12</v>
+      </c>
+      <c r="AF350">
+        <v>5.5</v>
+      </c>
+      <c r="AG350">
+        <v>1.5</v>
+      </c>
+      <c r="AH350">
+        <v>2.48</v>
+      </c>
+      <c r="AI350">
+        <v>1.8</v>
+      </c>
+      <c r="AJ350">
+        <v>1.95</v>
+      </c>
+      <c r="AK350">
+        <v>1.09</v>
+      </c>
+      <c r="AL350">
+        <v>1.17</v>
+      </c>
+      <c r="AM350">
+        <v>3.31</v>
+      </c>
+      <c r="AN350">
+        <v>1.82</v>
+      </c>
+      <c r="AO350">
+        <v>0.53</v>
+      </c>
+      <c r="AP350">
+        <v>1.89</v>
+      </c>
+      <c r="AQ350">
+        <v>0.5</v>
+      </c>
+      <c r="AR350">
+        <v>1.52</v>
+      </c>
+      <c r="AS350">
+        <v>1.02</v>
+      </c>
+      <c r="AT350">
+        <v>2.54</v>
+      </c>
+      <c r="AU350">
+        <v>5</v>
+      </c>
+      <c r="AV350">
+        <v>8</v>
+      </c>
+      <c r="AW350">
+        <v>2</v>
+      </c>
+      <c r="AX350">
+        <v>3</v>
+      </c>
+      <c r="AY350">
+        <v>7</v>
+      </c>
+      <c r="AZ350">
+        <v>11</v>
+      </c>
+      <c r="BA350">
+        <v>3</v>
+      </c>
+      <c r="BB350">
+        <v>5</v>
+      </c>
+      <c r="BC350">
+        <v>8</v>
+      </c>
+      <c r="BD350">
+        <v>1.25</v>
+      </c>
+      <c r="BE350">
+        <v>11.75</v>
+      </c>
+      <c r="BF350">
+        <v>4.95</v>
+      </c>
+      <c r="BG350">
+        <v>1.16</v>
+      </c>
+      <c r="BH350">
+        <v>4.4</v>
+      </c>
+      <c r="BI350">
+        <v>1.32</v>
+      </c>
+      <c r="BJ350">
+        <v>2.98</v>
+      </c>
+      <c r="BK350">
+        <v>1.62</v>
+      </c>
+      <c r="BL350">
+        <v>2.21</v>
+      </c>
+      <c r="BM350">
+        <v>2.02</v>
+      </c>
+      <c r="BN350">
+        <v>1.75</v>
+      </c>
+      <c r="BO350">
+        <v>2.56</v>
+      </c>
+      <c r="BP350">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="454">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,12 @@
     <t>['10', '27', '45+1', '70', '81']</t>
   </si>
   <si>
+    <t>['23', '80']</t>
+  </si>
+  <si>
+    <t>['68', '71']</t>
+  </si>
+  <si>
     <t>['20', '28']</t>
   </si>
   <si>
@@ -1356,6 +1362,21 @@
   <si>
     <t>['45+1', '66']</t>
   </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['27', '42', '51']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['21', '49']</t>
+  </si>
+  <si>
+    <t>['14', '67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1716,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP354"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1975,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2053,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2181,7 +2202,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2259,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ3">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2387,7 +2408,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2465,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.72</v>
@@ -2671,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ5">
         <v>0.61</v>
@@ -2799,7 +2820,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -3005,7 +3026,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3083,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -3211,7 +3232,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3292,7 +3313,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ8">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3495,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ9">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3829,7 +3850,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -3910,7 +3931,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ11">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4035,7 +4056,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4525,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4653,7 +4674,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4731,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ15">
         <v>2.39</v>
@@ -4859,7 +4880,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4940,7 +4961,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ16">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5352,7 +5373,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ18">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5558,7 +5579,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5683,7 +5704,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5889,7 +5910,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6173,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -6379,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ23">
         <v>2.39</v>
@@ -6713,7 +6734,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6919,7 +6940,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6997,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ26">
         <v>1.72</v>
@@ -7125,7 +7146,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7206,7 +7227,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ27">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7331,7 +7352,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7537,7 +7558,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7618,7 +7639,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7821,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7949,7 +7970,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8027,10 +8048,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8155,7 +8176,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8361,7 +8382,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8439,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ33">
         <v>0.78</v>
@@ -8567,7 +8588,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -8645,10 +8666,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -9060,7 +9081,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.78</v>
@@ -9678,7 +9699,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ39">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR39">
         <v>0.87</v>
@@ -9803,7 +9824,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9884,7 +9905,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ40">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -10087,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>0.78</v>
@@ -10296,7 +10317,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.28</v>
@@ -10502,7 +10523,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10705,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ44">
         <v>0.61</v>
@@ -10914,7 +10935,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ45">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>2.46</v>
@@ -11039,7 +11060,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11117,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
         <v>1.06</v>
@@ -11529,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -11863,7 +11884,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12069,7 +12090,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12150,7 +12171,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -12275,7 +12296,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12687,7 +12708,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12893,7 +12914,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12971,10 +12992,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -13099,7 +13120,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -13177,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>0.78</v>
@@ -13383,7 +13404,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13592,7 +13613,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.24</v>
@@ -13795,10 +13816,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ59">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -14207,7 +14228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14335,7 +14356,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14416,7 +14437,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ62">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>0.79</v>
@@ -14747,7 +14768,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14953,7 +14974,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15159,7 +15180,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15652,7 +15673,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15855,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ69">
         <v>0.78</v>
@@ -15983,7 +16004,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16064,7 +16085,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -16473,7 +16494,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -16601,7 +16622,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16679,7 +16700,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
         <v>0.61</v>
@@ -16807,7 +16828,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17091,10 +17112,10 @@
         <v>2.33</v>
       </c>
       <c r="AP75">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR75">
         <v>1.38</v>
@@ -17219,7 +17240,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17297,10 +17318,10 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ76">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR76">
         <v>1.93</v>
@@ -17425,7 +17446,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17712,7 +17733,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.58</v>
@@ -17837,7 +17858,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -17918,7 +17939,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ79">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -18121,7 +18142,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ80">
         <v>0.78</v>
@@ -18867,7 +18888,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18948,7 +18969,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ84">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -19073,7 +19094,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19151,7 +19172,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19279,7 +19300,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19691,7 +19712,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19769,7 +19790,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19897,7 +19918,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19978,7 +19999,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.36</v>
@@ -20103,7 +20124,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20184,7 +20205,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -20390,7 +20411,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR91">
         <v>1.48</v>
@@ -20593,7 +20614,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>0.61</v>
@@ -20721,7 +20742,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20799,10 +20820,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ93">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -21005,7 +21026,7 @@
         <v>2.4</v>
       </c>
       <c r="AP94">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ94">
         <v>2.39</v>
@@ -21133,7 +21154,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21211,10 +21232,10 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ95">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.45</v>
@@ -21417,7 +21438,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21545,7 +21566,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21751,7 +21772,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -22038,7 +22059,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ99">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR99">
         <v>2.01</v>
@@ -22244,7 +22265,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.32</v>
@@ -22575,7 +22596,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22653,7 +22674,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ102">
         <v>0.83</v>
@@ -22781,7 +22802,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23193,7 +23214,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23605,7 +23626,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23683,7 +23704,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23811,7 +23832,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23892,7 +23913,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.73</v>
@@ -24223,7 +24244,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24429,7 +24450,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24507,10 +24528,10 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ111">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24635,7 +24656,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -25125,7 +25146,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25331,10 +25352,10 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -25746,7 +25767,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25871,7 +25892,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25952,7 +25973,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ118">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -26361,10 +26382,10 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ120">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.52</v>
@@ -26489,7 +26510,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26695,7 +26716,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26773,7 +26794,7 @@
         <v>2.67</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122">
         <v>1.72</v>
@@ -26901,7 +26922,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26979,7 +27000,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ123">
         <v>1.5</v>
@@ -27600,7 +27621,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27725,7 +27746,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27931,7 +27952,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28009,10 +28030,10 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ128">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR128">
         <v>1.98</v>
@@ -28424,7 +28445,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ130">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR130">
         <v>1.51</v>
@@ -28549,7 +28570,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28627,10 +28648,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ131">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.85</v>
@@ -29039,7 +29060,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133">
         <v>0.5</v>
@@ -29657,7 +29678,7 @@
         <v>0.6</v>
       </c>
       <c r="AP136">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29785,7 +29806,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -30278,7 +30299,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ139">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR139">
         <v>1.64</v>
@@ -30484,7 +30505,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ140">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR140">
         <v>1.11</v>
@@ -30687,7 +30708,7 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141">
         <v>0.78</v>
@@ -30896,7 +30917,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ142">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.58</v>
@@ -31308,7 +31329,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ144">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -31923,10 +31944,10 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -32051,7 +32072,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32129,7 +32150,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ148">
         <v>1.44</v>
@@ -32338,7 +32359,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ149">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>1.83</v>
@@ -32541,10 +32562,10 @@
         <v>0.29</v>
       </c>
       <c r="AP150">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ150">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR150">
         <v>1.43</v>
@@ -32747,10 +32768,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.5</v>
@@ -32875,7 +32896,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33287,7 +33308,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33699,7 +33720,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -34111,7 +34132,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -34398,7 +34419,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR159">
         <v>1.49</v>
@@ -34601,7 +34622,7 @@
         <v>0.71</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ160">
         <v>0.78</v>
@@ -35013,10 +35034,10 @@
         <v>0.13</v>
       </c>
       <c r="AP162">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ162">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR162">
         <v>1.57</v>
@@ -35222,7 +35243,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ163">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.76</v>
@@ -35347,7 +35368,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35425,7 +35446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP164">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ164">
         <v>0.78</v>
@@ -35634,7 +35655,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ165">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -35837,7 +35858,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ166">
         <v>0.61</v>
@@ -36043,10 +36064,10 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -36171,7 +36192,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36249,10 +36270,10 @@
         <v>0.38</v>
       </c>
       <c r="AP168">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ168">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -36867,10 +36888,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.72</v>
@@ -36995,7 +37016,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37201,7 +37222,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37407,7 +37428,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37613,7 +37634,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -39055,7 +39076,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -39133,7 +39154,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ182">
         <v>1</v>
@@ -39339,7 +39360,7 @@
         <v>0.33</v>
       </c>
       <c r="AP183">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ183">
         <v>0.78</v>
@@ -39754,7 +39775,7 @@
         <v>1</v>
       </c>
       <c r="AQ185">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39957,10 +39978,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ186">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -40291,7 +40312,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40372,7 +40393,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ188">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
         <v>1.55</v>
@@ -40703,7 +40724,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40781,10 +40802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP190">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ190">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR190">
         <v>1.83</v>
@@ -40909,7 +40930,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -40987,10 +41008,10 @@
         <v>1.75</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ191">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -41115,7 +41136,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41193,7 +41214,7 @@
         <v>0.4</v>
       </c>
       <c r="AP192">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ192">
         <v>0.78</v>
@@ -41399,7 +41420,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ193">
         <v>1.44</v>
@@ -41527,7 +41548,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -42020,7 +42041,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ196">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR196">
         <v>1.61</v>
@@ -42223,7 +42244,7 @@
         <v>2.56</v>
       </c>
       <c r="AP197">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ197">
         <v>1.72</v>
@@ -42351,7 +42372,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42432,7 +42453,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ198">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.24</v>
@@ -42638,7 +42659,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ199">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR199">
         <v>1.43</v>
@@ -42763,7 +42784,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -42841,7 +42862,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ200">
         <v>0.83</v>
@@ -43256,7 +43277,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR202">
         <v>1.28</v>
@@ -43459,7 +43480,7 @@
         <v>1.3</v>
       </c>
       <c r="AP203">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ203">
         <v>1.5</v>
@@ -43587,7 +43608,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43793,7 +43814,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -43999,7 +44020,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44080,7 +44101,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ206">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR206">
         <v>1.64</v>
@@ -44205,7 +44226,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44492,7 +44513,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR208">
         <v>1.47</v>
@@ -44617,7 +44638,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44695,7 +44716,7 @@
         <v>0.64</v>
       </c>
       <c r="AP209">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ209">
         <v>0.78</v>
@@ -44901,7 +44922,7 @@
         <v>1.5</v>
       </c>
       <c r="AP210">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -45029,7 +45050,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45107,7 +45128,7 @@
         <v>2.3</v>
       </c>
       <c r="AP211">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ211">
         <v>2.39</v>
@@ -45235,7 +45256,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45522,7 +45543,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ213">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR213">
         <v>1.28</v>
@@ -45725,7 +45746,7 @@
         <v>2.4</v>
       </c>
       <c r="AP214">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ214">
         <v>1.72</v>
@@ -45934,7 +45955,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ215">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR215">
         <v>1.22</v>
@@ -46137,7 +46158,7 @@
         <v>1.11</v>
       </c>
       <c r="AP216">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ216">
         <v>1.06</v>
@@ -46346,7 +46367,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ217">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -46549,10 +46570,10 @@
         <v>0.1</v>
       </c>
       <c r="AP218">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ218">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -46883,7 +46904,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47089,7 +47110,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47167,7 +47188,7 @@
         <v>2.36</v>
       </c>
       <c r="AP221">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ221">
         <v>2.39</v>
@@ -47707,7 +47728,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47913,7 +47934,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47994,7 +48015,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR225">
         <v>1.43</v>
@@ -48406,7 +48427,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ227">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR227">
         <v>1.42</v>
@@ -48531,7 +48552,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48737,7 +48758,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -48943,7 +48964,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49024,7 +49045,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ230">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
         <v>2.05</v>
@@ -49149,7 +49170,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49227,7 +49248,7 @@
         <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -49355,7 +49376,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49436,7 +49457,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ232">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR232">
         <v>1.21</v>
@@ -49561,7 +49582,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -49845,7 +49866,7 @@
         <v>1</v>
       </c>
       <c r="AP234">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ234">
         <v>1.06</v>
@@ -50257,10 +50278,10 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ236">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR236">
         <v>1.11</v>
@@ -50385,7 +50406,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50463,7 +50484,7 @@
         <v>0.91</v>
       </c>
       <c r="AP237">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ237">
         <v>0.78</v>
@@ -50875,10 +50896,10 @@
         <v>1.27</v>
       </c>
       <c r="AP239">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ239">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR239">
         <v>1.77</v>
@@ -51003,7 +51024,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -51084,7 +51105,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ240">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR240">
         <v>1.99</v>
@@ -51287,10 +51308,10 @@
         <v>1.45</v>
       </c>
       <c r="AP241">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ241">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR241">
         <v>1.65</v>
@@ -51908,7 +51929,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ244">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR244">
         <v>1.45</v>
@@ -52033,7 +52054,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52111,10 +52132,10 @@
         <v>2.09</v>
       </c>
       <c r="AP245">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ245">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR245">
         <v>1.5</v>
@@ -52523,7 +52544,7 @@
         <v>2.42</v>
       </c>
       <c r="AP247">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ247">
         <v>2.39</v>
@@ -52651,7 +52672,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52857,7 +52878,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53269,7 +53290,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53475,7 +53496,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -53553,7 +53574,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ252">
         <v>1.44</v>
@@ -54093,7 +54114,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54171,10 +54192,10 @@
         <v>1.17</v>
       </c>
       <c r="AP255">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ255">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR255">
         <v>1.6</v>
@@ -54299,7 +54320,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54586,7 +54607,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ257">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR257">
         <v>1.55</v>
@@ -54789,7 +54810,7 @@
         <v>1.17</v>
       </c>
       <c r="AP258">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -55407,7 +55428,7 @@
         <v>0.15</v>
       </c>
       <c r="AP261">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ261">
         <v>0.5</v>
@@ -55535,7 +55556,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55613,7 +55634,7 @@
         <v>1.54</v>
       </c>
       <c r="AP262">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ262">
         <v>1.5</v>
@@ -55819,10 +55840,10 @@
         <v>0.38</v>
       </c>
       <c r="AP263">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ263">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -55947,7 +55968,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56025,7 +56046,7 @@
         <v>1.08</v>
       </c>
       <c r="AP264">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ264">
         <v>0.83</v>
@@ -56153,7 +56174,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56440,7 +56461,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ266">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR266">
         <v>1.48</v>
@@ -56565,7 +56586,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -56646,7 +56667,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ267">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR267">
         <v>1.6</v>
@@ -57058,7 +57079,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ269">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR269">
         <v>1.72</v>
@@ -57882,7 +57903,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ273">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR273">
         <v>1.29</v>
@@ -58007,7 +58028,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58625,7 +58646,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58703,10 +58724,10 @@
         <v>1.31</v>
       </c>
       <c r="AP277">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ277">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR277">
         <v>1.12</v>
@@ -59037,7 +59058,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59243,7 +59264,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59321,7 +59342,7 @@
         <v>0.77</v>
       </c>
       <c r="AP280">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ280">
         <v>1</v>
@@ -59527,10 +59548,10 @@
         <v>0.43</v>
       </c>
       <c r="AP281">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ281">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR281">
         <v>1.53</v>
@@ -59736,7 +59757,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ282">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR282">
         <v>1.21</v>
@@ -59861,7 +59882,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60145,7 +60166,7 @@
         <v>1.93</v>
       </c>
       <c r="AP284">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ284">
         <v>1.72</v>
@@ -60479,7 +60500,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60557,7 +60578,7 @@
         <v>0.79</v>
       </c>
       <c r="AP286">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ286">
         <v>0.78</v>
@@ -60763,7 +60784,7 @@
         <v>0.14</v>
       </c>
       <c r="AP287">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ287">
         <v>0.5</v>
@@ -60972,7 +60993,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ288">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR288">
         <v>1.51</v>
@@ -61175,10 +61196,10 @@
         <v>1.15</v>
       </c>
       <c r="AP289">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ289">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR289">
         <v>1.57</v>
@@ -61303,7 +61324,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61384,7 +61405,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ290">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR290">
         <v>1.64</v>
@@ -61590,7 +61611,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ291">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR291">
         <v>1.27</v>
@@ -61793,7 +61814,7 @@
         <v>0.79</v>
       </c>
       <c r="AP292">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ292">
         <v>1</v>
@@ -61921,7 +61942,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -61999,7 +62020,7 @@
         <v>1.07</v>
       </c>
       <c r="AP293">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ293">
         <v>1.06</v>
@@ -62617,7 +62638,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ296">
         <v>1</v>
@@ -62745,7 +62766,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62826,7 +62847,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ297">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR297">
         <v>1.56</v>
@@ -63238,7 +63259,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR299">
         <v>2.06</v>
@@ -63363,7 +63384,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63444,7 +63465,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ300">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR300">
         <v>1.53</v>
@@ -63569,7 +63590,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -63650,7 +63671,7 @@
         <v>1</v>
       </c>
       <c r="AQ301">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR301">
         <v>1.42</v>
@@ -64265,7 +64286,7 @@
         <v>0.67</v>
       </c>
       <c r="AP304">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ304">
         <v>0.78</v>
@@ -64393,7 +64414,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64599,7 +64620,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64680,7 +64701,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ306">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR306">
         <v>1.29</v>
@@ -64805,7 +64826,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -64883,7 +64904,7 @@
         <v>0.93</v>
       </c>
       <c r="AP307">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>1</v>
@@ -65423,7 +65444,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -65501,7 +65522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP310">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ310">
         <v>0.5</v>
@@ -65710,7 +65731,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ311">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR311">
         <v>1.44</v>
@@ -65916,7 +65937,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ312">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR312">
         <v>1.67</v>
@@ -66119,7 +66140,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ313">
         <v>0.83</v>
@@ -66325,7 +66346,7 @@
         <v>1.2</v>
       </c>
       <c r="AP314">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ314">
         <v>1.06</v>
@@ -66453,7 +66474,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66534,7 +66555,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ315">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR315">
         <v>1.24</v>
@@ -66740,7 +66761,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ316">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR316">
         <v>1.54</v>
@@ -66865,7 +66886,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -66943,7 +66964,7 @@
         <v>1.63</v>
       </c>
       <c r="AP317">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ317">
         <v>1.5</v>
@@ -67071,7 +67092,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67149,7 +67170,7 @@
         <v>1.33</v>
       </c>
       <c r="AP318">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ318">
         <v>1.44</v>
@@ -67358,7 +67379,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ319">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR319">
         <v>1.34</v>
@@ -67483,7 +67504,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -67564,7 +67585,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ320">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR320">
         <v>2</v>
@@ -67767,7 +67788,7 @@
         <v>0.6</v>
       </c>
       <c r="AP321">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ321">
         <v>0.61</v>
@@ -67973,7 +67994,7 @@
         <v>2.31</v>
       </c>
       <c r="AP322">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ322">
         <v>2.39</v>
@@ -68179,7 +68200,7 @@
         <v>1.69</v>
       </c>
       <c r="AP323">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ323">
         <v>1.72</v>
@@ -68307,7 +68328,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68385,7 +68406,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP324">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AQ324">
         <v>0.78</v>
@@ -68719,7 +68740,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -68800,7 +68821,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ326">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR326">
         <v>1.61</v>
@@ -69749,7 +69770,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -69830,7 +69851,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ331">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR331">
         <v>1.9</v>
@@ -69955,7 +69976,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70033,10 +70054,10 @@
         <v>1.25</v>
       </c>
       <c r="AP332">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ332">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR332">
         <v>1.31</v>
@@ -70239,7 +70260,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP333">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ333">
         <v>0.83</v>
@@ -70448,7 +70469,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ334">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AR334">
         <v>1.99</v>
@@ -70573,7 +70594,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70654,7 +70675,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ335">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR335">
         <v>1.54</v>
@@ -70860,7 +70881,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ336">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR336">
         <v>1.24</v>
@@ -70985,7 +71006,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71066,7 +71087,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ337">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR337">
         <v>1.45</v>
@@ -71191,7 +71212,7 @@
         <v>305</v>
       </c>
       <c r="P338" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q338">
         <v>2.88</v>
@@ -71269,7 +71290,7 @@
         <v>1.44</v>
       </c>
       <c r="AP338">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ338">
         <v>1.44</v>
@@ -71397,7 +71418,7 @@
         <v>90</v>
       </c>
       <c r="P339" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q339">
         <v>2.88</v>
@@ -71681,7 +71702,7 @@
         <v>0.38</v>
       </c>
       <c r="AP340">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ340">
         <v>0.5</v>
@@ -71887,10 +71908,10 @@
         <v>0.19</v>
       </c>
       <c r="AP341">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ341">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AR341">
         <v>1.67</v>
@@ -72015,7 +72036,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q342">
         <v>4</v>
@@ -72427,7 +72448,7 @@
         <v>308</v>
       </c>
       <c r="P344" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72633,7 +72654,7 @@
         <v>90</v>
       </c>
       <c r="P345" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q345">
         <v>5.5</v>
@@ -72839,7 +72860,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q346">
         <v>2.05</v>
@@ -73663,7 +73684,7 @@
         <v>310</v>
       </c>
       <c r="P350" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q350">
         <v>1.8</v>
@@ -74644,6 +74665,1448 @@
       </c>
       <c r="BP354">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6703407</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45427.60416666666</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>71</v>
+      </c>
+      <c r="H355" t="s">
+        <v>78</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>90</v>
+      </c>
+      <c r="P355" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q355">
+        <v>2.5</v>
+      </c>
+      <c r="R355">
+        <v>2.1</v>
+      </c>
+      <c r="S355">
+        <v>4.75</v>
+      </c>
+      <c r="T355">
+        <v>1.44</v>
+      </c>
+      <c r="U355">
+        <v>2.63</v>
+      </c>
+      <c r="V355">
+        <v>3.25</v>
+      </c>
+      <c r="W355">
+        <v>1.33</v>
+      </c>
+      <c r="X355">
+        <v>9</v>
+      </c>
+      <c r="Y355">
+        <v>1.07</v>
+      </c>
+      <c r="Z355">
+        <v>1.86</v>
+      </c>
+      <c r="AA355">
+        <v>3.4</v>
+      </c>
+      <c r="AB355">
+        <v>4.05</v>
+      </c>
+      <c r="AC355">
+        <v>1.07</v>
+      </c>
+      <c r="AD355">
+        <v>9.9</v>
+      </c>
+      <c r="AE355">
+        <v>1.36</v>
+      </c>
+      <c r="AF355">
+        <v>3.15</v>
+      </c>
+      <c r="AG355">
+        <v>2.05</v>
+      </c>
+      <c r="AH355">
+        <v>1.7</v>
+      </c>
+      <c r="AI355">
+        <v>1.95</v>
+      </c>
+      <c r="AJ355">
+        <v>1.8</v>
+      </c>
+      <c r="AK355">
+        <v>1.22</v>
+      </c>
+      <c r="AL355">
+        <v>1.25</v>
+      </c>
+      <c r="AM355">
+        <v>1.96</v>
+      </c>
+      <c r="AN355">
+        <v>1.35</v>
+      </c>
+      <c r="AO355">
+        <v>0.35</v>
+      </c>
+      <c r="AP355">
+        <v>1.28</v>
+      </c>
+      <c r="AQ355">
+        <v>0.5</v>
+      </c>
+      <c r="AR355">
+        <v>1.65</v>
+      </c>
+      <c r="AS355">
+        <v>0.99</v>
+      </c>
+      <c r="AT355">
+        <v>2.64</v>
+      </c>
+      <c r="AU355">
+        <v>4</v>
+      </c>
+      <c r="AV355">
+        <v>8</v>
+      </c>
+      <c r="AW355">
+        <v>8</v>
+      </c>
+      <c r="AX355">
+        <v>8</v>
+      </c>
+      <c r="AY355">
+        <v>12</v>
+      </c>
+      <c r="AZ355">
+        <v>16</v>
+      </c>
+      <c r="BA355">
+        <v>1</v>
+      </c>
+      <c r="BB355">
+        <v>9</v>
+      </c>
+      <c r="BC355">
+        <v>10</v>
+      </c>
+      <c r="BD355">
+        <v>1.53</v>
+      </c>
+      <c r="BE355">
+        <v>8.5</v>
+      </c>
+      <c r="BF355">
+        <v>3</v>
+      </c>
+      <c r="BG355">
+        <v>1.2</v>
+      </c>
+      <c r="BH355">
+        <v>3.7</v>
+      </c>
+      <c r="BI355">
+        <v>1.38</v>
+      </c>
+      <c r="BJ355">
+        <v>2.65</v>
+      </c>
+      <c r="BK355">
+        <v>1.67</v>
+      </c>
+      <c r="BL355">
+        <v>2.04</v>
+      </c>
+      <c r="BM355">
+        <v>2.07</v>
+      </c>
+      <c r="BN355">
+        <v>1.64</v>
+      </c>
+      <c r="BO355">
+        <v>2.63</v>
+      </c>
+      <c r="BP355">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6703409</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45427.60416666666</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>88</v>
+      </c>
+      <c r="H356" t="s">
+        <v>87</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>314</v>
+      </c>
+      <c r="P356" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q356">
+        <v>2.4</v>
+      </c>
+      <c r="R356">
+        <v>2.1</v>
+      </c>
+      <c r="S356">
+        <v>5.5</v>
+      </c>
+      <c r="T356">
+        <v>1.44</v>
+      </c>
+      <c r="U356">
+        <v>2.63</v>
+      </c>
+      <c r="V356">
+        <v>3.25</v>
+      </c>
+      <c r="W356">
+        <v>1.33</v>
+      </c>
+      <c r="X356">
+        <v>10</v>
+      </c>
+      <c r="Y356">
+        <v>1.06</v>
+      </c>
+      <c r="Z356">
+        <v>1.72</v>
+      </c>
+      <c r="AA356">
+        <v>3.65</v>
+      </c>
+      <c r="AB356">
+        <v>4.5</v>
+      </c>
+      <c r="AC356">
+        <v>1.08</v>
+      </c>
+      <c r="AD356">
+        <v>9.35</v>
+      </c>
+      <c r="AE356">
+        <v>1.39</v>
+      </c>
+      <c r="AF356">
+        <v>3</v>
+      </c>
+      <c r="AG356">
+        <v>2.1</v>
+      </c>
+      <c r="AH356">
+        <v>1.67</v>
+      </c>
+      <c r="AI356">
+        <v>2.05</v>
+      </c>
+      <c r="AJ356">
+        <v>1.7</v>
+      </c>
+      <c r="AK356">
+        <v>1.2</v>
+      </c>
+      <c r="AL356">
+        <v>1.3</v>
+      </c>
+      <c r="AM356">
+        <v>2.05</v>
+      </c>
+      <c r="AN356">
+        <v>1</v>
+      </c>
+      <c r="AO356">
+        <v>0.18</v>
+      </c>
+      <c r="AP356">
+        <v>1.11</v>
+      </c>
+      <c r="AQ356">
+        <v>0.17</v>
+      </c>
+      <c r="AR356">
+        <v>1.61</v>
+      </c>
+      <c r="AS356">
+        <v>0.97</v>
+      </c>
+      <c r="AT356">
+        <v>2.58</v>
+      </c>
+      <c r="AU356">
+        <v>10</v>
+      </c>
+      <c r="AV356">
+        <v>2</v>
+      </c>
+      <c r="AW356">
+        <v>5</v>
+      </c>
+      <c r="AX356">
+        <v>4</v>
+      </c>
+      <c r="AY356">
+        <v>15</v>
+      </c>
+      <c r="AZ356">
+        <v>6</v>
+      </c>
+      <c r="BA356">
+        <v>6</v>
+      </c>
+      <c r="BB356">
+        <v>6</v>
+      </c>
+      <c r="BC356">
+        <v>12</v>
+      </c>
+      <c r="BD356">
+        <v>1.57</v>
+      </c>
+      <c r="BE356">
+        <v>7.5</v>
+      </c>
+      <c r="BF356">
+        <v>2.9</v>
+      </c>
+      <c r="BG356">
+        <v>1.48</v>
+      </c>
+      <c r="BH356">
+        <v>2.38</v>
+      </c>
+      <c r="BI356">
+        <v>1.86</v>
+      </c>
+      <c r="BJ356">
+        <v>1.83</v>
+      </c>
+      <c r="BK356">
+        <v>2.35</v>
+      </c>
+      <c r="BL356">
+        <v>1.49</v>
+      </c>
+      <c r="BM356">
+        <v>3.1</v>
+      </c>
+      <c r="BN356">
+        <v>1.28</v>
+      </c>
+      <c r="BO356">
+        <v>4.35</v>
+      </c>
+      <c r="BP356">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6703405</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45427.70833333334</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>77</v>
+      </c>
+      <c r="H357" t="s">
+        <v>79</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>2</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>3</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357" t="s">
+        <v>90</v>
+      </c>
+      <c r="P357" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q357">
+        <v>5</v>
+      </c>
+      <c r="R357">
+        <v>2.1</v>
+      </c>
+      <c r="S357">
+        <v>2.5</v>
+      </c>
+      <c r="T357">
+        <v>1.44</v>
+      </c>
+      <c r="U357">
+        <v>2.63</v>
+      </c>
+      <c r="V357">
+        <v>3.25</v>
+      </c>
+      <c r="W357">
+        <v>1.33</v>
+      </c>
+      <c r="X357">
+        <v>9</v>
+      </c>
+      <c r="Y357">
+        <v>1.07</v>
+      </c>
+      <c r="Z357">
+        <v>3.8</v>
+      </c>
+      <c r="AA357">
+        <v>3.35</v>
+      </c>
+      <c r="AB357">
+        <v>1.92</v>
+      </c>
+      <c r="AC357">
+        <v>1.07</v>
+      </c>
+      <c r="AD357">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE357">
+        <v>1.36</v>
+      </c>
+      <c r="AF357">
+        <v>3.18</v>
+      </c>
+      <c r="AG357">
+        <v>2.05</v>
+      </c>
+      <c r="AH357">
+        <v>1.81</v>
+      </c>
+      <c r="AI357">
+        <v>1.95</v>
+      </c>
+      <c r="AJ357">
+        <v>1.8</v>
+      </c>
+      <c r="AK357">
+        <v>2.05</v>
+      </c>
+      <c r="AL357">
+        <v>1.25</v>
+      </c>
+      <c r="AM357">
+        <v>1.2</v>
+      </c>
+      <c r="AN357">
+        <v>1.71</v>
+      </c>
+      <c r="AO357">
+        <v>1.24</v>
+      </c>
+      <c r="AP357">
+        <v>1.61</v>
+      </c>
+      <c r="AQ357">
+        <v>1.33</v>
+      </c>
+      <c r="AR357">
+        <v>1.39</v>
+      </c>
+      <c r="AS357">
+        <v>1.42</v>
+      </c>
+      <c r="AT357">
+        <v>2.81</v>
+      </c>
+      <c r="AU357">
+        <v>4</v>
+      </c>
+      <c r="AV357">
+        <v>4</v>
+      </c>
+      <c r="AW357">
+        <v>2</v>
+      </c>
+      <c r="AX357">
+        <v>2</v>
+      </c>
+      <c r="AY357">
+        <v>6</v>
+      </c>
+      <c r="AZ357">
+        <v>6</v>
+      </c>
+      <c r="BA357">
+        <v>6</v>
+      </c>
+      <c r="BB357">
+        <v>3</v>
+      </c>
+      <c r="BC357">
+        <v>9</v>
+      </c>
+      <c r="BD357">
+        <v>2.14</v>
+      </c>
+      <c r="BE357">
+        <v>7</v>
+      </c>
+      <c r="BF357">
+        <v>1.94</v>
+      </c>
+      <c r="BG357">
+        <v>1.41</v>
+      </c>
+      <c r="BH357">
+        <v>2.55</v>
+      </c>
+      <c r="BI357">
+        <v>1.73</v>
+      </c>
+      <c r="BJ357">
+        <v>1.96</v>
+      </c>
+      <c r="BK357">
+        <v>2.2</v>
+      </c>
+      <c r="BL357">
+        <v>1.57</v>
+      </c>
+      <c r="BM357">
+        <v>2.88</v>
+      </c>
+      <c r="BN357">
+        <v>1.33</v>
+      </c>
+      <c r="BO357">
+        <v>3.95</v>
+      </c>
+      <c r="BP357">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6703404</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45427.70833333334</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>75</v>
+      </c>
+      <c r="H358" t="s">
+        <v>74</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>3</v>
+      </c>
+      <c r="O358" t="s">
+        <v>315</v>
+      </c>
+      <c r="P358" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q358">
+        <v>3.5</v>
+      </c>
+      <c r="R358">
+        <v>2.1</v>
+      </c>
+      <c r="S358">
+        <v>3.1</v>
+      </c>
+      <c r="T358">
+        <v>1.4</v>
+      </c>
+      <c r="U358">
+        <v>2.75</v>
+      </c>
+      <c r="V358">
+        <v>3</v>
+      </c>
+      <c r="W358">
+        <v>1.36</v>
+      </c>
+      <c r="X358">
+        <v>8</v>
+      </c>
+      <c r="Y358">
+        <v>1.08</v>
+      </c>
+      <c r="Z358">
+        <v>3.1</v>
+      </c>
+      <c r="AA358">
+        <v>3.35</v>
+      </c>
+      <c r="AB358">
+        <v>2.12</v>
+      </c>
+      <c r="AC358">
+        <v>1.05</v>
+      </c>
+      <c r="AD358">
+        <v>11</v>
+      </c>
+      <c r="AE358">
+        <v>1.33</v>
+      </c>
+      <c r="AF358">
+        <v>3.4</v>
+      </c>
+      <c r="AG358">
+        <v>2.01</v>
+      </c>
+      <c r="AH358">
+        <v>1.85</v>
+      </c>
+      <c r="AI358">
+        <v>1.75</v>
+      </c>
+      <c r="AJ358">
+        <v>2</v>
+      </c>
+      <c r="AK358">
+        <v>1.55</v>
+      </c>
+      <c r="AL358">
+        <v>1.28</v>
+      </c>
+      <c r="AM358">
+        <v>1.45</v>
+      </c>
+      <c r="AN358">
+        <v>1.18</v>
+      </c>
+      <c r="AO358">
+        <v>1.35</v>
+      </c>
+      <c r="AP358">
+        <v>1.28</v>
+      </c>
+      <c r="AQ358">
+        <v>1.28</v>
+      </c>
+      <c r="AR358">
+        <v>1.58</v>
+      </c>
+      <c r="AS358">
+        <v>1.19</v>
+      </c>
+      <c r="AT358">
+        <v>2.77</v>
+      </c>
+      <c r="AU358">
+        <v>5</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>3</v>
+      </c>
+      <c r="AX358">
+        <v>3</v>
+      </c>
+      <c r="AY358">
+        <v>8</v>
+      </c>
+      <c r="AZ358">
+        <v>6</v>
+      </c>
+      <c r="BA358">
+        <v>2</v>
+      </c>
+      <c r="BB358">
+        <v>3</v>
+      </c>
+      <c r="BC358">
+        <v>5</v>
+      </c>
+      <c r="BD358">
+        <v>1.77</v>
+      </c>
+      <c r="BE358">
+        <v>7.5</v>
+      </c>
+      <c r="BF358">
+        <v>2.38</v>
+      </c>
+      <c r="BG358">
+        <v>1.22</v>
+      </c>
+      <c r="BH358">
+        <v>3.55</v>
+      </c>
+      <c r="BI358">
+        <v>1.42</v>
+      </c>
+      <c r="BJ358">
+        <v>2.55</v>
+      </c>
+      <c r="BK358">
+        <v>1.72</v>
+      </c>
+      <c r="BL358">
+        <v>1.98</v>
+      </c>
+      <c r="BM358">
+        <v>2.14</v>
+      </c>
+      <c r="BN358">
+        <v>1.6</v>
+      </c>
+      <c r="BO358">
+        <v>2.75</v>
+      </c>
+      <c r="BP358">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>6703406</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45428.60416666666</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>73</v>
+      </c>
+      <c r="H359" t="s">
+        <v>85</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359" t="s">
+        <v>253</v>
+      </c>
+      <c r="P359" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q359">
+        <v>4.5</v>
+      </c>
+      <c r="R359">
+        <v>2.2</v>
+      </c>
+      <c r="S359">
+        <v>2.6</v>
+      </c>
+      <c r="T359">
+        <v>1.4</v>
+      </c>
+      <c r="U359">
+        <v>2.75</v>
+      </c>
+      <c r="V359">
+        <v>3</v>
+      </c>
+      <c r="W359">
+        <v>1.36</v>
+      </c>
+      <c r="X359">
+        <v>8</v>
+      </c>
+      <c r="Y359">
+        <v>1.08</v>
+      </c>
+      <c r="Z359">
+        <v>4</v>
+      </c>
+      <c r="AA359">
+        <v>3.5</v>
+      </c>
+      <c r="AB359">
+        <v>1.91</v>
+      </c>
+      <c r="AC359">
+        <v>1.05</v>
+      </c>
+      <c r="AD359">
+        <v>11</v>
+      </c>
+      <c r="AE359">
+        <v>1.32</v>
+      </c>
+      <c r="AF359">
+        <v>3.4</v>
+      </c>
+      <c r="AG359">
+        <v>1.95</v>
+      </c>
+      <c r="AH359">
+        <v>1.75</v>
+      </c>
+      <c r="AI359">
+        <v>1.8</v>
+      </c>
+      <c r="AJ359">
+        <v>1.95</v>
+      </c>
+      <c r="AK359">
+        <v>1.9</v>
+      </c>
+      <c r="AL359">
+        <v>1.25</v>
+      </c>
+      <c r="AM359">
+        <v>1.26</v>
+      </c>
+      <c r="AN359">
+        <v>1.29</v>
+      </c>
+      <c r="AO359">
+        <v>1.24</v>
+      </c>
+      <c r="AP359">
+        <v>1.28</v>
+      </c>
+      <c r="AQ359">
+        <v>1.22</v>
+      </c>
+      <c r="AR359">
+        <v>1.16</v>
+      </c>
+      <c r="AS359">
+        <v>1.18</v>
+      </c>
+      <c r="AT359">
+        <v>2.34</v>
+      </c>
+      <c r="AU359">
+        <v>10</v>
+      </c>
+      <c r="AV359">
+        <v>5</v>
+      </c>
+      <c r="AW359">
+        <v>4</v>
+      </c>
+      <c r="AX359">
+        <v>0</v>
+      </c>
+      <c r="AY359">
+        <v>14</v>
+      </c>
+      <c r="AZ359">
+        <v>5</v>
+      </c>
+      <c r="BA359">
+        <v>4</v>
+      </c>
+      <c r="BB359">
+        <v>8</v>
+      </c>
+      <c r="BC359">
+        <v>12</v>
+      </c>
+      <c r="BD359">
+        <v>2.25</v>
+      </c>
+      <c r="BE359">
+        <v>8</v>
+      </c>
+      <c r="BF359">
+        <v>1.83</v>
+      </c>
+      <c r="BG359">
+        <v>1.17</v>
+      </c>
+      <c r="BH359">
+        <v>4.2</v>
+      </c>
+      <c r="BI359">
+        <v>1.3</v>
+      </c>
+      <c r="BJ359">
+        <v>2.9</v>
+      </c>
+      <c r="BK359">
+        <v>1.56</v>
+      </c>
+      <c r="BL359">
+        <v>2.2</v>
+      </c>
+      <c r="BM359">
+        <v>1.91</v>
+      </c>
+      <c r="BN359">
+        <v>1.78</v>
+      </c>
+      <c r="BO359">
+        <v>2.38</v>
+      </c>
+      <c r="BP359">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>6703401</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45428.6875</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>70</v>
+      </c>
+      <c r="H360" t="s">
+        <v>84</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>90</v>
+      </c>
+      <c r="P360" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q360">
+        <v>5</v>
+      </c>
+      <c r="R360">
+        <v>2.75</v>
+      </c>
+      <c r="S360">
+        <v>1.91</v>
+      </c>
+      <c r="T360">
+        <v>1.2</v>
+      </c>
+      <c r="U360">
+        <v>4.33</v>
+      </c>
+      <c r="V360">
+        <v>2</v>
+      </c>
+      <c r="W360">
+        <v>1.73</v>
+      </c>
+      <c r="X360">
+        <v>4</v>
+      </c>
+      <c r="Y360">
+        <v>1.22</v>
+      </c>
+      <c r="Z360">
+        <v>5.5</v>
+      </c>
+      <c r="AA360">
+        <v>4.8</v>
+      </c>
+      <c r="AB360">
+        <v>1.5</v>
+      </c>
+      <c r="AC360">
+        <v>1.02</v>
+      </c>
+      <c r="AD360">
+        <v>29</v>
+      </c>
+      <c r="AE360">
+        <v>1.11</v>
+      </c>
+      <c r="AF360">
+        <v>6.5</v>
+      </c>
+      <c r="AG360">
+        <v>1.36</v>
+      </c>
+      <c r="AH360">
+        <v>3.1</v>
+      </c>
+      <c r="AI360">
+        <v>1.53</v>
+      </c>
+      <c r="AJ360">
+        <v>2.38</v>
+      </c>
+      <c r="AK360">
+        <v>2.65</v>
+      </c>
+      <c r="AL360">
+        <v>1.15</v>
+      </c>
+      <c r="AM360">
+        <v>1.14</v>
+      </c>
+      <c r="AN360">
+        <v>0.47</v>
+      </c>
+      <c r="AO360">
+        <v>1.94</v>
+      </c>
+      <c r="AP360">
+        <v>0.44</v>
+      </c>
+      <c r="AQ360">
+        <v>2</v>
+      </c>
+      <c r="AR360">
+        <v>1.61</v>
+      </c>
+      <c r="AS360">
+        <v>1.51</v>
+      </c>
+      <c r="AT360">
+        <v>3.12</v>
+      </c>
+      <c r="AU360">
+        <v>4</v>
+      </c>
+      <c r="AV360">
+        <v>8</v>
+      </c>
+      <c r="AW360">
+        <v>7</v>
+      </c>
+      <c r="AX360">
+        <v>7</v>
+      </c>
+      <c r="AY360">
+        <v>11</v>
+      </c>
+      <c r="AZ360">
+        <v>15</v>
+      </c>
+      <c r="BA360">
+        <v>4</v>
+      </c>
+      <c r="BB360">
+        <v>7</v>
+      </c>
+      <c r="BC360">
+        <v>11</v>
+      </c>
+      <c r="BD360">
+        <v>3</v>
+      </c>
+      <c r="BE360">
+        <v>8</v>
+      </c>
+      <c r="BF360">
+        <v>1.52</v>
+      </c>
+      <c r="BG360">
+        <v>1.22</v>
+      </c>
+      <c r="BH360">
+        <v>3.5</v>
+      </c>
+      <c r="BI360">
+        <v>1.42</v>
+      </c>
+      <c r="BJ360">
+        <v>2.5</v>
+      </c>
+      <c r="BK360">
+        <v>1.74</v>
+      </c>
+      <c r="BL360">
+        <v>1.96</v>
+      </c>
+      <c r="BM360">
+        <v>2.17</v>
+      </c>
+      <c r="BN360">
+        <v>1.58</v>
+      </c>
+      <c r="BO360">
+        <v>2.75</v>
+      </c>
+      <c r="BP360">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>6703403</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45428.70833333334</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>72</v>
+      </c>
+      <c r="H361" t="s">
+        <v>81</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>1</v>
+      </c>
+      <c r="O361" t="s">
+        <v>99</v>
+      </c>
+      <c r="P361" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q361">
+        <v>2.2</v>
+      </c>
+      <c r="R361">
+        <v>2.1</v>
+      </c>
+      <c r="S361">
+        <v>6.5</v>
+      </c>
+      <c r="T361">
+        <v>1.44</v>
+      </c>
+      <c r="U361">
+        <v>2.63</v>
+      </c>
+      <c r="V361">
+        <v>3.4</v>
+      </c>
+      <c r="W361">
+        <v>1.3</v>
+      </c>
+      <c r="X361">
+        <v>10</v>
+      </c>
+      <c r="Y361">
+        <v>1.06</v>
+      </c>
+      <c r="Z361">
+        <v>1.6</v>
+      </c>
+      <c r="AA361">
+        <v>3.7</v>
+      </c>
+      <c r="AB361">
+        <v>6</v>
+      </c>
+      <c r="AC361">
+        <v>1.07</v>
+      </c>
+      <c r="AD361">
+        <v>9</v>
+      </c>
+      <c r="AE361">
+        <v>1.4</v>
+      </c>
+      <c r="AF361">
+        <v>2.95</v>
+      </c>
+      <c r="AG361">
+        <v>2.15</v>
+      </c>
+      <c r="AH361">
+        <v>1.61</v>
+      </c>
+      <c r="AI361">
+        <v>2.2</v>
+      </c>
+      <c r="AJ361">
+        <v>1.62</v>
+      </c>
+      <c r="AK361">
+        <v>1.12</v>
+      </c>
+      <c r="AL361">
+        <v>1.22</v>
+      </c>
+      <c r="AM361">
+        <v>2.4</v>
+      </c>
+      <c r="AN361">
+        <v>1.59</v>
+      </c>
+      <c r="AO361">
+        <v>1.06</v>
+      </c>
+      <c r="AP361">
+        <v>1.67</v>
+      </c>
+      <c r="AQ361">
+        <v>1</v>
+      </c>
+      <c r="AR361">
+        <v>1.52</v>
+      </c>
+      <c r="AS361">
+        <v>1.01</v>
+      </c>
+      <c r="AT361">
+        <v>2.53</v>
+      </c>
+      <c r="AU361">
+        <v>6</v>
+      </c>
+      <c r="AV361">
+        <v>4</v>
+      </c>
+      <c r="AW361">
+        <v>4</v>
+      </c>
+      <c r="AX361">
+        <v>3</v>
+      </c>
+      <c r="AY361">
+        <v>10</v>
+      </c>
+      <c r="AZ361">
+        <v>7</v>
+      </c>
+      <c r="BA361">
+        <v>3</v>
+      </c>
+      <c r="BB361">
+        <v>3</v>
+      </c>
+      <c r="BC361">
+        <v>6</v>
+      </c>
+      <c r="BD361">
+        <v>1.26</v>
+      </c>
+      <c r="BE361">
+        <v>10</v>
+      </c>
+      <c r="BF361">
+        <v>5.1</v>
+      </c>
+      <c r="BG361">
+        <v>1.37</v>
+      </c>
+      <c r="BH361">
+        <v>2.7</v>
+      </c>
+      <c r="BI361">
+        <v>1.66</v>
+      </c>
+      <c r="BJ361">
+        <v>2.05</v>
+      </c>
+      <c r="BK361">
+        <v>2.08</v>
+      </c>
+      <c r="BL361">
+        <v>1.64</v>
+      </c>
+      <c r="BM361">
+        <v>2.65</v>
+      </c>
+      <c r="BN361">
+        <v>1.38</v>
+      </c>
+      <c r="BO361">
+        <v>3.6</v>
+      </c>
+      <c r="BP361">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="454">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1737,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5167,7 +5167,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ17">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -12168,7 +12168,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
         <v>1.28</v>
@@ -13201,7 +13201,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -14849,7 +14849,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR64">
         <v>1.66</v>
@@ -17524,7 +17524,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77">
         <v>1.06</v>
@@ -19793,7 +19793,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19996,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ89">
         <v>1.22</v>
@@ -23089,7 +23089,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
         <v>0.98</v>
@@ -25558,7 +25558,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -27209,7 +27209,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -28442,7 +28442,7 @@
         <v>0.17</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ130">
         <v>0.17</v>
@@ -30711,7 +30711,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ141">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR141">
         <v>1.23</v>
@@ -32974,7 +32974,7 @@
         <v>0.88</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ152">
         <v>0.83</v>
@@ -35449,7 +35449,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ164">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR164">
         <v>1.9</v>
@@ -37097,7 +37097,7 @@
         <v>2.72</v>
       </c>
       <c r="AQ172">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR172">
         <v>1.77</v>
@@ -38536,7 +38536,7 @@
         <v>2.22</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ179">
         <v>2.39</v>
@@ -42656,7 +42656,7 @@
         <v>0.4</v>
       </c>
       <c r="AP199">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ199">
         <v>0.5</v>
@@ -43689,7 +43689,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ204">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR204">
         <v>1.4</v>
@@ -48012,7 +48012,7 @@
         <v>2</v>
       </c>
       <c r="AP225">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ225">
         <v>2</v>
@@ -48839,7 +48839,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ229">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR229">
         <v>1.62</v>
@@ -49660,7 +49660,7 @@
         <v>1.09</v>
       </c>
       <c r="AP233">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ233">
         <v>1.44</v>
@@ -51517,7 +51517,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ242">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR242">
         <v>1.47</v>
@@ -53783,7 +53783,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ253">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR253">
         <v>1.96</v>
@@ -53986,7 +53986,7 @@
         <v>0.58</v>
       </c>
       <c r="AP254">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ254">
         <v>0.61</v>
@@ -57697,7 +57697,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ272">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR272">
         <v>1.22</v>
@@ -58518,7 +58518,7 @@
         <v>1.14</v>
       </c>
       <c r="AP276">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ276">
         <v>1</v>
@@ -63050,7 +63050,7 @@
         <v>1.53</v>
       </c>
       <c r="AP298">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ298">
         <v>1.5</v>
@@ -64289,7 +64289,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ304">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR304">
         <v>1.52</v>
@@ -67376,7 +67376,7 @@
         <v>1.2</v>
       </c>
       <c r="AP319">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ319">
         <v>1.33</v>
@@ -68409,7 +68409,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ324">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR324">
         <v>1.57</v>
@@ -68612,7 +68612,7 @@
         <v>0.88</v>
       </c>
       <c r="AP325">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ325">
         <v>0.78</v>
@@ -72114,7 +72114,7 @@
         <v>1.76</v>
       </c>
       <c r="AP342">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ342">
         <v>1.72</v>
@@ -73147,7 +73147,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ347">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR347">
         <v>1.29</v>
@@ -76107,6 +76107,212 @@
       </c>
       <c r="BP361">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>6703416</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45430.66666666666</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>86</v>
+      </c>
+      <c r="H362" t="s">
+        <v>77</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362" t="s">
+        <v>219</v>
+      </c>
+      <c r="P362" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q362">
+        <v>2.8</v>
+      </c>
+      <c r="R362">
+        <v>1.95</v>
+      </c>
+      <c r="S362">
+        <v>4.33</v>
+      </c>
+      <c r="T362">
+        <v>1.55</v>
+      </c>
+      <c r="U362">
+        <v>2.3</v>
+      </c>
+      <c r="V362">
+        <v>3.4</v>
+      </c>
+      <c r="W362">
+        <v>1.29</v>
+      </c>
+      <c r="X362">
+        <v>9</v>
+      </c>
+      <c r="Y362">
+        <v>1.03</v>
+      </c>
+      <c r="Z362">
+        <v>2.22</v>
+      </c>
+      <c r="AA362">
+        <v>3</v>
+      </c>
+      <c r="AB362">
+        <v>3.75</v>
+      </c>
+      <c r="AC362">
+        <v>1.11</v>
+      </c>
+      <c r="AD362">
+        <v>7.2</v>
+      </c>
+      <c r="AE362">
+        <v>1.5</v>
+      </c>
+      <c r="AF362">
+        <v>2.4</v>
+      </c>
+      <c r="AG362">
+        <v>2.52</v>
+      </c>
+      <c r="AH362">
+        <v>1.49</v>
+      </c>
+      <c r="AI362">
+        <v>2.2</v>
+      </c>
+      <c r="AJ362">
+        <v>1.67</v>
+      </c>
+      <c r="AK362">
+        <v>1.29</v>
+      </c>
+      <c r="AL362">
+        <v>1.36</v>
+      </c>
+      <c r="AM362">
+        <v>1.7</v>
+      </c>
+      <c r="AN362">
+        <v>1.56</v>
+      </c>
+      <c r="AO362">
+        <v>0.78</v>
+      </c>
+      <c r="AP362">
+        <v>1.63</v>
+      </c>
+      <c r="AQ362">
+        <v>0.74</v>
+      </c>
+      <c r="AR362">
+        <v>1.39</v>
+      </c>
+      <c r="AS362">
+        <v>1.23</v>
+      </c>
+      <c r="AT362">
+        <v>2.62</v>
+      </c>
+      <c r="AU362">
+        <v>3</v>
+      </c>
+      <c r="AV362">
+        <v>5</v>
+      </c>
+      <c r="AW362">
+        <v>7</v>
+      </c>
+      <c r="AX362">
+        <v>6</v>
+      </c>
+      <c r="AY362">
+        <v>10</v>
+      </c>
+      <c r="AZ362">
+        <v>11</v>
+      </c>
+      <c r="BA362">
+        <v>2</v>
+      </c>
+      <c r="BB362">
+        <v>1</v>
+      </c>
+      <c r="BC362">
+        <v>3</v>
+      </c>
+      <c r="BD362">
+        <v>1.64</v>
+      </c>
+      <c r="BE362">
+        <v>7.5</v>
+      </c>
+      <c r="BF362">
+        <v>2.65</v>
+      </c>
+      <c r="BG362">
+        <v>1.45</v>
+      </c>
+      <c r="BH362">
+        <v>2.45</v>
+      </c>
+      <c r="BI362">
+        <v>1.73</v>
+      </c>
+      <c r="BJ362">
+        <v>2</v>
+      </c>
+      <c r="BK362">
+        <v>2.3</v>
+      </c>
+      <c r="BL362">
+        <v>1.5</v>
+      </c>
+      <c r="BM362">
+        <v>3.05</v>
+      </c>
+      <c r="BN362">
+        <v>1.29</v>
+      </c>
+      <c r="BO362">
+        <v>4.25</v>
+      </c>
+      <c r="BP362">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -1390,7 +1390,7 @@
     <t>['14', '67']</t>
   </si>
   <si>
-    <t>['32', '58', '67']</t>
+    <t>['33', '58', '67']</t>
   </si>
   <si>
     <t>['26', '52', '64', '88']</t>
@@ -76482,22 +76482,22 @@
         <v>2.61</v>
       </c>
       <c r="AU363">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV363">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW363">
+        <v>8</v>
+      </c>
+      <c r="AX363">
+        <v>6</v>
+      </c>
+      <c r="AY363">
         <v>14</v>
       </c>
-      <c r="AX363">
-        <v>13</v>
-      </c>
-      <c r="AY363">
-        <v>21</v>
-      </c>
       <c r="AZ363">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA363">
         <v>5</v>
@@ -76688,22 +76688,22 @@
         <v>2.97</v>
       </c>
       <c r="AU364">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV364">
         <v>5</v>
       </c>
       <c r="AW364">
+        <v>4</v>
+      </c>
+      <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
         <v>9</v>
       </c>
-      <c r="AX364">
-        <v>5</v>
-      </c>
-      <c r="AY364">
-        <v>16</v>
-      </c>
       <c r="AZ364">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA364">
         <v>8</v>
@@ -76897,19 +76897,19 @@
         <v>4</v>
       </c>
       <c r="AV365">
+        <v>5</v>
+      </c>
+      <c r="AW365">
+        <v>9</v>
+      </c>
+      <c r="AX365">
+        <v>2</v>
+      </c>
+      <c r="AY365">
+        <v>13</v>
+      </c>
+      <c r="AZ365">
         <v>7</v>
-      </c>
-      <c r="AW365">
-        <v>12</v>
-      </c>
-      <c r="AX365">
-        <v>9</v>
-      </c>
-      <c r="AY365">
-        <v>16</v>
-      </c>
-      <c r="AZ365">
-        <v>16</v>
       </c>
       <c r="BA365">
         <v>7</v>
@@ -77100,22 +77100,22 @@
         <v>3.07</v>
       </c>
       <c r="AU366">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV366">
         <v>5</v>
       </c>
       <c r="AW366">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX366">
+        <v>7</v>
+      </c>
+      <c r="AY366">
+        <v>6</v>
+      </c>
+      <c r="AZ366">
         <v>12</v>
-      </c>
-      <c r="AY366">
-        <v>15</v>
-      </c>
-      <c r="AZ366">
-        <v>17</v>
       </c>
       <c r="BA366">
         <v>7</v>
@@ -77306,22 +77306,22 @@
         <v>2.75</v>
       </c>
       <c r="AU367">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV367">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW367">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY367">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ367">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BA367">
         <v>6</v>
@@ -77518,16 +77518,16 @@
         <v>2</v>
       </c>
       <c r="AW368">
+        <v>6</v>
+      </c>
+      <c r="AX368">
         <v>7</v>
       </c>
-      <c r="AX368">
-        <v>8</v>
-      </c>
       <c r="AY368">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ368">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA368">
         <v>5</v>
@@ -77718,22 +77718,22 @@
         <v>2.27</v>
       </c>
       <c r="AU369">
+        <v>7</v>
+      </c>
+      <c r="AV369">
+        <v>2</v>
+      </c>
+      <c r="AW369">
         <v>9</v>
       </c>
-      <c r="AV369">
+      <c r="AX369">
+        <v>2</v>
+      </c>
+      <c r="AY369">
+        <v>16</v>
+      </c>
+      <c r="AZ369">
         <v>4</v>
-      </c>
-      <c r="AW369">
-        <v>21</v>
-      </c>
-      <c r="AX369">
-        <v>4</v>
-      </c>
-      <c r="AY369">
-        <v>30</v>
-      </c>
-      <c r="AZ369">
-        <v>8</v>
       </c>
       <c r="BA369">
         <v>12</v>
@@ -77927,19 +77927,19 @@
         <v>4</v>
       </c>
       <c r="AV370">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW370">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX370">
         <v>3</v>
       </c>
       <c r="AY370">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ370">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA370">
         <v>10</v>
@@ -78130,22 +78130,22 @@
         <v>3.12</v>
       </c>
       <c r="AU371">
+        <v>4</v>
+      </c>
+      <c r="AV371">
+        <v>3</v>
+      </c>
+      <c r="AW371">
+        <v>4</v>
+      </c>
+      <c r="AX371">
+        <v>3</v>
+      </c>
+      <c r="AY371">
         <v>8</v>
       </c>
-      <c r="AV371">
-        <v>8</v>
-      </c>
-      <c r="AW371">
-        <v>14</v>
-      </c>
-      <c r="AX371">
+      <c r="AZ371">
         <v>6</v>
-      </c>
-      <c r="AY371">
-        <v>22</v>
-      </c>
-      <c r="AZ371">
-        <v>14</v>
       </c>
       <c r="BA371">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -76482,22 +76482,22 @@
         <v>2.61</v>
       </c>
       <c r="AU363">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV363">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW363">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AX363">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AY363">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ363">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA363">
         <v>5</v>
@@ -76688,22 +76688,22 @@
         <v>2.97</v>
       </c>
       <c r="AU364">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV364">
         <v>5</v>
       </c>
       <c r="AW364">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX364">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY364">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ364">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA364">
         <v>8</v>
@@ -76897,19 +76897,19 @@
         <v>4</v>
       </c>
       <c r="AV365">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW365">
+        <v>12</v>
+      </c>
+      <c r="AX365">
         <v>9</v>
       </c>
-      <c r="AX365">
-        <v>2</v>
-      </c>
       <c r="AY365">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ365">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA365">
         <v>7</v>
@@ -77100,22 +77100,22 @@
         <v>3.07</v>
       </c>
       <c r="AU366">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV366">
         <v>5</v>
       </c>
       <c r="AW366">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX366">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY366">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ366">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA366">
         <v>7</v>
@@ -77306,22 +77306,22 @@
         <v>2.75</v>
       </c>
       <c r="AU367">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV367">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW367">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX367">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY367">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ367">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA367">
         <v>6</v>
@@ -77518,16 +77518,16 @@
         <v>2</v>
       </c>
       <c r="AW368">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX368">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY368">
+        <v>11</v>
+      </c>
+      <c r="AZ368">
         <v>10</v>
-      </c>
-      <c r="AZ368">
-        <v>9</v>
       </c>
       <c r="BA368">
         <v>5</v>
@@ -77718,22 +77718,22 @@
         <v>2.27</v>
       </c>
       <c r="AU369">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW369">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AX369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY369">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AZ369">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA369">
         <v>12</v>
@@ -77927,19 +77927,19 @@
         <v>4</v>
       </c>
       <c r="AV370">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW370">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX370">
         <v>3</v>
       </c>
       <c r="AY370">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ370">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA370">
         <v>10</v>
@@ -78130,22 +78130,22 @@
         <v>3.12</v>
       </c>
       <c r="AU371">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV371">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW371">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AX371">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY371">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AZ371">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA371">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="470">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -979,7 +979,16 @@
     <t>['30', '33', '44', '54', '75', '78', '90']</t>
   </si>
   <si>
-    <t>['48', '51', '57', '65', '71', '86']</t>
+    <t>['48', '52', '57', '65', '71', '86']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['49', '62']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
   <si>
     <t>['20', '28']</t>
@@ -1120,9 +1129,6 @@
     <t>['2', '24']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['23', '90+4']</t>
   </si>
   <si>
@@ -1166,9 +1172,6 @@
   </si>
   <si>
     <t>['77']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['38', '41', '45+4']</t>
@@ -1411,7 +1414,16 @@
     <t>['14', '30', '40', '45+2']</t>
   </si>
   <si>
-    <t>['9', '90+3']</t>
+    <t>['9', '90+4']</t>
+  </si>
+  <si>
+    <t>['90', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '60']</t>
+  </si>
+  <si>
+    <t>['15', '59']</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP377"/>
+  <dimension ref="A1:BP381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,7 +2044,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2238,7 +2250,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>2.75</v>
@@ -2316,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2444,7 +2456,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2728,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ5">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2856,7 +2868,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -3062,7 +3074,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3140,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ7">
         <v>1.16</v>
@@ -3268,7 +3280,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3552,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3761,7 +3773,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ10">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3886,7 +3898,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -4092,7 +4104,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q12">
         <v>3.5</v>
@@ -4710,7 +4722,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q15">
         <v>4.74</v>
@@ -4916,7 +4928,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5740,7 +5752,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5946,7 +5958,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -6230,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ22">
         <v>1.58</v>
@@ -6436,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ23">
         <v>2.32</v>
@@ -6770,7 +6782,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6851,7 +6863,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ25">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6976,7 +6988,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7054,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
         <v>1.79</v>
@@ -7182,7 +7194,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7263,7 +7275,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7388,7 +7400,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7594,7 +7606,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7878,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR30">
         <v>0.85</v>
@@ -8006,7 +8018,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q31">
         <v>4.5</v>
@@ -8212,7 +8224,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8418,7 +8430,7 @@
         <v>111</v>
       </c>
       <c r="P33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8624,7 +8636,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -9860,7 +9872,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -9941,7 +9953,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -10147,7 +10159,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -10762,10 +10774,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ44">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR44">
         <v>1.18</v>
@@ -11096,7 +11108,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q46">
         <v>3.5</v>
@@ -11174,7 +11186,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ46">
         <v>1.16</v>
@@ -11586,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ48">
         <v>0.84</v>
@@ -11920,7 +11932,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q50">
         <v>3.25</v>
@@ -12126,7 +12138,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12332,7 +12344,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -12413,7 +12425,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ52">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR52">
         <v>1.29</v>
@@ -12744,7 +12756,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -12950,7 +12962,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -13156,7 +13168,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q56">
         <v>2.25</v>
@@ -13852,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ59">
         <v>0.16</v>
@@ -14264,7 +14276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ61">
         <v>0.53</v>
@@ -14392,7 +14404,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14473,7 +14485,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR62">
         <v>0.79</v>
@@ -14804,7 +14816,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15010,7 +15022,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -15216,7 +15228,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15912,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ69">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -16040,7 +16052,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16530,7 +16542,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ72">
         <v>1.42</v>
@@ -16658,7 +16670,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16739,7 +16751,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ73">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR73">
         <v>1.75</v>
@@ -16864,7 +16876,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q74">
         <v>3.7</v>
@@ -17276,7 +17288,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -17482,7 +17494,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -17894,7 +17906,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q79">
         <v>1.83</v>
@@ -18178,7 +18190,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ80">
         <v>0.89</v>
@@ -18924,7 +18936,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19130,7 +19142,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19208,7 +19220,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ85">
         <v>0.95</v>
@@ -19336,7 +19348,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -19748,7 +19760,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19826,7 +19838,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ88">
         <v>0.74</v>
@@ -19954,7 +19966,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -20160,7 +20172,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -20241,7 +20253,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -20653,7 +20665,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ92">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20778,7 +20790,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20856,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
         <v>1.21</v>
@@ -21062,7 +21074,7 @@
         <v>2.4</v>
       </c>
       <c r="AP94">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94">
         <v>2.32</v>
@@ -21190,7 +21202,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21268,7 +21280,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ95">
         <v>1.42</v>
@@ -21474,7 +21486,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ96">
         <v>0.95</v>
@@ -21602,7 +21614,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
@@ -21808,7 +21820,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21889,7 +21901,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -22632,7 +22644,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22838,7 +22850,7 @@
         <v>114</v>
       </c>
       <c r="P103" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23250,7 +23262,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23662,7 +23674,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23868,7 +23880,7 @@
         <v>165</v>
       </c>
       <c r="P108" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -24155,7 +24167,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -24280,7 +24292,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24486,7 +24498,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q111">
         <v>5.5</v>
@@ -24564,7 +24576,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ111">
         <v>1.42</v>
@@ -24692,7 +24704,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24979,7 +24991,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ113">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -25182,7 +25194,7 @@
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ114">
         <v>0.95</v>
@@ -25391,7 +25403,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -25928,7 +25940,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -26418,7 +26430,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ120">
         <v>0.47</v>
@@ -26546,7 +26558,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26752,7 +26764,7 @@
         <v>92</v>
       </c>
       <c r="P122" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26958,7 +26970,7 @@
         <v>117</v>
       </c>
       <c r="P123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27782,7 +27794,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27863,7 +27875,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ127">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR127">
         <v>1.81</v>
@@ -27988,7 +28000,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -28066,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ128">
         <v>1.21</v>
@@ -28606,7 +28618,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28687,7 +28699,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR131">
         <v>1.85</v>
@@ -29096,7 +29108,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ133">
         <v>0.53</v>
@@ -29305,7 +29317,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ134">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR134">
         <v>1.83</v>
@@ -29842,7 +29854,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -30744,7 +30756,7 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ141">
         <v>0.74</v>
@@ -31777,7 +31789,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ146">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR146">
         <v>1.17</v>
@@ -32108,7 +32120,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q148">
         <v>2.63</v>
@@ -32186,7 +32198,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ148">
         <v>1.42</v>
@@ -32598,7 +32610,7 @@
         <v>0.29</v>
       </c>
       <c r="AP150">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ150">
         <v>0.47</v>
@@ -32804,7 +32816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32932,7 +32944,7 @@
         <v>90</v>
       </c>
       <c r="P152" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -33344,7 +33356,7 @@
         <v>90</v>
       </c>
       <c r="P154" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33756,7 +33768,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>1.62</v>
@@ -34168,7 +34180,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -35070,7 +35082,7 @@
         <v>0.13</v>
       </c>
       <c r="AP162">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ162">
         <v>0.16</v>
@@ -35404,7 +35416,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q164">
         <v>2.5</v>
@@ -35482,7 +35494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP164">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ164">
         <v>0.74</v>
@@ -35691,7 +35703,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -35897,7 +35909,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ166">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR166">
         <v>1.72</v>
@@ -36228,7 +36240,7 @@
         <v>95</v>
       </c>
       <c r="P168" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36306,7 +36318,7 @@
         <v>0.38</v>
       </c>
       <c r="AP168">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ168">
         <v>0.47</v>
@@ -36721,7 +36733,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ170">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -37052,7 +37064,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q172">
         <v>1.83</v>
@@ -37258,7 +37270,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q173">
         <v>3.4</v>
@@ -37464,7 +37476,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q174">
         <v>1.5</v>
@@ -37670,7 +37682,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -39112,7 +39124,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q182">
         <v>3.2</v>
@@ -39190,7 +39202,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ182">
         <v>0.95</v>
@@ -39399,7 +39411,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR183">
         <v>1.45</v>
@@ -40014,7 +40026,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ186">
         <v>1.21</v>
@@ -40223,7 +40235,7 @@
         <v>2.68</v>
       </c>
       <c r="AQ187">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR187">
         <v>2.07</v>
@@ -40348,7 +40360,7 @@
         <v>217</v>
       </c>
       <c r="P188" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40760,7 +40772,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40838,7 +40850,7 @@
         <v>1.5</v>
       </c>
       <c r="AP190">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ190">
         <v>1.37</v>
@@ -40966,7 +40978,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q191">
         <v>5.5</v>
@@ -41044,10 +41056,10 @@
         <v>1.75</v>
       </c>
       <c r="AP191">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ191">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -41172,7 +41184,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q192">
         <v>2.6</v>
@@ -41250,10 +41262,10 @@
         <v>0.4</v>
       </c>
       <c r="AP192">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ192">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR192">
         <v>1.78</v>
@@ -41456,7 +41468,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ193">
         <v>1.42</v>
@@ -41584,7 +41596,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q194">
         <v>3.4</v>
@@ -42408,7 +42420,7 @@
         <v>224</v>
       </c>
       <c r="P198" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q198">
         <v>3.6</v>
@@ -42820,7 +42832,7 @@
         <v>90</v>
       </c>
       <c r="P200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q200">
         <v>2.6</v>
@@ -43107,7 +43119,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ201">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR201">
         <v>1.41</v>
@@ -43516,7 +43528,7 @@
         <v>1.3</v>
       </c>
       <c r="AP203">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ203">
         <v>1.58</v>
@@ -43644,7 +43656,7 @@
         <v>226</v>
       </c>
       <c r="P204" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43850,7 +43862,7 @@
         <v>227</v>
       </c>
       <c r="P205" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q205">
         <v>1.5</v>
@@ -44056,7 +44068,7 @@
         <v>228</v>
       </c>
       <c r="P206" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q206">
         <v>4.33</v>
@@ -44137,7 +44149,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ206">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR206">
         <v>1.64</v>
@@ -44262,7 +44274,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44674,7 +44686,7 @@
         <v>90</v>
       </c>
       <c r="P209" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44755,7 +44767,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ209">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR209">
         <v>1.59</v>
@@ -45086,7 +45098,7 @@
         <v>115</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q211">
         <v>6.5</v>
@@ -45164,7 +45176,7 @@
         <v>2.3</v>
       </c>
       <c r="AP211">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ211">
         <v>2.32</v>
@@ -45292,7 +45304,7 @@
         <v>230</v>
       </c>
       <c r="P212" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q212">
         <v>1.73</v>
@@ -45782,7 +45794,7 @@
         <v>2.4</v>
       </c>
       <c r="AP214">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ214">
         <v>1.79</v>
@@ -46194,7 +46206,7 @@
         <v>1.11</v>
       </c>
       <c r="AP216">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ216">
         <v>1.16</v>
@@ -46606,7 +46618,7 @@
         <v>0.1</v>
       </c>
       <c r="AP218">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ218">
         <v>0.16</v>
@@ -46940,7 +46952,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q220">
         <v>1.95</v>
@@ -47146,7 +47158,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47224,7 +47236,7 @@
         <v>2.36</v>
       </c>
       <c r="AP221">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ221">
         <v>2.32</v>
@@ -47433,7 +47445,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ222">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR222">
         <v>1.74</v>
@@ -47764,7 +47776,7 @@
         <v>222</v>
       </c>
       <c r="P224" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47970,7 +47982,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48051,7 +48063,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ225">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR225">
         <v>1.43</v>
@@ -48588,7 +48600,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48794,7 +48806,7 @@
         <v>141</v>
       </c>
       <c r="P229" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q229">
         <v>2.63</v>
@@ -49000,7 +49012,7 @@
         <v>201</v>
       </c>
       <c r="P230" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q230">
         <v>2.25</v>
@@ -49206,7 +49218,7 @@
         <v>93</v>
       </c>
       <c r="P231" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q231">
         <v>2.88</v>
@@ -49412,7 +49424,7 @@
         <v>90</v>
       </c>
       <c r="P232" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q232">
         <v>3.6</v>
@@ -49618,7 +49630,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q233">
         <v>2.88</v>
@@ -50314,7 +50326,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -50442,7 +50454,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50520,7 +50532,7 @@
         <v>0.91</v>
       </c>
       <c r="AP237">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ237">
         <v>0.89</v>
@@ -50932,7 +50944,7 @@
         <v>1.27</v>
       </c>
       <c r="AP239">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ239">
         <v>1.42</v>
@@ -51060,7 +51072,7 @@
         <v>244</v>
       </c>
       <c r="P240" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q240">
         <v>1.62</v>
@@ -52090,7 +52102,7 @@
         <v>248</v>
       </c>
       <c r="P245" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q245">
         <v>4.33</v>
@@ -52168,10 +52180,10 @@
         <v>2.09</v>
       </c>
       <c r="AP245">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ245">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR245">
         <v>1.5</v>
@@ -52708,7 +52720,7 @@
         <v>192</v>
       </c>
       <c r="P248" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52914,7 +52926,7 @@
         <v>249</v>
       </c>
       <c r="P249" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q249">
         <v>4.33</v>
@@ -53201,7 +53213,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ250">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR250">
         <v>1.58</v>
@@ -53326,7 +53338,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q251">
         <v>2.5</v>
@@ -53532,7 +53544,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q252">
         <v>2.38</v>
@@ -54025,7 +54037,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ254">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -54150,7 +54162,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q255">
         <v>4.75</v>
@@ -54356,7 +54368,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54846,7 +54858,7 @@
         <v>1.17</v>
       </c>
       <c r="AP258">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ258">
         <v>1.16</v>
@@ -55464,7 +55476,7 @@
         <v>0.15</v>
       </c>
       <c r="AP261">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ261">
         <v>0.53</v>
@@ -55592,7 +55604,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q262">
         <v>3.4</v>
@@ -55670,7 +55682,7 @@
         <v>1.54</v>
       </c>
       <c r="AP262">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ262">
         <v>1.58</v>
@@ -56004,7 +56016,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q264">
         <v>2.88</v>
@@ -56082,7 +56094,7 @@
         <v>1.08</v>
       </c>
       <c r="AP264">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ264">
         <v>0.84</v>
@@ -56210,7 +56222,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56622,7 +56634,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q267">
         <v>2.1</v>
@@ -57115,7 +57127,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ269">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR269">
         <v>1.72</v>
@@ -57321,7 +57333,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ270">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR270">
         <v>1.46</v>
@@ -57527,7 +57539,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ271">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR271">
         <v>1.96</v>
@@ -58064,7 +58076,7 @@
         <v>267</v>
       </c>
       <c r="P274" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -58682,7 +58694,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58760,7 +58772,7 @@
         <v>1.31</v>
       </c>
       <c r="AP277">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ277">
         <v>1.37</v>
@@ -59094,7 +59106,7 @@
         <v>271</v>
       </c>
       <c r="P279" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q279">
         <v>2.6</v>
@@ -59300,7 +59312,7 @@
         <v>272</v>
       </c>
       <c r="P280" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q280">
         <v>3.6</v>
@@ -59918,7 +59930,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q283">
         <v>5.5</v>
@@ -60202,7 +60214,7 @@
         <v>1.93</v>
       </c>
       <c r="AP284">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ284">
         <v>1.79</v>
@@ -60411,7 +60423,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ285">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR285">
         <v>1.68</v>
@@ -60536,7 +60548,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60614,7 +60626,7 @@
         <v>0.79</v>
       </c>
       <c r="AP286">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ286">
         <v>0.89</v>
@@ -60820,7 +60832,7 @@
         <v>0.14</v>
       </c>
       <c r="AP287">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ287">
         <v>0.53</v>
@@ -61360,7 +61372,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q290">
         <v>2.88</v>
@@ -61441,7 +61453,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ290">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR290">
         <v>1.64</v>
@@ -61850,7 +61862,7 @@
         <v>0.79</v>
       </c>
       <c r="AP292">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ292">
         <v>0.95</v>
@@ -61978,7 +61990,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q293">
         <v>3.4</v>
@@ -62265,7 +62277,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ294">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR294">
         <v>1.22</v>
@@ -62674,7 +62686,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ296">
         <v>0.95</v>
@@ -62802,7 +62814,7 @@
         <v>281</v>
       </c>
       <c r="P297" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63420,7 +63432,7 @@
         <v>283</v>
       </c>
       <c r="P300" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q300">
         <v>3.4</v>
@@ -63626,7 +63638,7 @@
         <v>90</v>
       </c>
       <c r="P301" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q301">
         <v>3.5</v>
@@ -64450,7 +64462,7 @@
         <v>90</v>
       </c>
       <c r="P305" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="Q305">
         <v>5</v>
@@ -64656,7 +64668,7 @@
         <v>90</v>
       </c>
       <c r="P306" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q306">
         <v>4.5</v>
@@ -64737,7 +64749,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ306">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR306">
         <v>1.29</v>
@@ -64862,7 +64874,7 @@
         <v>90</v>
       </c>
       <c r="P307" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q307">
         <v>3.4</v>
@@ -64940,7 +64952,7 @@
         <v>0.93</v>
       </c>
       <c r="AP307">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ307">
         <v>0.95</v>
@@ -65149,7 +65161,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ308">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR308">
         <v>1.42</v>
@@ -65480,7 +65492,7 @@
         <v>287</v>
       </c>
       <c r="P310" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q310">
         <v>1.83</v>
@@ -66176,7 +66188,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ313">
         <v>0.84</v>
@@ -66510,7 +66522,7 @@
         <v>196</v>
       </c>
       <c r="P315" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -66922,7 +66934,7 @@
         <v>93</v>
       </c>
       <c r="P317" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q317">
         <v>4.5</v>
@@ -67000,7 +67012,7 @@
         <v>1.63</v>
       </c>
       <c r="AP317">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ317">
         <v>1.58</v>
@@ -67128,7 +67140,7 @@
         <v>291</v>
       </c>
       <c r="P318" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67540,7 +67552,7 @@
         <v>293</v>
       </c>
       <c r="P320" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q320">
         <v>2.4</v>
@@ -67621,7 +67633,7 @@
         <v>2.68</v>
       </c>
       <c r="AQ320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR320">
         <v>2</v>
@@ -67824,10 +67836,10 @@
         <v>0.6</v>
       </c>
       <c r="AP321">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ321">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR321">
         <v>1.7</v>
@@ -68236,7 +68248,7 @@
         <v>1.69</v>
       </c>
       <c r="AP323">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ323">
         <v>1.79</v>
@@ -68364,7 +68376,7 @@
         <v>295</v>
       </c>
       <c r="P324" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q324">
         <v>3.4</v>
@@ -68776,7 +68788,7 @@
         <v>297</v>
       </c>
       <c r="P326" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q326">
         <v>2.6</v>
@@ -69063,7 +69075,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ327">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR327">
         <v>1.29</v>
@@ -69806,7 +69818,7 @@
         <v>301</v>
       </c>
       <c r="P331" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q331">
         <v>1.83</v>
@@ -70012,7 +70024,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70090,7 +70102,7 @@
         <v>1.25</v>
       </c>
       <c r="AP332">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ332">
         <v>1.37</v>
@@ -70630,7 +70642,7 @@
         <v>304</v>
       </c>
       <c r="P335" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q335">
         <v>3.1</v>
@@ -70711,7 +70723,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ335">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR335">
         <v>1.54</v>
@@ -71042,7 +71054,7 @@
         <v>90</v>
       </c>
       <c r="P337" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q337">
         <v>3.75</v>
@@ -71248,7 +71260,7 @@
         <v>305</v>
       </c>
       <c r="P338" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q338">
         <v>2.88</v>
@@ -71326,7 +71338,7 @@
         <v>1.44</v>
       </c>
       <c r="AP338">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ338">
         <v>1.42</v>
@@ -71454,7 +71466,7 @@
         <v>90</v>
       </c>
       <c r="P339" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q339">
         <v>2.88</v>
@@ -71535,7 +71547,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ339">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR339">
         <v>1.25</v>
@@ -71944,7 +71956,7 @@
         <v>0.19</v>
       </c>
       <c r="AP341">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ341">
         <v>0.16</v>
@@ -72072,7 +72084,7 @@
         <v>307</v>
       </c>
       <c r="P342" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q342">
         <v>4</v>
@@ -72484,7 +72496,7 @@
         <v>308</v>
       </c>
       <c r="P344" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72690,7 +72702,7 @@
         <v>90</v>
       </c>
       <c r="P345" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q345">
         <v>5.5</v>
@@ -72896,7 +72908,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q346">
         <v>2.05</v>
@@ -73720,7 +73732,7 @@
         <v>310</v>
       </c>
       <c r="P350" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q350">
         <v>1.8</v>
@@ -74213,7 +74225,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ352">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR352">
         <v>1.44</v>
@@ -74419,7 +74431,7 @@
         <v>2.68</v>
       </c>
       <c r="AQ353">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR353">
         <v>2.01</v>
@@ -74828,7 +74840,7 @@
         <v>0.35</v>
       </c>
       <c r="AP355">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ355">
         <v>0.47</v>
@@ -74956,7 +74968,7 @@
         <v>314</v>
       </c>
       <c r="P356" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q356">
         <v>2.4</v>
@@ -75162,7 +75174,7 @@
         <v>90</v>
       </c>
       <c r="P357" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q357">
         <v>5</v>
@@ -75240,7 +75252,7 @@
         <v>1.24</v>
       </c>
       <c r="AP357">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ357">
         <v>1.42</v>
@@ -75368,7 +75380,7 @@
         <v>315</v>
       </c>
       <c r="P358" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q358">
         <v>3.5</v>
@@ -75446,7 +75458,7 @@
         <v>1.35</v>
       </c>
       <c r="AP358">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ358">
         <v>1.37</v>
@@ -75574,7 +75586,7 @@
         <v>253</v>
       </c>
       <c r="P359" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q359">
         <v>4.5</v>
@@ -75652,7 +75664,7 @@
         <v>1.24</v>
       </c>
       <c r="AP359">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AQ359">
         <v>1.21</v>
@@ -75780,7 +75792,7 @@
         <v>90</v>
       </c>
       <c r="P360" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q360">
         <v>5</v>
@@ -75861,7 +75873,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ360">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR360">
         <v>1.61</v>
@@ -76398,7 +76410,7 @@
         <v>109</v>
       </c>
       <c r="P363" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q363">
         <v>3.25</v>
@@ -76810,7 +76822,7 @@
         <v>185</v>
       </c>
       <c r="P365" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q365">
         <v>1.85</v>
@@ -77222,7 +77234,7 @@
         <v>90</v>
       </c>
       <c r="P367" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q367">
         <v>3.1</v>
@@ -77634,7 +77646,7 @@
         <v>318</v>
       </c>
       <c r="P369" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q369">
         <v>2.15</v>
@@ -77840,7 +77852,7 @@
         <v>251</v>
       </c>
       <c r="P370" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q370">
         <v>3.65</v>
@@ -78046,7 +78058,7 @@
         <v>319</v>
       </c>
       <c r="P371" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q371">
         <v>3.5</v>
@@ -78664,7 +78676,7 @@
         <v>90</v>
       </c>
       <c r="P374" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q374">
         <v>3.14</v>
@@ -79439,6 +79451,830 @@
       </c>
       <c r="BP377">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:68">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>6703423</v>
+      </c>
+      <c r="C378" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" t="s">
+        <v>69</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45438.375</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>77</v>
+      </c>
+      <c r="H378" t="s">
+        <v>80</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>2</v>
+      </c>
+      <c r="N378">
+        <v>3</v>
+      </c>
+      <c r="O378" t="s">
+        <v>322</v>
+      </c>
+      <c r="P378" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q378">
+        <v>2.82</v>
+      </c>
+      <c r="R378">
+        <v>2.19</v>
+      </c>
+      <c r="S378">
+        <v>4.27</v>
+      </c>
+      <c r="T378">
+        <v>1.46</v>
+      </c>
+      <c r="U378">
+        <v>2.78</v>
+      </c>
+      <c r="V378">
+        <v>3.38</v>
+      </c>
+      <c r="W378">
+        <v>1.33</v>
+      </c>
+      <c r="X378">
+        <v>9</v>
+      </c>
+      <c r="Y378">
+        <v>1.05</v>
+      </c>
+      <c r="Z378">
+        <v>2.3</v>
+      </c>
+      <c r="AA378">
+        <v>3.2</v>
+      </c>
+      <c r="AB378">
+        <v>3.2</v>
+      </c>
+      <c r="AC378">
+        <v>1.06</v>
+      </c>
+      <c r="AD378">
+        <v>8</v>
+      </c>
+      <c r="AE378">
+        <v>1.4</v>
+      </c>
+      <c r="AF378">
+        <v>2.8</v>
+      </c>
+      <c r="AG378">
+        <v>2.2</v>
+      </c>
+      <c r="AH378">
+        <v>1.65</v>
+      </c>
+      <c r="AI378">
+        <v>2.01</v>
+      </c>
+      <c r="AJ378">
+        <v>1.83</v>
+      </c>
+      <c r="AK378">
+        <v>1.35</v>
+      </c>
+      <c r="AL378">
+        <v>1.37</v>
+      </c>
+      <c r="AM378">
+        <v>1.63</v>
+      </c>
+      <c r="AN378">
+        <v>1.61</v>
+      </c>
+      <c r="AO378">
+        <v>0.61</v>
+      </c>
+      <c r="AP378">
+        <v>1.53</v>
+      </c>
+      <c r="AQ378">
+        <v>0.74</v>
+      </c>
+      <c r="AR378">
+        <v>1.37</v>
+      </c>
+      <c r="AS378">
+        <v>1.15</v>
+      </c>
+      <c r="AT378">
+        <v>2.52</v>
+      </c>
+      <c r="AU378">
+        <v>7</v>
+      </c>
+      <c r="AV378">
+        <v>5</v>
+      </c>
+      <c r="AW378">
+        <v>10</v>
+      </c>
+      <c r="AX378">
+        <v>5</v>
+      </c>
+      <c r="AY378">
+        <v>17</v>
+      </c>
+      <c r="AZ378">
+        <v>10</v>
+      </c>
+      <c r="BA378">
+        <v>3</v>
+      </c>
+      <c r="BB378">
+        <v>4</v>
+      </c>
+      <c r="BC378">
+        <v>7</v>
+      </c>
+      <c r="BD378">
+        <v>1.77</v>
+      </c>
+      <c r="BE378">
+        <v>7</v>
+      </c>
+      <c r="BF378">
+        <v>2.43</v>
+      </c>
+      <c r="BG378">
+        <v>1.58</v>
+      </c>
+      <c r="BH378">
+        <v>2.18</v>
+      </c>
+      <c r="BI378">
+        <v>2</v>
+      </c>
+      <c r="BJ378">
+        <v>1.7</v>
+      </c>
+      <c r="BK378">
+        <v>2.6</v>
+      </c>
+      <c r="BL378">
+        <v>1.38</v>
+      </c>
+      <c r="BM378">
+        <v>3.6</v>
+      </c>
+      <c r="BN378">
+        <v>1.21</v>
+      </c>
+      <c r="BO378">
+        <v>5</v>
+      </c>
+      <c r="BP378">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:68">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>6703422</v>
+      </c>
+      <c r="C379" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" t="s">
+        <v>69</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45438.46875</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>75</v>
+      </c>
+      <c r="H379" t="s">
+        <v>81</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>2</v>
+      </c>
+      <c r="N379">
+        <v>4</v>
+      </c>
+      <c r="O379" t="s">
+        <v>323</v>
+      </c>
+      <c r="P379" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q379">
+        <v>2.67</v>
+      </c>
+      <c r="R379">
+        <v>2.26</v>
+      </c>
+      <c r="S379">
+        <v>4.39</v>
+      </c>
+      <c r="T379">
+        <v>1.4</v>
+      </c>
+      <c r="U379">
+        <v>3.01</v>
+      </c>
+      <c r="V379">
+        <v>2.98</v>
+      </c>
+      <c r="W379">
+        <v>1.41</v>
+      </c>
+      <c r="X379">
+        <v>7.3</v>
+      </c>
+      <c r="Y379">
+        <v>1.08</v>
+      </c>
+      <c r="Z379">
+        <v>1.87</v>
+      </c>
+      <c r="AA379">
+        <v>3.6</v>
+      </c>
+      <c r="AB379">
+        <v>4.12</v>
+      </c>
+      <c r="AC379">
+        <v>1.04</v>
+      </c>
+      <c r="AD379">
+        <v>10</v>
+      </c>
+      <c r="AE379">
+        <v>1.29</v>
+      </c>
+      <c r="AF379">
+        <v>3.5</v>
+      </c>
+      <c r="AG379">
+        <v>1.87</v>
+      </c>
+      <c r="AH379">
+        <v>1.87</v>
+      </c>
+      <c r="AI379">
+        <v>1.79</v>
+      </c>
+      <c r="AJ379">
+        <v>1.98</v>
+      </c>
+      <c r="AK379">
+        <v>1.28</v>
+      </c>
+      <c r="AL379">
+        <v>1.33</v>
+      </c>
+      <c r="AM379">
+        <v>1.89</v>
+      </c>
+      <c r="AN379">
+        <v>1.28</v>
+      </c>
+      <c r="AO379">
+        <v>1</v>
+      </c>
+      <c r="AP379">
+        <v>1.26</v>
+      </c>
+      <c r="AQ379">
+        <v>1</v>
+      </c>
+      <c r="AR379">
+        <v>1.56</v>
+      </c>
+      <c r="AS379">
+        <v>1.02</v>
+      </c>
+      <c r="AT379">
+        <v>2.58</v>
+      </c>
+      <c r="AU379">
+        <v>5</v>
+      </c>
+      <c r="AV379">
+        <v>2</v>
+      </c>
+      <c r="AW379">
+        <v>5</v>
+      </c>
+      <c r="AX379">
+        <v>12</v>
+      </c>
+      <c r="AY379">
+        <v>10</v>
+      </c>
+      <c r="AZ379">
+        <v>14</v>
+      </c>
+      <c r="BA379">
+        <v>2</v>
+      </c>
+      <c r="BB379">
+        <v>2</v>
+      </c>
+      <c r="BC379">
+        <v>4</v>
+      </c>
+      <c r="BD379">
+        <v>1.61</v>
+      </c>
+      <c r="BE379">
+        <v>8</v>
+      </c>
+      <c r="BF379">
+        <v>2.7</v>
+      </c>
+      <c r="BG379">
+        <v>1.34</v>
+      </c>
+      <c r="BH379">
+        <v>2.8</v>
+      </c>
+      <c r="BI379">
+        <v>1.62</v>
+      </c>
+      <c r="BJ379">
+        <v>2.1</v>
+      </c>
+      <c r="BK379">
+        <v>2.02</v>
+      </c>
+      <c r="BL379">
+        <v>1.68</v>
+      </c>
+      <c r="BM379">
+        <v>2.6</v>
+      </c>
+      <c r="BN379">
+        <v>1.4</v>
+      </c>
+      <c r="BO379">
+        <v>3.5</v>
+      </c>
+      <c r="BP379">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:68">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>6703430</v>
+      </c>
+      <c r="C380" t="s">
+        <v>68</v>
+      </c>
+      <c r="D380" t="s">
+        <v>69</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45438.46875</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>73</v>
+      </c>
+      <c r="H380" t="s">
+        <v>86</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>2</v>
+      </c>
+      <c r="O380" t="s">
+        <v>124</v>
+      </c>
+      <c r="P380" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q380">
+        <v>3.19</v>
+      </c>
+      <c r="R380">
+        <v>2.17</v>
+      </c>
+      <c r="S380">
+        <v>3.68</v>
+      </c>
+      <c r="T380">
+        <v>1.44</v>
+      </c>
+      <c r="U380">
+        <v>2.85</v>
+      </c>
+      <c r="V380">
+        <v>3.18</v>
+      </c>
+      <c r="W380">
+        <v>1.37</v>
+      </c>
+      <c r="X380">
+        <v>8.1</v>
+      </c>
+      <c r="Y380">
+        <v>1.07</v>
+      </c>
+      <c r="Z380">
+        <v>2.4</v>
+      </c>
+      <c r="AA380">
+        <v>3.4</v>
+      </c>
+      <c r="AB380">
+        <v>2.91</v>
+      </c>
+      <c r="AC380">
+        <v>1.05</v>
+      </c>
+      <c r="AD380">
+        <v>9</v>
+      </c>
+      <c r="AE380">
+        <v>1.36</v>
+      </c>
+      <c r="AF380">
+        <v>3</v>
+      </c>
+      <c r="AG380">
+        <v>2.03</v>
+      </c>
+      <c r="AH380">
+        <v>1.73</v>
+      </c>
+      <c r="AI380">
+        <v>1.86</v>
+      </c>
+      <c r="AJ380">
+        <v>1.98</v>
+      </c>
+      <c r="AK380">
+        <v>1.43</v>
+      </c>
+      <c r="AL380">
+        <v>1.35</v>
+      </c>
+      <c r="AM380">
+        <v>1.56</v>
+      </c>
+      <c r="AN380">
+        <v>1.28</v>
+      </c>
+      <c r="AO380">
+        <v>0.78</v>
+      </c>
+      <c r="AP380">
+        <v>1.26</v>
+      </c>
+      <c r="AQ380">
+        <v>0.79</v>
+      </c>
+      <c r="AR380">
+        <v>1.2</v>
+      </c>
+      <c r="AS380">
+        <v>1.25</v>
+      </c>
+      <c r="AT380">
+        <v>2.45</v>
+      </c>
+      <c r="AU380">
+        <v>5</v>
+      </c>
+      <c r="AV380">
+        <v>5</v>
+      </c>
+      <c r="AW380">
+        <v>5</v>
+      </c>
+      <c r="AX380">
+        <v>11</v>
+      </c>
+      <c r="AY380">
+        <v>10</v>
+      </c>
+      <c r="AZ380">
+        <v>16</v>
+      </c>
+      <c r="BA380">
+        <v>2</v>
+      </c>
+      <c r="BB380">
+        <v>6</v>
+      </c>
+      <c r="BC380">
+        <v>8</v>
+      </c>
+      <c r="BD380">
+        <v>1.82</v>
+      </c>
+      <c r="BE380">
+        <v>7.5</v>
+      </c>
+      <c r="BF380">
+        <v>2.3</v>
+      </c>
+      <c r="BG380">
+        <v>1.37</v>
+      </c>
+      <c r="BH380">
+        <v>2.7</v>
+      </c>
+      <c r="BI380">
+        <v>1.67</v>
+      </c>
+      <c r="BJ380">
+        <v>2.04</v>
+      </c>
+      <c r="BK380">
+        <v>2.1</v>
+      </c>
+      <c r="BL380">
+        <v>1.62</v>
+      </c>
+      <c r="BM380">
+        <v>2.75</v>
+      </c>
+      <c r="BN380">
+        <v>1.36</v>
+      </c>
+      <c r="BO380">
+        <v>3.7</v>
+      </c>
+      <c r="BP380">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:68">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>6703428</v>
+      </c>
+      <c r="C381" t="s">
+        <v>68</v>
+      </c>
+      <c r="D381" t="s">
+        <v>69</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45438.66666666666</v>
+      </c>
+      <c r="F381">
+        <v>38</v>
+      </c>
+      <c r="G381" t="s">
+        <v>71</v>
+      </c>
+      <c r="H381" t="s">
+        <v>84</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381">
+        <v>2</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>2</v>
+      </c>
+      <c r="N381">
+        <v>3</v>
+      </c>
+      <c r="O381" t="s">
+        <v>324</v>
+      </c>
+      <c r="P381" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q381">
+        <v>4.26</v>
+      </c>
+      <c r="R381">
+        <v>2.62</v>
+      </c>
+      <c r="S381">
+        <v>2.34</v>
+      </c>
+      <c r="T381">
+        <v>1.26</v>
+      </c>
+      <c r="U381">
+        <v>3.75</v>
+      </c>
+      <c r="V381">
+        <v>2.24</v>
+      </c>
+      <c r="W381">
+        <v>1.67</v>
+      </c>
+      <c r="X381">
+        <v>4.85</v>
+      </c>
+      <c r="Y381">
+        <v>1.17</v>
+      </c>
+      <c r="Z381">
+        <v>3.36</v>
+      </c>
+      <c r="AA381">
+        <v>3.49</v>
+      </c>
+      <c r="AB381">
+        <v>1.84</v>
+      </c>
+      <c r="AC381">
+        <v>1.02</v>
+      </c>
+      <c r="AD381">
+        <v>21</v>
+      </c>
+      <c r="AE381">
+        <v>1.15</v>
+      </c>
+      <c r="AF381">
+        <v>5</v>
+      </c>
+      <c r="AG381">
+        <v>1.48</v>
+      </c>
+      <c r="AH381">
+        <v>2.54</v>
+      </c>
+      <c r="AI381">
+        <v>1.49</v>
+      </c>
+      <c r="AJ381">
+        <v>2.54</v>
+      </c>
+      <c r="AK381">
+        <v>2.03</v>
+      </c>
+      <c r="AL381">
+        <v>1.26</v>
+      </c>
+      <c r="AM381">
+        <v>1.29</v>
+      </c>
+      <c r="AN381">
+        <v>1.28</v>
+      </c>
+      <c r="AO381">
+        <v>2</v>
+      </c>
+      <c r="AP381">
+        <v>1.21</v>
+      </c>
+      <c r="AQ381">
+        <v>2.05</v>
+      </c>
+      <c r="AR381">
+        <v>1.64</v>
+      </c>
+      <c r="AS381">
+        <v>1.53</v>
+      </c>
+      <c r="AT381">
+        <v>3.17</v>
+      </c>
+      <c r="AU381">
+        <v>7</v>
+      </c>
+      <c r="AV381">
+        <v>7</v>
+      </c>
+      <c r="AW381">
+        <v>9</v>
+      </c>
+      <c r="AX381">
+        <v>5</v>
+      </c>
+      <c r="AY381">
+        <v>16</v>
+      </c>
+      <c r="AZ381">
+        <v>12</v>
+      </c>
+      <c r="BA381">
+        <v>6</v>
+      </c>
+      <c r="BB381">
+        <v>5</v>
+      </c>
+      <c r="BC381">
+        <v>11</v>
+      </c>
+      <c r="BD381">
+        <v>2.48</v>
+      </c>
+      <c r="BE381">
+        <v>7.5</v>
+      </c>
+      <c r="BF381">
+        <v>1.72</v>
+      </c>
+      <c r="BG381">
+        <v>1.25</v>
+      </c>
+      <c r="BH381">
+        <v>3.3</v>
+      </c>
+      <c r="BI381">
+        <v>1.47</v>
+      </c>
+      <c r="BJ381">
+        <v>2.4</v>
+      </c>
+      <c r="BK381">
+        <v>1.82</v>
+      </c>
+      <c r="BL381">
+        <v>1.87</v>
+      </c>
+      <c r="BM381">
+        <v>2.28</v>
+      </c>
+      <c r="BN381">
+        <v>1.52</v>
+      </c>
+      <c r="BO381">
+        <v>2.95</v>
+      </c>
+      <c r="BP381">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -79799,22 +79799,22 @@
         <v>2.58</v>
       </c>
       <c r="AU379">
+        <v>2</v>
+      </c>
+      <c r="AV379">
+        <v>2</v>
+      </c>
+      <c r="AW379">
+        <v>3</v>
+      </c>
+      <c r="AX379">
+        <v>7</v>
+      </c>
+      <c r="AY379">
         <v>5</v>
       </c>
-      <c r="AV379">
-        <v>2</v>
-      </c>
-      <c r="AW379">
-        <v>5</v>
-      </c>
-      <c r="AX379">
-        <v>12</v>
-      </c>
-      <c r="AY379">
-        <v>10</v>
-      </c>
       <c r="AZ379">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA379">
         <v>2</v>
@@ -80005,22 +80005,22 @@
         <v>2.45</v>
       </c>
       <c r="AU380">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV380">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW380">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX380">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AY380">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ380">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BA380">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20232024.xlsx
@@ -79799,22 +79799,22 @@
         <v>2.58</v>
       </c>
       <c r="AU379">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV379">
         <v>2</v>
       </c>
       <c r="AW379">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX379">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY379">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ379">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA379">
         <v>2</v>
@@ -80005,22 +80005,22 @@
         <v>2.45</v>
       </c>
       <c r="AU380">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV380">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW380">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX380">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY380">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ380">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA380">
         <v>2</v>
